--- a/FB TestCases.xlsx
+++ b/FB TestCases.xlsx
@@ -253,16 +253,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2. In URL-field enter </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Correct</t>
+      <t xml:space="preserve">2. In URL-field enter Correct</t>
     </r>
     <r>
       <rPr>
@@ -340,16 +331,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2. In URL-field enter </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Correct</t>
+      <t xml:space="preserve">2. In URL-field enter Correct</t>
     </r>
     <r>
       <rPr>
@@ -372,16 +354,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5. Enter </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Correct</t>
+      <t xml:space="preserve">5. Enter Correct</t>
     </r>
     <r>
       <rPr>
@@ -429,16 +402,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2. In URL-field enter </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Correct</t>
+      <t xml:space="preserve">2. In URL-field enter Correct</t>
     </r>
     <r>
       <rPr>
@@ -460,16 +424,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4. Enter </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Correct</t>
+      <t xml:space="preserve">4. Enter Correct</t>
     </r>
     <r>
       <rPr>
@@ -490,16 +445,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5. Enter </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Incorrect</t>
+      <t xml:space="preserve">5. Enter Incorrect</t>
     </r>
     <r>
       <rPr>
@@ -552,16 +498,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2. In URL-field enter </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Correct</t>
+      <t xml:space="preserve">2. In URL-field enter Correct</t>
     </r>
     <r>
       <rPr>
@@ -583,16 +520,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4. Enter </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Incorrect</t>
+      <t xml:space="preserve">4. Enter Incorrect</t>
     </r>
     <r>
       <rPr>
@@ -613,16 +541,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5. Enter </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Correct</t>
+      <t xml:space="preserve">5. Enter Correct</t>
     </r>
     <r>
       <rPr>
@@ -656,16 +575,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Password: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Sagamba@123.</t>
+      <t xml:space="preserve">Password: Sagamba@123.</t>
     </r>
   </si>
   <si>
@@ -691,16 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Test case verifies if a user is not allowed to login with </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">incorrect</t>
+      <t xml:space="preserve">Test case verifies if a user is not allowed to login with incorrect</t>
     </r>
     <r>
       <rPr>
@@ -733,16 +634,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2. In URL-field enter </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Correct</t>
+      <t xml:space="preserve">2. In URL-field enter Correct</t>
     </r>
     <r>
       <rPr>
@@ -764,16 +656,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4. Enter </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Incorrect</t>
+      <t xml:space="preserve">4. Enter Incorrect</t>
     </r>
     <r>
       <rPr>
@@ -794,16 +677,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5. Enter </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Incorrect</t>
+      <t xml:space="preserve">5. Enter Incorrect</t>
     </r>
     <r>
       <rPr>
@@ -875,16 +749,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2. In URL-field enter </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Correct</t>
+      <t xml:space="preserve">2. In URL-field enter Correct</t>
     </r>
     <r>
       <rPr>
@@ -907,16 +772,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5. Enter </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Correct</t>
+      <t xml:space="preserve">5. Enter Correct</t>
     </r>
     <r>
       <rPr>
@@ -931,25 +787,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Password: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Sagamba@123.</t>
-    </r>
+    <t xml:space="preserve">Password: Sagamba@123.</t>
   </si>
   <si>
     <t xml:space="preserve">Total Fail</t>
@@ -981,16 +819,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2. In URL-field enter </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Correct</t>
+      <t xml:space="preserve">2. In URL-field enter Correct</t>
     </r>
     <r>
       <rPr>
@@ -1012,16 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4. Enter </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Correct</t>
+      <t xml:space="preserve">4. Enter Correct</t>
     </r>
     <r>
       <rPr>
@@ -1077,7 +897,7 @@
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="166" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1168,19 +988,6 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <b val="true"/>
@@ -1435,7 +1242,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="50">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1600,10 +1407,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1612,7 +1415,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1636,11 +1439,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1796,7 +1595,7 @@
   <dimension ref="B1:K12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="66" zoomScaleNormal="66" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+      <selection pane="topLeft" activeCell="E17" activeCellId="1" sqref="B126 E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.08203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2031,7 +1830,7 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="true" showErrorMessage="false" showInputMessage="false" sqref="F3 F5" type="custom">
-      <formula1>OR(NOT(ISERROR(DATEVALUE(#REF!))), AND(ISNUMBER(#REF!), LEFT(CELL("format", #REF!))="D"))</formula1>
+      <formula1>OR(NOT(ISERROR(DATEVALUE(#ref!))), AND(ISNUMBER(#ref!), LEFT(CELL("format", #ref!))="D"))</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -2054,12 +1853,12 @@
   <dimension ref="A1:AH874"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="66" zoomScaleNormal="66" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="L12" activeCellId="0" sqref="L12"/>
+      <selection pane="bottomLeft" activeCell="B126" activeCellId="0" sqref="B126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.41796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="23" width="3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="23" width="17.26"/>
@@ -2485,7 +2284,7 @@
       <c r="B11" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="36" t="s">
         <v>43</v>
       </c>
       <c r="D11" s="37" t="s">
@@ -2501,13 +2300,13 @@
       <c r="H11" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="I11" s="42" t="s">
+      <c r="I11" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="J11" s="43" t="s">
+      <c r="J11" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="K11" s="42" t="s">
+      <c r="K11" s="41" t="s">
         <v>41</v>
       </c>
       <c r="L11" s="22"/>
@@ -2532,16 +2331,16 @@
     </row>
     <row r="12" customFormat="false" ht="81.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="3"/>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="42" t="s">
+      <c r="D12" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="42"/>
+      <c r="E12" s="41"/>
       <c r="F12" s="38" t="s">
         <v>36</v>
       </c>
@@ -2551,13 +2350,13 @@
       <c r="H12" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="I12" s="42" t="s">
+      <c r="I12" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="J12" s="43" t="s">
+      <c r="J12" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="K12" s="42" t="s">
+      <c r="K12" s="41" t="s">
         <v>41</v>
       </c>
       <c r="L12" s="22"/>
@@ -2582,16 +2381,16 @@
     </row>
     <row r="13" customFormat="false" ht="81.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="3"/>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="D13" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="42"/>
+      <c r="E13" s="41"/>
       <c r="F13" s="38" t="s">
         <v>36</v>
       </c>
@@ -2601,21 +2400,21 @@
       <c r="H13" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="I13" s="42" t="s">
+      <c r="I13" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="J13" s="43" t="s">
+      <c r="J13" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="K13" s="42" t="s">
+      <c r="K13" s="41" t="s">
         <v>41</v>
       </c>
       <c r="L13" s="22"/>
       <c r="M13" s="3"/>
-      <c r="N13" s="44" t="s">
+      <c r="N13" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="O13" s="44"/>
+      <c r="O13" s="43"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
@@ -2636,14 +2435,14 @@
     </row>
     <row r="14" customFormat="false" ht="81.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="3"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41" t="s">
+      <c r="B14" s="36"/>
+      <c r="C14" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="42" t="s">
+      <c r="D14" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="42"/>
+      <c r="E14" s="41"/>
       <c r="F14" s="38" t="s">
         <v>36</v>
       </c>
@@ -2653,21 +2452,21 @@
       <c r="H14" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="I14" s="42" t="s">
+      <c r="I14" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="J14" s="43" t="s">
+      <c r="J14" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="K14" s="42" t="s">
+      <c r="K14" s="41" t="s">
         <v>41</v>
       </c>
       <c r="L14" s="22"/>
       <c r="M14" s="3"/>
-      <c r="N14" s="45" t="s">
+      <c r="N14" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="O14" s="46" t="s">
+      <c r="O14" s="45" t="s">
         <v>66</v>
       </c>
       <c r="P14" s="3"/>
@@ -2690,8 +2489,8 @@
     </row>
     <row r="15" customFormat="false" ht="81.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="3"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41" t="s">
+      <c r="B15" s="36"/>
+      <c r="C15" s="36" t="s">
         <v>67</v>
       </c>
       <c r="D15" s="22" t="s">
@@ -2704,16 +2503,16 @@
       <c r="G15" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="H15" s="47" t="s">
+      <c r="H15" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="I15" s="42" t="s">
+      <c r="I15" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="J15" s="43" t="s">
+      <c r="J15" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="K15" s="42" t="s">
+      <c r="K15" s="41" t="s">
         <v>41</v>
       </c>
       <c r="L15" s="22"/>
@@ -2745,14 +2544,14 @@
     </row>
     <row r="16" customFormat="false" ht="81.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="3"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41" t="s">
+      <c r="B16" s="36"/>
+      <c r="C16" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="42" t="s">
+      <c r="D16" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="42"/>
+      <c r="E16" s="41"/>
       <c r="F16" s="38" t="s">
         <v>36</v>
       </c>
@@ -2762,18 +2561,18 @@
       <c r="H16" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="I16" s="42" t="s">
+      <c r="I16" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="J16" s="43" t="s">
+      <c r="J16" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="K16" s="42" t="s">
+      <c r="K16" s="41" t="s">
         <v>41</v>
       </c>
       <c r="L16" s="22"/>
       <c r="M16" s="3"/>
-      <c r="N16" s="42" t="s">
+      <c r="N16" s="41" t="s">
         <v>77</v>
       </c>
       <c r="O16" s="37" t="n">
@@ -2800,14 +2599,14 @@
     </row>
     <row r="17" customFormat="false" ht="81.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="3"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41" t="s">
+      <c r="B17" s="36"/>
+      <c r="C17" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="42" t="s">
+      <c r="D17" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="E17" s="42"/>
+      <c r="E17" s="41"/>
       <c r="F17" s="38" t="s">
         <v>36</v>
       </c>
@@ -2817,18 +2616,18 @@
       <c r="H17" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="I17" s="42" t="s">
+      <c r="I17" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="J17" s="43" t="s">
+      <c r="J17" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="K17" s="42" t="s">
+      <c r="K17" s="41" t="s">
         <v>41</v>
       </c>
       <c r="L17" s="22"/>
       <c r="M17" s="3"/>
-      <c r="N17" s="42" t="s">
+      <c r="N17" s="41" t="s">
         <v>83</v>
       </c>
       <c r="O17" s="37" t="n">
@@ -2855,14 +2654,14 @@
     </row>
     <row r="18" customFormat="false" ht="94.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="3"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41" t="s">
+      <c r="B18" s="36"/>
+      <c r="C18" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="D18" s="42" t="s">
+      <c r="D18" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="E18" s="42"/>
+      <c r="E18" s="41"/>
       <c r="F18" s="38" t="s">
         <v>36</v>
       </c>
@@ -2872,13 +2671,13 @@
       <c r="H18" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="I18" s="42" t="s">
+      <c r="I18" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="J18" s="43" t="s">
+      <c r="J18" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="K18" s="42" t="s">
+      <c r="K18" s="41" t="s">
         <v>41</v>
       </c>
       <c r="L18" s="22"/>
@@ -2905,13 +2704,13 @@
     </row>
     <row r="19" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="4"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
       <c r="I19" s="4"/>
       <c r="J19" s="3"/>
       <c r="K19" s="4"/>
@@ -2939,13 +2738,13 @@
     </row>
     <row r="20" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="4"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
       <c r="I20" s="4"/>
       <c r="J20" s="3"/>
       <c r="K20" s="4"/>
@@ -2973,13 +2772,13 @@
     </row>
     <row r="21" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="4"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
       <c r="I21" s="4"/>
       <c r="J21" s="3"/>
       <c r="K21" s="4"/>
@@ -3007,13 +2806,13 @@
     </row>
     <row r="22" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="4"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
       <c r="I22" s="4"/>
       <c r="J22" s="3"/>
       <c r="K22" s="4"/>
@@ -3041,13 +2840,13 @@
     </row>
     <row r="23" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="4"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
       <c r="I23" s="4"/>
       <c r="J23" s="3"/>
       <c r="K23" s="4"/>
@@ -3075,13 +2874,13 @@
     </row>
     <row r="24" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="4"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
       <c r="I24" s="4"/>
       <c r="J24" s="3"/>
       <c r="K24" s="4"/>
@@ -3109,13 +2908,13 @@
     </row>
     <row r="25" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="4"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
       <c r="I25" s="4"/>
       <c r="J25" s="3"/>
       <c r="K25" s="4"/>
@@ -3143,13 +2942,13 @@
     </row>
     <row r="26" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="4"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
       <c r="I26" s="4"/>
       <c r="J26" s="3"/>
       <c r="K26" s="4"/>
@@ -3177,13 +2976,13 @@
     </row>
     <row r="27" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="4"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
       <c r="I27" s="4"/>
       <c r="J27" s="3"/>
       <c r="K27" s="4"/>
@@ -3211,13 +3010,13 @@
     </row>
     <row r="28" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="4"/>
-      <c r="B28" s="48"/>
-      <c r="C28" s="48"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
       <c r="I28" s="4"/>
       <c r="J28" s="3"/>
       <c r="K28" s="4"/>
@@ -3245,13 +3044,13 @@
     </row>
     <row r="29" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="4"/>
-      <c r="B29" s="48"/>
-      <c r="C29" s="48"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
+      <c r="F29" s="48"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="48"/>
       <c r="I29" s="4"/>
       <c r="J29" s="3"/>
       <c r="K29" s="4"/>
@@ -3279,13 +3078,13 @@
     </row>
     <row r="30" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="4"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
+      <c r="F30" s="48"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
       <c r="I30" s="4"/>
       <c r="J30" s="3"/>
       <c r="K30" s="4"/>
@@ -3313,13 +3112,13 @@
     </row>
     <row r="31" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="4"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
+      <c r="F31" s="48"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
       <c r="I31" s="4"/>
       <c r="J31" s="3"/>
       <c r="K31" s="4"/>
@@ -3347,13 +3146,13 @@
     </row>
     <row r="32" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="4"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="48"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
+      <c r="F32" s="48"/>
+      <c r="G32" s="48"/>
+      <c r="H32" s="48"/>
       <c r="I32" s="4"/>
       <c r="J32" s="3"/>
       <c r="K32" s="4"/>
@@ -3381,13 +3180,13 @@
     </row>
     <row r="33" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="4"/>
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="47"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="48"/>
       <c r="I33" s="4"/>
       <c r="J33" s="3"/>
       <c r="K33" s="4"/>
@@ -3415,13 +3214,13 @@
     </row>
     <row r="34" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="4"/>
-      <c r="B34" s="48"/>
-      <c r="C34" s="48"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
       <c r="I34" s="4"/>
       <c r="J34" s="3"/>
       <c r="K34" s="4"/>
@@ -3449,13 +3248,13 @@
     </row>
     <row r="35" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="4"/>
-      <c r="B35" s="48"/>
-      <c r="C35" s="48"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="47"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
       <c r="I35" s="4"/>
       <c r="J35" s="3"/>
       <c r="K35" s="4"/>
@@ -3483,13 +3282,13 @@
     </row>
     <row r="36" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="4"/>
-      <c r="B36" s="48"/>
-      <c r="C36" s="48"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="47"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="49"/>
+      <c r="F36" s="48"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="48"/>
       <c r="I36" s="4"/>
       <c r="J36" s="3"/>
       <c r="K36" s="4"/>
@@ -3517,13 +3316,13 @@
     </row>
     <row r="37" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="4"/>
-      <c r="B37" s="48"/>
-      <c r="C37" s="48"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="47"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="49"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
       <c r="I37" s="4"/>
       <c r="J37" s="3"/>
       <c r="K37" s="4"/>
@@ -3551,13 +3350,13 @@
     </row>
     <row r="38" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="4"/>
-      <c r="B38" s="48"/>
-      <c r="C38" s="48"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="47"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="49"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
       <c r="I38" s="4"/>
       <c r="J38" s="3"/>
       <c r="K38" s="4"/>
@@ -3585,13 +3384,13 @@
     </row>
     <row r="39" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="4"/>
-      <c r="B39" s="48"/>
-      <c r="C39" s="48"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="47"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="49"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="48"/>
+      <c r="H39" s="48"/>
       <c r="I39" s="4"/>
       <c r="J39" s="3"/>
       <c r="K39" s="4"/>
@@ -3619,13 +3418,13 @@
     </row>
     <row r="40" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="4"/>
-      <c r="B40" s="48"/>
-      <c r="C40" s="48"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="47"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="49"/>
+      <c r="F40" s="48"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="48"/>
       <c r="I40" s="4"/>
       <c r="J40" s="3"/>
       <c r="K40" s="4"/>
@@ -3653,13 +3452,13 @@
     </row>
     <row r="41" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="4"/>
-      <c r="B41" s="48"/>
-      <c r="C41" s="48"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="47"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="49"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="48"/>
+      <c r="H41" s="48"/>
       <c r="I41" s="4"/>
       <c r="J41" s="3"/>
       <c r="K41" s="4"/>
@@ -3687,13 +3486,13 @@
     </row>
     <row r="42" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="4"/>
-      <c r="B42" s="48"/>
-      <c r="C42" s="48"/>
+      <c r="B42" s="47"/>
+      <c r="C42" s="47"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="49"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="48"/>
       <c r="I42" s="4"/>
       <c r="J42" s="3"/>
       <c r="K42" s="4"/>
@@ -3721,13 +3520,13 @@
     </row>
     <row r="43" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="4"/>
-      <c r="B43" s="48"/>
-      <c r="C43" s="48"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="47"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="49"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="48"/>
+      <c r="H43" s="48"/>
       <c r="I43" s="4"/>
       <c r="J43" s="3"/>
       <c r="K43" s="4"/>
@@ -3755,13 +3554,13 @@
     </row>
     <row r="44" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="4"/>
-      <c r="B44" s="48"/>
-      <c r="C44" s="48"/>
+      <c r="B44" s="47"/>
+      <c r="C44" s="47"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="49"/>
+      <c r="F44" s="48"/>
+      <c r="G44" s="48"/>
+      <c r="H44" s="48"/>
       <c r="I44" s="4"/>
       <c r="J44" s="3"/>
       <c r="K44" s="4"/>
@@ -3789,13 +3588,13 @@
     </row>
     <row r="45" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="4"/>
-      <c r="B45" s="48"/>
-      <c r="C45" s="48"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="47"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="49"/>
+      <c r="F45" s="48"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="48"/>
       <c r="I45" s="4"/>
       <c r="J45" s="3"/>
       <c r="K45" s="4"/>
@@ -3823,13 +3622,13 @@
     </row>
     <row r="46" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="4"/>
-      <c r="B46" s="48"/>
-      <c r="C46" s="48"/>
+      <c r="B46" s="47"/>
+      <c r="C46" s="47"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
-      <c r="F46" s="49"/>
-      <c r="G46" s="49"/>
-      <c r="H46" s="49"/>
+      <c r="F46" s="48"/>
+      <c r="G46" s="48"/>
+      <c r="H46" s="48"/>
       <c r="I46" s="4"/>
       <c r="J46" s="3"/>
       <c r="K46" s="4"/>
@@ -3857,13 +3656,13 @@
     </row>
     <row r="47" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="4"/>
-      <c r="B47" s="48"/>
-      <c r="C47" s="48"/>
+      <c r="B47" s="47"/>
+      <c r="C47" s="47"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
-      <c r="F47" s="49"/>
-      <c r="G47" s="49"/>
-      <c r="H47" s="49"/>
+      <c r="F47" s="48"/>
+      <c r="G47" s="48"/>
+      <c r="H47" s="48"/>
       <c r="I47" s="4"/>
       <c r="J47" s="3"/>
       <c r="K47" s="4"/>
@@ -3891,13 +3690,13 @@
     </row>
     <row r="48" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="4"/>
-      <c r="B48" s="48"/>
-      <c r="C48" s="48"/>
+      <c r="B48" s="47"/>
+      <c r="C48" s="47"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
-      <c r="F48" s="49"/>
-      <c r="G48" s="49"/>
-      <c r="H48" s="49"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="48"/>
       <c r="I48" s="4"/>
       <c r="J48" s="3"/>
       <c r="K48" s="4"/>
@@ -3925,13 +3724,13 @@
     </row>
     <row r="49" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="4"/>
-      <c r="B49" s="48"/>
-      <c r="C49" s="48"/>
+      <c r="B49" s="47"/>
+      <c r="C49" s="47"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="49"/>
-      <c r="H49" s="49"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="48"/>
+      <c r="H49" s="48"/>
       <c r="I49" s="4"/>
       <c r="J49" s="3"/>
       <c r="K49" s="4"/>
@@ -3959,13 +3758,13 @@
     </row>
     <row r="50" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="4"/>
-      <c r="B50" s="48"/>
-      <c r="C50" s="48"/>
+      <c r="B50" s="47"/>
+      <c r="C50" s="47"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
-      <c r="F50" s="49"/>
-      <c r="G50" s="49"/>
-      <c r="H50" s="49"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="48"/>
+      <c r="H50" s="48"/>
       <c r="I50" s="4"/>
       <c r="J50" s="3"/>
       <c r="K50" s="4"/>
@@ -3993,13 +3792,13 @@
     </row>
     <row r="51" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="4"/>
-      <c r="B51" s="48"/>
-      <c r="C51" s="48"/>
+      <c r="B51" s="47"/>
+      <c r="C51" s="47"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
-      <c r="F51" s="49"/>
-      <c r="G51" s="49"/>
-      <c r="H51" s="49"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="48"/>
+      <c r="H51" s="48"/>
       <c r="I51" s="4"/>
       <c r="J51" s="3"/>
       <c r="K51" s="4"/>
@@ -4027,13 +3826,13 @@
     </row>
     <row r="52" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="4"/>
-      <c r="B52" s="48"/>
-      <c r="C52" s="48"/>
+      <c r="B52" s="47"/>
+      <c r="C52" s="47"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
-      <c r="F52" s="49"/>
-      <c r="G52" s="49"/>
-      <c r="H52" s="49"/>
+      <c r="F52" s="48"/>
+      <c r="G52" s="48"/>
+      <c r="H52" s="48"/>
       <c r="I52" s="4"/>
       <c r="J52" s="3"/>
       <c r="K52" s="4"/>
@@ -4061,13 +3860,13 @@
     </row>
     <row r="53" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="4"/>
-      <c r="B53" s="48"/>
-      <c r="C53" s="48"/>
+      <c r="B53" s="47"/>
+      <c r="C53" s="47"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
-      <c r="F53" s="49"/>
-      <c r="G53" s="49"/>
-      <c r="H53" s="49"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="48"/>
+      <c r="H53" s="48"/>
       <c r="I53" s="4"/>
       <c r="J53" s="3"/>
       <c r="K53" s="4"/>
@@ -4095,13 +3894,13 @@
     </row>
     <row r="54" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="4"/>
-      <c r="B54" s="48"/>
-      <c r="C54" s="48"/>
+      <c r="B54" s="47"/>
+      <c r="C54" s="47"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
-      <c r="F54" s="49"/>
-      <c r="G54" s="49"/>
-      <c r="H54" s="49"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="48"/>
+      <c r="H54" s="48"/>
       <c r="I54" s="4"/>
       <c r="J54" s="3"/>
       <c r="K54" s="4"/>
@@ -4129,13 +3928,13 @@
     </row>
     <row r="55" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="4"/>
-      <c r="B55" s="48"/>
-      <c r="C55" s="48"/>
+      <c r="B55" s="47"/>
+      <c r="C55" s="47"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
-      <c r="F55" s="49"/>
-      <c r="G55" s="49"/>
-      <c r="H55" s="49"/>
+      <c r="F55" s="48"/>
+      <c r="G55" s="48"/>
+      <c r="H55" s="48"/>
       <c r="I55" s="4"/>
       <c r="J55" s="3"/>
       <c r="K55" s="4"/>
@@ -4163,13 +3962,13 @@
     </row>
     <row r="56" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="4"/>
-      <c r="B56" s="48"/>
-      <c r="C56" s="48"/>
+      <c r="B56" s="47"/>
+      <c r="C56" s="47"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
-      <c r="F56" s="49"/>
-      <c r="G56" s="49"/>
-      <c r="H56" s="49"/>
+      <c r="F56" s="48"/>
+      <c r="G56" s="48"/>
+      <c r="H56" s="48"/>
       <c r="I56" s="4"/>
       <c r="J56" s="3"/>
       <c r="K56" s="4"/>
@@ -4197,13 +3996,13 @@
     </row>
     <row r="57" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="4"/>
-      <c r="B57" s="48"/>
-      <c r="C57" s="48"/>
+      <c r="B57" s="47"/>
+      <c r="C57" s="47"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
-      <c r="F57" s="49"/>
-      <c r="G57" s="49"/>
-      <c r="H57" s="49"/>
+      <c r="F57" s="48"/>
+      <c r="G57" s="48"/>
+      <c r="H57" s="48"/>
       <c r="I57" s="4"/>
       <c r="J57" s="3"/>
       <c r="K57" s="4"/>
@@ -4231,13 +4030,13 @@
     </row>
     <row r="58" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="4"/>
-      <c r="B58" s="48"/>
-      <c r="C58" s="48"/>
+      <c r="B58" s="47"/>
+      <c r="C58" s="47"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
-      <c r="F58" s="49"/>
-      <c r="G58" s="49"/>
-      <c r="H58" s="49"/>
+      <c r="F58" s="48"/>
+      <c r="G58" s="48"/>
+      <c r="H58" s="48"/>
       <c r="I58" s="4"/>
       <c r="J58" s="3"/>
       <c r="K58" s="4"/>
@@ -4265,13 +4064,13 @@
     </row>
     <row r="59" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="4"/>
-      <c r="B59" s="48"/>
-      <c r="C59" s="48"/>
+      <c r="B59" s="47"/>
+      <c r="C59" s="47"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
-      <c r="F59" s="49"/>
-      <c r="G59" s="49"/>
-      <c r="H59" s="49"/>
+      <c r="F59" s="48"/>
+      <c r="G59" s="48"/>
+      <c r="H59" s="48"/>
       <c r="I59" s="4"/>
       <c r="J59" s="3"/>
       <c r="K59" s="4"/>
@@ -4299,13 +4098,13 @@
     </row>
     <row r="60" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="4"/>
-      <c r="B60" s="48"/>
-      <c r="C60" s="48"/>
+      <c r="B60" s="47"/>
+      <c r="C60" s="47"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
-      <c r="F60" s="49"/>
-      <c r="G60" s="49"/>
-      <c r="H60" s="49"/>
+      <c r="F60" s="48"/>
+      <c r="G60" s="48"/>
+      <c r="H60" s="48"/>
       <c r="I60" s="4"/>
       <c r="J60" s="3"/>
       <c r="K60" s="4"/>
@@ -4333,13 +4132,13 @@
     </row>
     <row r="61" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="4"/>
-      <c r="B61" s="48"/>
-      <c r="C61" s="48"/>
+      <c r="B61" s="47"/>
+      <c r="C61" s="47"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
-      <c r="F61" s="49"/>
-      <c r="G61" s="49"/>
-      <c r="H61" s="49"/>
+      <c r="F61" s="48"/>
+      <c r="G61" s="48"/>
+      <c r="H61" s="48"/>
       <c r="I61" s="4"/>
       <c r="J61" s="3"/>
       <c r="K61" s="4"/>
@@ -4367,13 +4166,13 @@
     </row>
     <row r="62" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="4"/>
-      <c r="B62" s="48"/>
-      <c r="C62" s="48"/>
+      <c r="B62" s="47"/>
+      <c r="C62" s="47"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
-      <c r="F62" s="49"/>
-      <c r="G62" s="49"/>
-      <c r="H62" s="49"/>
+      <c r="F62" s="48"/>
+      <c r="G62" s="48"/>
+      <c r="H62" s="48"/>
       <c r="I62" s="4"/>
       <c r="J62" s="3"/>
       <c r="K62" s="4"/>
@@ -4401,13 +4200,13 @@
     </row>
     <row r="63" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="4"/>
-      <c r="B63" s="48"/>
-      <c r="C63" s="48"/>
+      <c r="B63" s="47"/>
+      <c r="C63" s="47"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
-      <c r="F63" s="49"/>
-      <c r="G63" s="49"/>
-      <c r="H63" s="49"/>
+      <c r="F63" s="48"/>
+      <c r="G63" s="48"/>
+      <c r="H63" s="48"/>
       <c r="I63" s="4"/>
       <c r="J63" s="3"/>
       <c r="K63" s="4"/>
@@ -4435,13 +4234,13 @@
     </row>
     <row r="64" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="4"/>
-      <c r="B64" s="48"/>
-      <c r="C64" s="48"/>
+      <c r="B64" s="47"/>
+      <c r="C64" s="47"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
-      <c r="F64" s="49"/>
-      <c r="G64" s="49"/>
-      <c r="H64" s="49"/>
+      <c r="F64" s="48"/>
+      <c r="G64" s="48"/>
+      <c r="H64" s="48"/>
       <c r="I64" s="4"/>
       <c r="J64" s="3"/>
       <c r="K64" s="4"/>
@@ -4469,13 +4268,13 @@
     </row>
     <row r="65" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="4"/>
-      <c r="B65" s="48"/>
-      <c r="C65" s="48"/>
+      <c r="B65" s="47"/>
+      <c r="C65" s="47"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
-      <c r="F65" s="49"/>
-      <c r="G65" s="49"/>
-      <c r="H65" s="49"/>
+      <c r="F65" s="48"/>
+      <c r="G65" s="48"/>
+      <c r="H65" s="48"/>
       <c r="I65" s="4"/>
       <c r="J65" s="3"/>
       <c r="K65" s="4"/>
@@ -4503,13 +4302,13 @@
     </row>
     <row r="66" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="4"/>
-      <c r="B66" s="48"/>
-      <c r="C66" s="48"/>
+      <c r="B66" s="47"/>
+      <c r="C66" s="47"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
-      <c r="F66" s="49"/>
-      <c r="G66" s="49"/>
-      <c r="H66" s="49"/>
+      <c r="F66" s="48"/>
+      <c r="G66" s="48"/>
+      <c r="H66" s="48"/>
       <c r="I66" s="4"/>
       <c r="J66" s="3"/>
       <c r="K66" s="4"/>
@@ -4537,13 +4336,13 @@
     </row>
     <row r="67" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="4"/>
-      <c r="B67" s="48"/>
-      <c r="C67" s="48"/>
+      <c r="B67" s="47"/>
+      <c r="C67" s="47"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
-      <c r="F67" s="49"/>
-      <c r="G67" s="49"/>
-      <c r="H67" s="49"/>
+      <c r="F67" s="48"/>
+      <c r="G67" s="48"/>
+      <c r="H67" s="48"/>
       <c r="I67" s="4"/>
       <c r="J67" s="3"/>
       <c r="K67" s="4"/>
@@ -4571,13 +4370,13 @@
     </row>
     <row r="68" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="4"/>
-      <c r="B68" s="48"/>
-      <c r="C68" s="48"/>
+      <c r="B68" s="47"/>
+      <c r="C68" s="47"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
-      <c r="F68" s="49"/>
-      <c r="G68" s="49"/>
-      <c r="H68" s="49"/>
+      <c r="F68" s="48"/>
+      <c r="G68" s="48"/>
+      <c r="H68" s="48"/>
       <c r="I68" s="4"/>
       <c r="J68" s="3"/>
       <c r="K68" s="4"/>
@@ -4605,13 +4404,13 @@
     </row>
     <row r="69" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="4"/>
-      <c r="B69" s="48"/>
-      <c r="C69" s="48"/>
+      <c r="B69" s="47"/>
+      <c r="C69" s="47"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
-      <c r="F69" s="49"/>
-      <c r="G69" s="49"/>
-      <c r="H69" s="49"/>
+      <c r="F69" s="48"/>
+      <c r="G69" s="48"/>
+      <c r="H69" s="48"/>
       <c r="I69" s="4"/>
       <c r="J69" s="3"/>
       <c r="K69" s="4"/>
@@ -4639,13 +4438,13 @@
     </row>
     <row r="70" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="4"/>
-      <c r="B70" s="48"/>
-      <c r="C70" s="48"/>
+      <c r="B70" s="47"/>
+      <c r="C70" s="47"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
-      <c r="F70" s="49"/>
-      <c r="G70" s="49"/>
-      <c r="H70" s="49"/>
+      <c r="F70" s="48"/>
+      <c r="G70" s="48"/>
+      <c r="H70" s="48"/>
       <c r="I70" s="4"/>
       <c r="J70" s="3"/>
       <c r="K70" s="4"/>
@@ -4673,13 +4472,13 @@
     </row>
     <row r="71" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="4"/>
-      <c r="B71" s="48"/>
-      <c r="C71" s="48"/>
+      <c r="B71" s="47"/>
+      <c r="C71" s="47"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
-      <c r="F71" s="49"/>
-      <c r="G71" s="49"/>
-      <c r="H71" s="49"/>
+      <c r="F71" s="48"/>
+      <c r="G71" s="48"/>
+      <c r="H71" s="48"/>
       <c r="I71" s="4"/>
       <c r="J71" s="3"/>
       <c r="K71" s="4"/>
@@ -4707,13 +4506,13 @@
     </row>
     <row r="72" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="4"/>
-      <c r="B72" s="48"/>
-      <c r="C72" s="48"/>
+      <c r="B72" s="47"/>
+      <c r="C72" s="47"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
-      <c r="F72" s="49"/>
-      <c r="G72" s="49"/>
-      <c r="H72" s="49"/>
+      <c r="F72" s="48"/>
+      <c r="G72" s="48"/>
+      <c r="H72" s="48"/>
       <c r="I72" s="4"/>
       <c r="J72" s="3"/>
       <c r="K72" s="4"/>
@@ -4741,13 +4540,13 @@
     </row>
     <row r="73" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="4"/>
-      <c r="B73" s="48"/>
-      <c r="C73" s="48"/>
+      <c r="B73" s="47"/>
+      <c r="C73" s="47"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
-      <c r="F73" s="49"/>
-      <c r="G73" s="49"/>
-      <c r="H73" s="49"/>
+      <c r="F73" s="48"/>
+      <c r="G73" s="48"/>
+      <c r="H73" s="48"/>
       <c r="I73" s="4"/>
       <c r="J73" s="3"/>
       <c r="K73" s="4"/>
@@ -4775,13 +4574,13 @@
     </row>
     <row r="74" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="4"/>
-      <c r="B74" s="48"/>
-      <c r="C74" s="48"/>
+      <c r="B74" s="47"/>
+      <c r="C74" s="47"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
-      <c r="F74" s="49"/>
-      <c r="G74" s="49"/>
-      <c r="H74" s="49"/>
+      <c r="F74" s="48"/>
+      <c r="G74" s="48"/>
+      <c r="H74" s="48"/>
       <c r="I74" s="4"/>
       <c r="J74" s="3"/>
       <c r="K74" s="4"/>
@@ -4809,13 +4608,13 @@
     </row>
     <row r="75" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="4"/>
-      <c r="B75" s="48"/>
-      <c r="C75" s="48"/>
+      <c r="B75" s="47"/>
+      <c r="C75" s="47"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
-      <c r="F75" s="49"/>
-      <c r="G75" s="49"/>
-      <c r="H75" s="49"/>
+      <c r="F75" s="48"/>
+      <c r="G75" s="48"/>
+      <c r="H75" s="48"/>
       <c r="I75" s="4"/>
       <c r="J75" s="3"/>
       <c r="K75" s="4"/>
@@ -4843,13 +4642,13 @@
     </row>
     <row r="76" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="4"/>
-      <c r="B76" s="48"/>
-      <c r="C76" s="48"/>
+      <c r="B76" s="47"/>
+      <c r="C76" s="47"/>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
-      <c r="F76" s="49"/>
-      <c r="G76" s="49"/>
-      <c r="H76" s="49"/>
+      <c r="F76" s="48"/>
+      <c r="G76" s="48"/>
+      <c r="H76" s="48"/>
       <c r="I76" s="4"/>
       <c r="J76" s="3"/>
       <c r="K76" s="4"/>
@@ -4877,13 +4676,13 @@
     </row>
     <row r="77" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="4"/>
-      <c r="B77" s="48"/>
-      <c r="C77" s="48"/>
+      <c r="B77" s="47"/>
+      <c r="C77" s="47"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
-      <c r="F77" s="49"/>
-      <c r="G77" s="49"/>
-      <c r="H77" s="49"/>
+      <c r="F77" s="48"/>
+      <c r="G77" s="48"/>
+      <c r="H77" s="48"/>
       <c r="I77" s="4"/>
       <c r="J77" s="3"/>
       <c r="K77" s="4"/>
@@ -4911,13 +4710,13 @@
     </row>
     <row r="78" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="4"/>
-      <c r="B78" s="48"/>
-      <c r="C78" s="48"/>
+      <c r="B78" s="47"/>
+      <c r="C78" s="47"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
-      <c r="F78" s="49"/>
-      <c r="G78" s="49"/>
-      <c r="H78" s="49"/>
+      <c r="F78" s="48"/>
+      <c r="G78" s="48"/>
+      <c r="H78" s="48"/>
       <c r="I78" s="4"/>
       <c r="J78" s="3"/>
       <c r="K78" s="4"/>
@@ -4945,13 +4744,13 @@
     </row>
     <row r="79" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="4"/>
-      <c r="B79" s="48"/>
-      <c r="C79" s="48"/>
+      <c r="B79" s="47"/>
+      <c r="C79" s="47"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
-      <c r="F79" s="49"/>
-      <c r="G79" s="49"/>
-      <c r="H79" s="49"/>
+      <c r="F79" s="48"/>
+      <c r="G79" s="48"/>
+      <c r="H79" s="48"/>
       <c r="I79" s="4"/>
       <c r="J79" s="3"/>
       <c r="K79" s="4"/>
@@ -4979,13 +4778,13 @@
     </row>
     <row r="80" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="4"/>
-      <c r="B80" s="48"/>
-      <c r="C80" s="48"/>
+      <c r="B80" s="47"/>
+      <c r="C80" s="47"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
-      <c r="F80" s="49"/>
-      <c r="G80" s="49"/>
-      <c r="H80" s="49"/>
+      <c r="F80" s="48"/>
+      <c r="G80" s="48"/>
+      <c r="H80" s="48"/>
       <c r="I80" s="4"/>
       <c r="J80" s="3"/>
       <c r="K80" s="4"/>
@@ -5013,13 +4812,13 @@
     </row>
     <row r="81" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="4"/>
-      <c r="B81" s="48"/>
-      <c r="C81" s="48"/>
+      <c r="B81" s="47"/>
+      <c r="C81" s="47"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
-      <c r="F81" s="49"/>
-      <c r="G81" s="49"/>
-      <c r="H81" s="49"/>
+      <c r="F81" s="48"/>
+      <c r="G81" s="48"/>
+      <c r="H81" s="48"/>
       <c r="I81" s="4"/>
       <c r="J81" s="3"/>
       <c r="K81" s="4"/>
@@ -5047,13 +4846,13 @@
     </row>
     <row r="82" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="4"/>
-      <c r="B82" s="48"/>
-      <c r="C82" s="48"/>
+      <c r="B82" s="47"/>
+      <c r="C82" s="47"/>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
-      <c r="F82" s="49"/>
-      <c r="G82" s="49"/>
-      <c r="H82" s="49"/>
+      <c r="F82" s="48"/>
+      <c r="G82" s="48"/>
+      <c r="H82" s="48"/>
       <c r="I82" s="4"/>
       <c r="J82" s="3"/>
       <c r="K82" s="4"/>
@@ -5081,13 +4880,13 @@
     </row>
     <row r="83" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="4"/>
-      <c r="B83" s="48"/>
-      <c r="C83" s="48"/>
+      <c r="B83" s="47"/>
+      <c r="C83" s="47"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
-      <c r="F83" s="49"/>
-      <c r="G83" s="49"/>
-      <c r="H83" s="49"/>
+      <c r="F83" s="48"/>
+      <c r="G83" s="48"/>
+      <c r="H83" s="48"/>
       <c r="I83" s="4"/>
       <c r="J83" s="3"/>
       <c r="K83" s="4"/>
@@ -5115,13 +4914,13 @@
     </row>
     <row r="84" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="4"/>
-      <c r="B84" s="48"/>
-      <c r="C84" s="48"/>
+      <c r="B84" s="47"/>
+      <c r="C84" s="47"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
-      <c r="F84" s="49"/>
-      <c r="G84" s="49"/>
-      <c r="H84" s="49"/>
+      <c r="F84" s="48"/>
+      <c r="G84" s="48"/>
+      <c r="H84" s="48"/>
       <c r="I84" s="4"/>
       <c r="J84" s="3"/>
       <c r="K84" s="4"/>
@@ -5149,13 +4948,13 @@
     </row>
     <row r="85" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="4"/>
-      <c r="B85" s="48"/>
-      <c r="C85" s="48"/>
+      <c r="B85" s="47"/>
+      <c r="C85" s="47"/>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
-      <c r="F85" s="49"/>
-      <c r="G85" s="49"/>
-      <c r="H85" s="49"/>
+      <c r="F85" s="48"/>
+      <c r="G85" s="48"/>
+      <c r="H85" s="48"/>
       <c r="I85" s="4"/>
       <c r="J85" s="3"/>
       <c r="K85" s="4"/>
@@ -5183,13 +4982,13 @@
     </row>
     <row r="86" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="4"/>
-      <c r="B86" s="48"/>
-      <c r="C86" s="48"/>
+      <c r="B86" s="47"/>
+      <c r="C86" s="47"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
-      <c r="F86" s="49"/>
-      <c r="G86" s="49"/>
-      <c r="H86" s="49"/>
+      <c r="F86" s="48"/>
+      <c r="G86" s="48"/>
+      <c r="H86" s="48"/>
       <c r="I86" s="4"/>
       <c r="J86" s="3"/>
       <c r="K86" s="4"/>
@@ -5217,13 +5016,13 @@
     </row>
     <row r="87" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="4"/>
-      <c r="B87" s="48"/>
-      <c r="C87" s="48"/>
+      <c r="B87" s="47"/>
+      <c r="C87" s="47"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
-      <c r="F87" s="49"/>
-      <c r="G87" s="49"/>
-      <c r="H87" s="49"/>
+      <c r="F87" s="48"/>
+      <c r="G87" s="48"/>
+      <c r="H87" s="48"/>
       <c r="I87" s="4"/>
       <c r="J87" s="3"/>
       <c r="K87" s="4"/>
@@ -5251,13 +5050,13 @@
     </row>
     <row r="88" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="4"/>
-      <c r="B88" s="48"/>
-      <c r="C88" s="48"/>
+      <c r="B88" s="47"/>
+      <c r="C88" s="47"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
-      <c r="F88" s="49"/>
-      <c r="G88" s="49"/>
-      <c r="H88" s="49"/>
+      <c r="F88" s="48"/>
+      <c r="G88" s="48"/>
+      <c r="H88" s="48"/>
       <c r="I88" s="4"/>
       <c r="J88" s="3"/>
       <c r="K88" s="4"/>
@@ -5285,13 +5084,13 @@
     </row>
     <row r="89" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="4"/>
-      <c r="B89" s="48"/>
-      <c r="C89" s="48"/>
+      <c r="B89" s="47"/>
+      <c r="C89" s="47"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
-      <c r="F89" s="49"/>
-      <c r="G89" s="49"/>
-      <c r="H89" s="49"/>
+      <c r="F89" s="48"/>
+      <c r="G89" s="48"/>
+      <c r="H89" s="48"/>
       <c r="I89" s="4"/>
       <c r="J89" s="3"/>
       <c r="K89" s="4"/>
@@ -5319,13 +5118,13 @@
     </row>
     <row r="90" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="4"/>
-      <c r="B90" s="48"/>
-      <c r="C90" s="48"/>
+      <c r="B90" s="47"/>
+      <c r="C90" s="47"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
-      <c r="F90" s="49"/>
-      <c r="G90" s="49"/>
-      <c r="H90" s="49"/>
+      <c r="F90" s="48"/>
+      <c r="G90" s="48"/>
+      <c r="H90" s="48"/>
       <c r="I90" s="4"/>
       <c r="J90" s="3"/>
       <c r="K90" s="4"/>
@@ -5353,13 +5152,13 @@
     </row>
     <row r="91" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="4"/>
-      <c r="B91" s="48"/>
-      <c r="C91" s="48"/>
+      <c r="B91" s="47"/>
+      <c r="C91" s="47"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
-      <c r="F91" s="49"/>
-      <c r="G91" s="49"/>
-      <c r="H91" s="49"/>
+      <c r="F91" s="48"/>
+      <c r="G91" s="48"/>
+      <c r="H91" s="48"/>
       <c r="I91" s="4"/>
       <c r="J91" s="3"/>
       <c r="K91" s="4"/>
@@ -5387,13 +5186,13 @@
     </row>
     <row r="92" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="4"/>
-      <c r="B92" s="48"/>
-      <c r="C92" s="48"/>
+      <c r="B92" s="47"/>
+      <c r="C92" s="47"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
-      <c r="F92" s="49"/>
-      <c r="G92" s="49"/>
-      <c r="H92" s="49"/>
+      <c r="F92" s="48"/>
+      <c r="G92" s="48"/>
+      <c r="H92" s="48"/>
       <c r="I92" s="4"/>
       <c r="J92" s="3"/>
       <c r="K92" s="4"/>
@@ -5421,13 +5220,13 @@
     </row>
     <row r="93" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="4"/>
-      <c r="B93" s="48"/>
-      <c r="C93" s="48"/>
+      <c r="B93" s="47"/>
+      <c r="C93" s="47"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
-      <c r="F93" s="49"/>
-      <c r="G93" s="49"/>
-      <c r="H93" s="49"/>
+      <c r="F93" s="48"/>
+      <c r="G93" s="48"/>
+      <c r="H93" s="48"/>
       <c r="I93" s="4"/>
       <c r="J93" s="3"/>
       <c r="K93" s="4"/>
@@ -5455,13 +5254,13 @@
     </row>
     <row r="94" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="4"/>
-      <c r="B94" s="48"/>
-      <c r="C94" s="48"/>
+      <c r="B94" s="47"/>
+      <c r="C94" s="47"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
-      <c r="F94" s="49"/>
-      <c r="G94" s="49"/>
-      <c r="H94" s="49"/>
+      <c r="F94" s="48"/>
+      <c r="G94" s="48"/>
+      <c r="H94" s="48"/>
       <c r="I94" s="4"/>
       <c r="J94" s="3"/>
       <c r="K94" s="4"/>
@@ -5489,13 +5288,13 @@
     </row>
     <row r="95" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="4"/>
-      <c r="B95" s="48"/>
-      <c r="C95" s="48"/>
+      <c r="B95" s="47"/>
+      <c r="C95" s="47"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
-      <c r="F95" s="49"/>
-      <c r="G95" s="49"/>
-      <c r="H95" s="49"/>
+      <c r="F95" s="48"/>
+      <c r="G95" s="48"/>
+      <c r="H95" s="48"/>
       <c r="I95" s="4"/>
       <c r="J95" s="3"/>
       <c r="K95" s="4"/>
@@ -5523,13 +5322,13 @@
     </row>
     <row r="96" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="4"/>
-      <c r="B96" s="48"/>
-      <c r="C96" s="48"/>
+      <c r="B96" s="47"/>
+      <c r="C96" s="47"/>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
-      <c r="F96" s="49"/>
-      <c r="G96" s="49"/>
-      <c r="H96" s="49"/>
+      <c r="F96" s="48"/>
+      <c r="G96" s="48"/>
+      <c r="H96" s="48"/>
       <c r="I96" s="4"/>
       <c r="J96" s="3"/>
       <c r="K96" s="4"/>
@@ -5557,13 +5356,13 @@
     </row>
     <row r="97" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A97" s="4"/>
-      <c r="B97" s="48"/>
-      <c r="C97" s="48"/>
+      <c r="B97" s="47"/>
+      <c r="C97" s="47"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
-      <c r="F97" s="49"/>
-      <c r="G97" s="49"/>
-      <c r="H97" s="49"/>
+      <c r="F97" s="48"/>
+      <c r="G97" s="48"/>
+      <c r="H97" s="48"/>
       <c r="I97" s="4"/>
       <c r="J97" s="3"/>
       <c r="K97" s="4"/>
@@ -5591,13 +5390,13 @@
     </row>
     <row r="98" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="4"/>
-      <c r="B98" s="48"/>
-      <c r="C98" s="48"/>
+      <c r="B98" s="47"/>
+      <c r="C98" s="47"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
-      <c r="F98" s="49"/>
-      <c r="G98" s="49"/>
-      <c r="H98" s="49"/>
+      <c r="F98" s="48"/>
+      <c r="G98" s="48"/>
+      <c r="H98" s="48"/>
       <c r="I98" s="4"/>
       <c r="J98" s="3"/>
       <c r="K98" s="4"/>
@@ -5625,13 +5424,13 @@
     </row>
     <row r="99" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="4"/>
-      <c r="B99" s="48"/>
-      <c r="C99" s="48"/>
+      <c r="B99" s="47"/>
+      <c r="C99" s="47"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
-      <c r="F99" s="49"/>
-      <c r="G99" s="49"/>
-      <c r="H99" s="49"/>
+      <c r="F99" s="48"/>
+      <c r="G99" s="48"/>
+      <c r="H99" s="48"/>
       <c r="I99" s="4"/>
       <c r="J99" s="3"/>
       <c r="K99" s="4"/>
@@ -5659,13 +5458,13 @@
     </row>
     <row r="100" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="4"/>
-      <c r="B100" s="48"/>
-      <c r="C100" s="48"/>
+      <c r="B100" s="47"/>
+      <c r="C100" s="47"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
-      <c r="F100" s="49"/>
-      <c r="G100" s="49"/>
-      <c r="H100" s="49"/>
+      <c r="F100" s="48"/>
+      <c r="G100" s="48"/>
+      <c r="H100" s="48"/>
       <c r="I100" s="4"/>
       <c r="J100" s="3"/>
       <c r="K100" s="4"/>
@@ -5693,13 +5492,13 @@
     </row>
     <row r="101" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="4"/>
-      <c r="B101" s="48"/>
-      <c r="C101" s="48"/>
+      <c r="B101" s="47"/>
+      <c r="C101" s="47"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
-      <c r="F101" s="49"/>
-      <c r="G101" s="49"/>
-      <c r="H101" s="49"/>
+      <c r="F101" s="48"/>
+      <c r="G101" s="48"/>
+      <c r="H101" s="48"/>
       <c r="I101" s="4"/>
       <c r="J101" s="3"/>
       <c r="K101" s="4"/>
@@ -5727,13 +5526,13 @@
     </row>
     <row r="102" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A102" s="4"/>
-      <c r="B102" s="48"/>
-      <c r="C102" s="48"/>
+      <c r="B102" s="47"/>
+      <c r="C102" s="47"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
-      <c r="F102" s="49"/>
-      <c r="G102" s="49"/>
-      <c r="H102" s="49"/>
+      <c r="F102" s="48"/>
+      <c r="G102" s="48"/>
+      <c r="H102" s="48"/>
       <c r="I102" s="4"/>
       <c r="J102" s="3"/>
       <c r="K102" s="4"/>
@@ -5761,13 +5560,13 @@
     </row>
     <row r="103" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="4"/>
-      <c r="B103" s="48"/>
-      <c r="C103" s="48"/>
+      <c r="B103" s="47"/>
+      <c r="C103" s="47"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
-      <c r="F103" s="49"/>
-      <c r="G103" s="49"/>
-      <c r="H103" s="49"/>
+      <c r="F103" s="48"/>
+      <c r="G103" s="48"/>
+      <c r="H103" s="48"/>
       <c r="I103" s="4"/>
       <c r="J103" s="3"/>
       <c r="K103" s="4"/>
@@ -5795,13 +5594,13 @@
     </row>
     <row r="104" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="4"/>
-      <c r="B104" s="48"/>
-      <c r="C104" s="48"/>
+      <c r="B104" s="47"/>
+      <c r="C104" s="47"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
-      <c r="F104" s="49"/>
-      <c r="G104" s="49"/>
-      <c r="H104" s="49"/>
+      <c r="F104" s="48"/>
+      <c r="G104" s="48"/>
+      <c r="H104" s="48"/>
       <c r="I104" s="4"/>
       <c r="J104" s="3"/>
       <c r="K104" s="4"/>
@@ -5829,13 +5628,13 @@
     </row>
     <row r="105" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="4"/>
-      <c r="B105" s="48"/>
-      <c r="C105" s="48"/>
+      <c r="B105" s="47"/>
+      <c r="C105" s="47"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
-      <c r="F105" s="49"/>
-      <c r="G105" s="49"/>
-      <c r="H105" s="49"/>
+      <c r="F105" s="48"/>
+      <c r="G105" s="48"/>
+      <c r="H105" s="48"/>
       <c r="I105" s="4"/>
       <c r="J105" s="3"/>
       <c r="K105" s="4"/>
@@ -5863,13 +5662,13 @@
     </row>
     <row r="106" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="4"/>
-      <c r="B106" s="48"/>
-      <c r="C106" s="48"/>
+      <c r="B106" s="47"/>
+      <c r="C106" s="47"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
-      <c r="F106" s="49"/>
-      <c r="G106" s="49"/>
-      <c r="H106" s="49"/>
+      <c r="F106" s="48"/>
+      <c r="G106" s="48"/>
+      <c r="H106" s="48"/>
       <c r="I106" s="4"/>
       <c r="J106" s="3"/>
       <c r="K106" s="4"/>
@@ -5897,13 +5696,13 @@
     </row>
     <row r="107" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="4"/>
-      <c r="B107" s="48"/>
-      <c r="C107" s="48"/>
+      <c r="B107" s="47"/>
+      <c r="C107" s="47"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
-      <c r="F107" s="49"/>
-      <c r="G107" s="49"/>
-      <c r="H107" s="49"/>
+      <c r="F107" s="48"/>
+      <c r="G107" s="48"/>
+      <c r="H107" s="48"/>
       <c r="I107" s="4"/>
       <c r="J107" s="3"/>
       <c r="K107" s="4"/>
@@ -5931,13 +5730,13 @@
     </row>
     <row r="108" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="4"/>
-      <c r="B108" s="48"/>
-      <c r="C108" s="48"/>
+      <c r="B108" s="47"/>
+      <c r="C108" s="47"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
-      <c r="F108" s="49"/>
-      <c r="G108" s="49"/>
-      <c r="H108" s="49"/>
+      <c r="F108" s="48"/>
+      <c r="G108" s="48"/>
+      <c r="H108" s="48"/>
       <c r="I108" s="4"/>
       <c r="J108" s="3"/>
       <c r="K108" s="4"/>
@@ -5965,13 +5764,13 @@
     </row>
     <row r="109" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="4"/>
-      <c r="B109" s="48"/>
-      <c r="C109" s="48"/>
+      <c r="B109" s="47"/>
+      <c r="C109" s="47"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
-      <c r="F109" s="49"/>
-      <c r="G109" s="49"/>
-      <c r="H109" s="49"/>
+      <c r="F109" s="48"/>
+      <c r="G109" s="48"/>
+      <c r="H109" s="48"/>
       <c r="I109" s="4"/>
       <c r="J109" s="3"/>
       <c r="K109" s="4"/>
@@ -5999,13 +5798,13 @@
     </row>
     <row r="110" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="4"/>
-      <c r="B110" s="48"/>
-      <c r="C110" s="48"/>
+      <c r="B110" s="47"/>
+      <c r="C110" s="47"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
-      <c r="F110" s="49"/>
-      <c r="G110" s="49"/>
-      <c r="H110" s="49"/>
+      <c r="F110" s="48"/>
+      <c r="G110" s="48"/>
+      <c r="H110" s="48"/>
       <c r="I110" s="4"/>
       <c r="J110" s="3"/>
       <c r="K110" s="4"/>
@@ -6033,13 +5832,13 @@
     </row>
     <row r="111" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="4"/>
-      <c r="B111" s="48"/>
-      <c r="C111" s="48"/>
+      <c r="B111" s="47"/>
+      <c r="C111" s="47"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
-      <c r="F111" s="49"/>
-      <c r="G111" s="49"/>
-      <c r="H111" s="49"/>
+      <c r="F111" s="48"/>
+      <c r="G111" s="48"/>
+      <c r="H111" s="48"/>
       <c r="I111" s="4"/>
       <c r="J111" s="3"/>
       <c r="K111" s="4"/>
@@ -6067,13 +5866,13 @@
     </row>
     <row r="112" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="4"/>
-      <c r="B112" s="48"/>
-      <c r="C112" s="48"/>
+      <c r="B112" s="47"/>
+      <c r="C112" s="47"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
-      <c r="F112" s="49"/>
-      <c r="G112" s="49"/>
-      <c r="H112" s="49"/>
+      <c r="F112" s="48"/>
+      <c r="G112" s="48"/>
+      <c r="H112" s="48"/>
       <c r="I112" s="4"/>
       <c r="J112" s="3"/>
       <c r="K112" s="4"/>
@@ -6101,13 +5900,13 @@
     </row>
     <row r="113" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A113" s="4"/>
-      <c r="B113" s="48"/>
-      <c r="C113" s="48"/>
+      <c r="B113" s="47"/>
+      <c r="C113" s="47"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
-      <c r="F113" s="49"/>
-      <c r="G113" s="49"/>
-      <c r="H113" s="49"/>
+      <c r="F113" s="48"/>
+      <c r="G113" s="48"/>
+      <c r="H113" s="48"/>
       <c r="I113" s="4"/>
       <c r="J113" s="3"/>
       <c r="K113" s="4"/>
@@ -6135,13 +5934,13 @@
     </row>
     <row r="114" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="4"/>
-      <c r="B114" s="48"/>
-      <c r="C114" s="48"/>
+      <c r="B114" s="47"/>
+      <c r="C114" s="47"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
-      <c r="F114" s="49"/>
-      <c r="G114" s="49"/>
-      <c r="H114" s="49"/>
+      <c r="F114" s="48"/>
+      <c r="G114" s="48"/>
+      <c r="H114" s="48"/>
       <c r="I114" s="4"/>
       <c r="J114" s="3"/>
       <c r="K114" s="4"/>
@@ -6169,13 +5968,13 @@
     </row>
     <row r="115" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="4"/>
-      <c r="B115" s="48"/>
-      <c r="C115" s="48"/>
+      <c r="B115" s="47"/>
+      <c r="C115" s="47"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
-      <c r="F115" s="49"/>
-      <c r="G115" s="49"/>
-      <c r="H115" s="49"/>
+      <c r="F115" s="48"/>
+      <c r="G115" s="48"/>
+      <c r="H115" s="48"/>
       <c r="I115" s="4"/>
       <c r="J115" s="3"/>
       <c r="K115" s="4"/>
@@ -6203,13 +6002,13 @@
     </row>
     <row r="116" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="4"/>
-      <c r="B116" s="48"/>
-      <c r="C116" s="48"/>
+      <c r="B116" s="47"/>
+      <c r="C116" s="47"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
-      <c r="F116" s="49"/>
-      <c r="G116" s="49"/>
-      <c r="H116" s="49"/>
+      <c r="F116" s="48"/>
+      <c r="G116" s="48"/>
+      <c r="H116" s="48"/>
       <c r="I116" s="4"/>
       <c r="J116" s="3"/>
       <c r="K116" s="4"/>
@@ -6237,13 +6036,13 @@
     </row>
     <row r="117" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="4"/>
-      <c r="B117" s="48"/>
-      <c r="C117" s="48"/>
+      <c r="B117" s="47"/>
+      <c r="C117" s="47"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
-      <c r="F117" s="49"/>
-      <c r="G117" s="49"/>
-      <c r="H117" s="49"/>
+      <c r="F117" s="48"/>
+      <c r="G117" s="48"/>
+      <c r="H117" s="48"/>
       <c r="I117" s="4"/>
       <c r="J117" s="3"/>
       <c r="K117" s="4"/>
@@ -6271,13 +6070,13 @@
     </row>
     <row r="118" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="4"/>
-      <c r="B118" s="48"/>
-      <c r="C118" s="48"/>
+      <c r="B118" s="47"/>
+      <c r="C118" s="47"/>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
-      <c r="F118" s="49"/>
-      <c r="G118" s="49"/>
-      <c r="H118" s="49"/>
+      <c r="F118" s="48"/>
+      <c r="G118" s="48"/>
+      <c r="H118" s="48"/>
       <c r="I118" s="4"/>
       <c r="J118" s="3"/>
       <c r="K118" s="4"/>
@@ -6305,13 +6104,13 @@
     </row>
     <row r="119" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="4"/>
-      <c r="B119" s="48"/>
-      <c r="C119" s="48"/>
+      <c r="B119" s="47"/>
+      <c r="C119" s="47"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
-      <c r="F119" s="49"/>
-      <c r="G119" s="49"/>
-      <c r="H119" s="49"/>
+      <c r="F119" s="48"/>
+      <c r="G119" s="48"/>
+      <c r="H119" s="48"/>
       <c r="I119" s="4"/>
       <c r="J119" s="3"/>
       <c r="K119" s="4"/>
@@ -6339,13 +6138,13 @@
     </row>
     <row r="120" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="4"/>
-      <c r="B120" s="48"/>
-      <c r="C120" s="48"/>
+      <c r="B120" s="47"/>
+      <c r="C120" s="47"/>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
-      <c r="F120" s="49"/>
-      <c r="G120" s="49"/>
-      <c r="H120" s="49"/>
+      <c r="F120" s="48"/>
+      <c r="G120" s="48"/>
+      <c r="H120" s="48"/>
       <c r="I120" s="4"/>
       <c r="J120" s="3"/>
       <c r="K120" s="4"/>
@@ -6373,13 +6172,13 @@
     </row>
     <row r="121" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="4"/>
-      <c r="B121" s="48"/>
-      <c r="C121" s="48"/>
+      <c r="B121" s="47"/>
+      <c r="C121" s="47"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
-      <c r="F121" s="49"/>
-      <c r="G121" s="49"/>
-      <c r="H121" s="49"/>
+      <c r="F121" s="48"/>
+      <c r="G121" s="48"/>
+      <c r="H121" s="48"/>
       <c r="I121" s="4"/>
       <c r="J121" s="3"/>
       <c r="K121" s="4"/>
@@ -6407,13 +6206,13 @@
     </row>
     <row r="122" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="4"/>
-      <c r="B122" s="48"/>
-      <c r="C122" s="48"/>
+      <c r="B122" s="47"/>
+      <c r="C122" s="47"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
-      <c r="F122" s="49"/>
-      <c r="G122" s="49"/>
-      <c r="H122" s="49"/>
+      <c r="F122" s="48"/>
+      <c r="G122" s="48"/>
+      <c r="H122" s="48"/>
       <c r="I122" s="4"/>
       <c r="J122" s="3"/>
       <c r="K122" s="4"/>
@@ -6441,13 +6240,13 @@
     </row>
     <row r="123" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A123" s="4"/>
-      <c r="B123" s="48"/>
-      <c r="C123" s="48"/>
+      <c r="B123" s="47"/>
+      <c r="C123" s="47"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
-      <c r="F123" s="49"/>
-      <c r="G123" s="49"/>
-      <c r="H123" s="49"/>
+      <c r="F123" s="48"/>
+      <c r="G123" s="48"/>
+      <c r="H123" s="48"/>
       <c r="I123" s="4"/>
       <c r="J123" s="3"/>
       <c r="K123" s="4"/>
@@ -6475,13 +6274,13 @@
     </row>
     <row r="124" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A124" s="4"/>
-      <c r="B124" s="48"/>
-      <c r="C124" s="48"/>
+      <c r="B124" s="47"/>
+      <c r="C124" s="47"/>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
-      <c r="F124" s="49"/>
-      <c r="G124" s="49"/>
-      <c r="H124" s="49"/>
+      <c r="F124" s="48"/>
+      <c r="G124" s="48"/>
+      <c r="H124" s="48"/>
       <c r="I124" s="4"/>
       <c r="J124" s="3"/>
       <c r="K124" s="4"/>
@@ -6509,13 +6308,13 @@
     </row>
     <row r="125" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A125" s="4"/>
-      <c r="B125" s="48"/>
-      <c r="C125" s="48"/>
+      <c r="B125" s="47"/>
+      <c r="C125" s="47"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
-      <c r="F125" s="49"/>
-      <c r="G125" s="49"/>
-      <c r="H125" s="49"/>
+      <c r="F125" s="48"/>
+      <c r="G125" s="48"/>
+      <c r="H125" s="48"/>
       <c r="I125" s="4"/>
       <c r="J125" s="3"/>
       <c r="K125" s="4"/>
@@ -6543,13 +6342,13 @@
     </row>
     <row r="126" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="4"/>
-      <c r="B126" s="48"/>
-      <c r="C126" s="48"/>
+      <c r="B126" s="0"/>
+      <c r="C126" s="47"/>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
-      <c r="F126" s="49"/>
-      <c r="G126" s="49"/>
-      <c r="H126" s="49"/>
+      <c r="F126" s="48"/>
+      <c r="G126" s="48"/>
+      <c r="H126" s="48"/>
       <c r="I126" s="4"/>
       <c r="J126" s="3"/>
       <c r="K126" s="4"/>
@@ -6576,3760 +6375,3744 @@
       <c r="AF126" s="4"/>
     </row>
     <row r="127" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B127" s="50"/>
-      <c r="C127" s="50"/>
-      <c r="F127" s="51"/>
-      <c r="G127" s="51"/>
-      <c r="H127" s="51"/>
+      <c r="F127" s="49"/>
+      <c r="G127" s="49"/>
+      <c r="H127" s="49"/>
     </row>
     <row r="128" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B128" s="50"/>
-      <c r="C128" s="50"/>
-      <c r="F128" s="51"/>
-      <c r="G128" s="51"/>
-      <c r="H128" s="51"/>
+      <c r="F128" s="49"/>
+      <c r="G128" s="49"/>
+      <c r="H128" s="49"/>
     </row>
     <row r="129" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B129" s="50"/>
-      <c r="C129" s="50"/>
-      <c r="F129" s="51"/>
-      <c r="G129" s="51"/>
-      <c r="H129" s="51"/>
+      <c r="F129" s="49"/>
+      <c r="G129" s="49"/>
+      <c r="H129" s="49"/>
     </row>
     <row r="130" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B130" s="50"/>
-      <c r="C130" s="50"/>
-      <c r="F130" s="51"/>
-      <c r="G130" s="51"/>
-      <c r="H130" s="51"/>
+      <c r="F130" s="49"/>
+      <c r="G130" s="49"/>
+      <c r="H130" s="49"/>
     </row>
     <row r="131" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B131" s="50"/>
-      <c r="C131" s="50"/>
-      <c r="F131" s="51"/>
-      <c r="G131" s="51"/>
-      <c r="H131" s="51"/>
+      <c r="F131" s="49"/>
+      <c r="G131" s="49"/>
+      <c r="H131" s="49"/>
     </row>
     <row r="132" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B132" s="50"/>
-      <c r="C132" s="50"/>
-      <c r="F132" s="51"/>
-      <c r="G132" s="51"/>
-      <c r="H132" s="51"/>
+      <c r="F132" s="49"/>
+      <c r="G132" s="49"/>
+      <c r="H132" s="49"/>
     </row>
     <row r="133" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B133" s="50"/>
-      <c r="C133" s="50"/>
-      <c r="F133" s="51"/>
-      <c r="G133" s="51"/>
-      <c r="H133" s="51"/>
+      <c r="F133" s="49"/>
+      <c r="G133" s="49"/>
+      <c r="H133" s="49"/>
     </row>
     <row r="134" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B134" s="50"/>
-      <c r="C134" s="50"/>
-      <c r="F134" s="51"/>
-      <c r="G134" s="51"/>
-      <c r="H134" s="51"/>
+      <c r="F134" s="49"/>
+      <c r="G134" s="49"/>
+      <c r="H134" s="49"/>
     </row>
     <row r="135" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F135" s="51"/>
-      <c r="G135" s="51"/>
-      <c r="H135" s="51"/>
+      <c r="F135" s="49"/>
+      <c r="G135" s="49"/>
+      <c r="H135" s="49"/>
     </row>
     <row r="136" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F136" s="51"/>
-      <c r="G136" s="51"/>
-      <c r="H136" s="51"/>
+      <c r="F136" s="49"/>
+      <c r="G136" s="49"/>
+      <c r="H136" s="49"/>
     </row>
     <row r="137" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F137" s="51"/>
-      <c r="G137" s="51"/>
-      <c r="H137" s="51"/>
+      <c r="F137" s="49"/>
+      <c r="G137" s="49"/>
+      <c r="H137" s="49"/>
     </row>
     <row r="138" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F138" s="51"/>
-      <c r="G138" s="51"/>
-      <c r="H138" s="51"/>
+      <c r="F138" s="49"/>
+      <c r="G138" s="49"/>
+      <c r="H138" s="49"/>
     </row>
     <row r="139" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F139" s="51"/>
-      <c r="G139" s="51"/>
-      <c r="H139" s="51"/>
+      <c r="F139" s="49"/>
+      <c r="G139" s="49"/>
+      <c r="H139" s="49"/>
     </row>
     <row r="140" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F140" s="51"/>
-      <c r="G140" s="51"/>
-      <c r="H140" s="51"/>
+      <c r="F140" s="49"/>
+      <c r="G140" s="49"/>
+      <c r="H140" s="49"/>
     </row>
     <row r="141" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F141" s="51"/>
-      <c r="G141" s="51"/>
-      <c r="H141" s="51"/>
+      <c r="F141" s="49"/>
+      <c r="G141" s="49"/>
+      <c r="H141" s="49"/>
     </row>
     <row r="142" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F142" s="51"/>
-      <c r="G142" s="51"/>
-      <c r="H142" s="51"/>
+      <c r="F142" s="49"/>
+      <c r="G142" s="49"/>
+      <c r="H142" s="49"/>
     </row>
     <row r="143" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F143" s="51"/>
-      <c r="G143" s="51"/>
-      <c r="H143" s="51"/>
+      <c r="F143" s="49"/>
+      <c r="G143" s="49"/>
+      <c r="H143" s="49"/>
     </row>
     <row r="144" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F144" s="51"/>
-      <c r="G144" s="51"/>
-      <c r="H144" s="51"/>
+      <c r="F144" s="49"/>
+      <c r="G144" s="49"/>
+      <c r="H144" s="49"/>
     </row>
     <row r="145" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F145" s="51"/>
-      <c r="G145" s="51"/>
-      <c r="H145" s="51"/>
+      <c r="F145" s="49"/>
+      <c r="G145" s="49"/>
+      <c r="H145" s="49"/>
     </row>
     <row r="146" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F146" s="51"/>
-      <c r="G146" s="51"/>
-      <c r="H146" s="51"/>
+      <c r="F146" s="49"/>
+      <c r="G146" s="49"/>
+      <c r="H146" s="49"/>
     </row>
     <row r="147" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F147" s="51"/>
-      <c r="G147" s="51"/>
-      <c r="H147" s="51"/>
+      <c r="F147" s="49"/>
+      <c r="G147" s="49"/>
+      <c r="H147" s="49"/>
     </row>
     <row r="148" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F148" s="51"/>
-      <c r="G148" s="51"/>
-      <c r="H148" s="51"/>
+      <c r="F148" s="49"/>
+      <c r="G148" s="49"/>
+      <c r="H148" s="49"/>
     </row>
     <row r="149" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F149" s="51"/>
-      <c r="G149" s="51"/>
-      <c r="H149" s="51"/>
+      <c r="F149" s="49"/>
+      <c r="G149" s="49"/>
+      <c r="H149" s="49"/>
     </row>
     <row r="150" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F150" s="51"/>
-      <c r="G150" s="51"/>
-      <c r="H150" s="51"/>
+      <c r="F150" s="49"/>
+      <c r="G150" s="49"/>
+      <c r="H150" s="49"/>
     </row>
     <row r="151" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F151" s="51"/>
-      <c r="G151" s="51"/>
-      <c r="H151" s="51"/>
+      <c r="F151" s="49"/>
+      <c r="G151" s="49"/>
+      <c r="H151" s="49"/>
     </row>
     <row r="152" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F152" s="51"/>
-      <c r="G152" s="51"/>
-      <c r="H152" s="51"/>
+      <c r="F152" s="49"/>
+      <c r="G152" s="49"/>
+      <c r="H152" s="49"/>
     </row>
     <row r="153" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F153" s="51"/>
-      <c r="G153" s="51"/>
-      <c r="H153" s="51"/>
+      <c r="F153" s="49"/>
+      <c r="G153" s="49"/>
+      <c r="H153" s="49"/>
     </row>
     <row r="154" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F154" s="51"/>
-      <c r="G154" s="51"/>
-      <c r="H154" s="51"/>
+      <c r="F154" s="49"/>
+      <c r="G154" s="49"/>
+      <c r="H154" s="49"/>
     </row>
     <row r="155" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F155" s="51"/>
-      <c r="G155" s="51"/>
-      <c r="H155" s="51"/>
+      <c r="F155" s="49"/>
+      <c r="G155" s="49"/>
+      <c r="H155" s="49"/>
     </row>
     <row r="156" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F156" s="51"/>
-      <c r="G156" s="51"/>
-      <c r="H156" s="51"/>
+      <c r="F156" s="49"/>
+      <c r="G156" s="49"/>
+      <c r="H156" s="49"/>
     </row>
     <row r="157" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F157" s="51"/>
-      <c r="G157" s="51"/>
-      <c r="H157" s="51"/>
+      <c r="F157" s="49"/>
+      <c r="G157" s="49"/>
+      <c r="H157" s="49"/>
     </row>
     <row r="158" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F158" s="51"/>
-      <c r="G158" s="51"/>
-      <c r="H158" s="51"/>
+      <c r="F158" s="49"/>
+      <c r="G158" s="49"/>
+      <c r="H158" s="49"/>
     </row>
     <row r="159" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F159" s="51"/>
-      <c r="G159" s="51"/>
-      <c r="H159" s="51"/>
+      <c r="F159" s="49"/>
+      <c r="G159" s="49"/>
+      <c r="H159" s="49"/>
     </row>
     <row r="160" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F160" s="51"/>
-      <c r="G160" s="51"/>
-      <c r="H160" s="51"/>
+      <c r="F160" s="49"/>
+      <c r="G160" s="49"/>
+      <c r="H160" s="49"/>
     </row>
     <row r="161" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F161" s="51"/>
-      <c r="G161" s="51"/>
-      <c r="H161" s="51"/>
+      <c r="F161" s="49"/>
+      <c r="G161" s="49"/>
+      <c r="H161" s="49"/>
     </row>
     <row r="162" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F162" s="51"/>
-      <c r="G162" s="51"/>
-      <c r="H162" s="51"/>
+      <c r="F162" s="49"/>
+      <c r="G162" s="49"/>
+      <c r="H162" s="49"/>
     </row>
     <row r="163" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F163" s="51"/>
-      <c r="G163" s="51"/>
-      <c r="H163" s="51"/>
+      <c r="F163" s="49"/>
+      <c r="G163" s="49"/>
+      <c r="H163" s="49"/>
     </row>
     <row r="164" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F164" s="51"/>
-      <c r="G164" s="51"/>
-      <c r="H164" s="51"/>
+      <c r="F164" s="49"/>
+      <c r="G164" s="49"/>
+      <c r="H164" s="49"/>
     </row>
     <row r="165" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F165" s="51"/>
-      <c r="G165" s="51"/>
-      <c r="H165" s="51"/>
+      <c r="F165" s="49"/>
+      <c r="G165" s="49"/>
+      <c r="H165" s="49"/>
     </row>
     <row r="166" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F166" s="51"/>
-      <c r="G166" s="51"/>
-      <c r="H166" s="51"/>
+      <c r="F166" s="49"/>
+      <c r="G166" s="49"/>
+      <c r="H166" s="49"/>
     </row>
     <row r="167" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F167" s="51"/>
-      <c r="G167" s="51"/>
-      <c r="H167" s="51"/>
+      <c r="F167" s="49"/>
+      <c r="G167" s="49"/>
+      <c r="H167" s="49"/>
     </row>
     <row r="168" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F168" s="51"/>
-      <c r="G168" s="51"/>
-      <c r="H168" s="51"/>
+      <c r="F168" s="49"/>
+      <c r="G168" s="49"/>
+      <c r="H168" s="49"/>
     </row>
     <row r="169" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F169" s="51"/>
-      <c r="G169" s="51"/>
-      <c r="H169" s="51"/>
+      <c r="F169" s="49"/>
+      <c r="G169" s="49"/>
+      <c r="H169" s="49"/>
     </row>
     <row r="170" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F170" s="51"/>
-      <c r="G170" s="51"/>
-      <c r="H170" s="51"/>
+      <c r="F170" s="49"/>
+      <c r="G170" s="49"/>
+      <c r="H170" s="49"/>
     </row>
     <row r="171" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F171" s="51"/>
-      <c r="G171" s="51"/>
-      <c r="H171" s="51"/>
+      <c r="F171" s="49"/>
+      <c r="G171" s="49"/>
+      <c r="H171" s="49"/>
     </row>
     <row r="172" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F172" s="51"/>
-      <c r="G172" s="51"/>
-      <c r="H172" s="51"/>
+      <c r="F172" s="49"/>
+      <c r="G172" s="49"/>
+      <c r="H172" s="49"/>
     </row>
     <row r="173" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F173" s="51"/>
-      <c r="G173" s="51"/>
-      <c r="H173" s="51"/>
+      <c r="F173" s="49"/>
+      <c r="G173" s="49"/>
+      <c r="H173" s="49"/>
     </row>
     <row r="174" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F174" s="51"/>
-      <c r="G174" s="51"/>
-      <c r="H174" s="51"/>
+      <c r="F174" s="49"/>
+      <c r="G174" s="49"/>
+      <c r="H174" s="49"/>
     </row>
     <row r="175" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F175" s="51"/>
-      <c r="G175" s="51"/>
-      <c r="H175" s="51"/>
+      <c r="F175" s="49"/>
+      <c r="G175" s="49"/>
+      <c r="H175" s="49"/>
     </row>
     <row r="176" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F176" s="51"/>
-      <c r="G176" s="51"/>
-      <c r="H176" s="51"/>
+      <c r="F176" s="49"/>
+      <c r="G176" s="49"/>
+      <c r="H176" s="49"/>
     </row>
     <row r="177" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F177" s="51"/>
-      <c r="G177" s="51"/>
-      <c r="H177" s="51"/>
+      <c r="F177" s="49"/>
+      <c r="G177" s="49"/>
+      <c r="H177" s="49"/>
     </row>
     <row r="178" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F178" s="51"/>
-      <c r="G178" s="51"/>
-      <c r="H178" s="51"/>
+      <c r="F178" s="49"/>
+      <c r="G178" s="49"/>
+      <c r="H178" s="49"/>
     </row>
     <row r="179" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F179" s="51"/>
-      <c r="G179" s="51"/>
-      <c r="H179" s="51"/>
+      <c r="F179" s="49"/>
+      <c r="G179" s="49"/>
+      <c r="H179" s="49"/>
     </row>
     <row r="180" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F180" s="51"/>
-      <c r="G180" s="51"/>
-      <c r="H180" s="51"/>
+      <c r="F180" s="49"/>
+      <c r="G180" s="49"/>
+      <c r="H180" s="49"/>
     </row>
     <row r="181" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F181" s="51"/>
-      <c r="G181" s="51"/>
-      <c r="H181" s="51"/>
+      <c r="F181" s="49"/>
+      <c r="G181" s="49"/>
+      <c r="H181" s="49"/>
     </row>
     <row r="182" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F182" s="51"/>
-      <c r="G182" s="51"/>
-      <c r="H182" s="51"/>
+      <c r="F182" s="49"/>
+      <c r="G182" s="49"/>
+      <c r="H182" s="49"/>
     </row>
     <row r="183" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F183" s="51"/>
-      <c r="G183" s="51"/>
-      <c r="H183" s="51"/>
+      <c r="F183" s="49"/>
+      <c r="G183" s="49"/>
+      <c r="H183" s="49"/>
     </row>
     <row r="184" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F184" s="51"/>
-      <c r="G184" s="51"/>
-      <c r="H184" s="51"/>
+      <c r="F184" s="49"/>
+      <c r="G184" s="49"/>
+      <c r="H184" s="49"/>
     </row>
     <row r="185" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F185" s="51"/>
-      <c r="G185" s="51"/>
-      <c r="H185" s="51"/>
+      <c r="F185" s="49"/>
+      <c r="G185" s="49"/>
+      <c r="H185" s="49"/>
     </row>
     <row r="186" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F186" s="51"/>
-      <c r="G186" s="51"/>
-      <c r="H186" s="51"/>
+      <c r="F186" s="49"/>
+      <c r="G186" s="49"/>
+      <c r="H186" s="49"/>
     </row>
     <row r="187" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F187" s="51"/>
-      <c r="G187" s="51"/>
-      <c r="H187" s="51"/>
+      <c r="F187" s="49"/>
+      <c r="G187" s="49"/>
+      <c r="H187" s="49"/>
     </row>
     <row r="188" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F188" s="51"/>
-      <c r="G188" s="51"/>
-      <c r="H188" s="51"/>
+      <c r="F188" s="49"/>
+      <c r="G188" s="49"/>
+      <c r="H188" s="49"/>
     </row>
     <row r="189" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F189" s="51"/>
-      <c r="G189" s="51"/>
-      <c r="H189" s="51"/>
+      <c r="F189" s="49"/>
+      <c r="G189" s="49"/>
+      <c r="H189" s="49"/>
     </row>
     <row r="190" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F190" s="51"/>
-      <c r="G190" s="51"/>
-      <c r="H190" s="51"/>
+      <c r="F190" s="49"/>
+      <c r="G190" s="49"/>
+      <c r="H190" s="49"/>
     </row>
     <row r="191" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F191" s="51"/>
-      <c r="G191" s="51"/>
-      <c r="H191" s="51"/>
+      <c r="F191" s="49"/>
+      <c r="G191" s="49"/>
+      <c r="H191" s="49"/>
     </row>
     <row r="192" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F192" s="51"/>
-      <c r="G192" s="51"/>
-      <c r="H192" s="51"/>
+      <c r="F192" s="49"/>
+      <c r="G192" s="49"/>
+      <c r="H192" s="49"/>
     </row>
     <row r="193" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F193" s="51"/>
-      <c r="G193" s="51"/>
-      <c r="H193" s="51"/>
+      <c r="F193" s="49"/>
+      <c r="G193" s="49"/>
+      <c r="H193" s="49"/>
     </row>
     <row r="194" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F194" s="51"/>
-      <c r="G194" s="51"/>
-      <c r="H194" s="51"/>
+      <c r="F194" s="49"/>
+      <c r="G194" s="49"/>
+      <c r="H194" s="49"/>
     </row>
     <row r="195" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F195" s="51"/>
-      <c r="G195" s="51"/>
-      <c r="H195" s="51"/>
+      <c r="F195" s="49"/>
+      <c r="G195" s="49"/>
+      <c r="H195" s="49"/>
     </row>
     <row r="196" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F196" s="51"/>
-      <c r="G196" s="51"/>
-      <c r="H196" s="51"/>
+      <c r="F196" s="49"/>
+      <c r="G196" s="49"/>
+      <c r="H196" s="49"/>
     </row>
     <row r="197" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F197" s="51"/>
-      <c r="G197" s="51"/>
-      <c r="H197" s="51"/>
+      <c r="F197" s="49"/>
+      <c r="G197" s="49"/>
+      <c r="H197" s="49"/>
     </row>
     <row r="198" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F198" s="51"/>
-      <c r="G198" s="51"/>
-      <c r="H198" s="51"/>
+      <c r="F198" s="49"/>
+      <c r="G198" s="49"/>
+      <c r="H198" s="49"/>
     </row>
     <row r="199" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F199" s="51"/>
-      <c r="G199" s="51"/>
-      <c r="H199" s="51"/>
+      <c r="F199" s="49"/>
+      <c r="G199" s="49"/>
+      <c r="H199" s="49"/>
     </row>
     <row r="200" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F200" s="51"/>
-      <c r="G200" s="51"/>
-      <c r="H200" s="51"/>
+      <c r="F200" s="49"/>
+      <c r="G200" s="49"/>
+      <c r="H200" s="49"/>
     </row>
     <row r="201" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F201" s="51"/>
-      <c r="G201" s="51"/>
-      <c r="H201" s="51"/>
+      <c r="F201" s="49"/>
+      <c r="G201" s="49"/>
+      <c r="H201" s="49"/>
     </row>
     <row r="202" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F202" s="51"/>
-      <c r="G202" s="51"/>
-      <c r="H202" s="51"/>
+      <c r="F202" s="49"/>
+      <c r="G202" s="49"/>
+      <c r="H202" s="49"/>
     </row>
     <row r="203" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F203" s="51"/>
-      <c r="G203" s="51"/>
-      <c r="H203" s="51"/>
+      <c r="F203" s="49"/>
+      <c r="G203" s="49"/>
+      <c r="H203" s="49"/>
     </row>
     <row r="204" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F204" s="51"/>
-      <c r="G204" s="51"/>
-      <c r="H204" s="51"/>
+      <c r="F204" s="49"/>
+      <c r="G204" s="49"/>
+      <c r="H204" s="49"/>
     </row>
     <row r="205" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F205" s="51"/>
-      <c r="G205" s="51"/>
-      <c r="H205" s="51"/>
+      <c r="F205" s="49"/>
+      <c r="G205" s="49"/>
+      <c r="H205" s="49"/>
     </row>
     <row r="206" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F206" s="51"/>
-      <c r="G206" s="51"/>
-      <c r="H206" s="51"/>
+      <c r="F206" s="49"/>
+      <c r="G206" s="49"/>
+      <c r="H206" s="49"/>
     </row>
     <row r="207" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F207" s="51"/>
-      <c r="G207" s="51"/>
-      <c r="H207" s="51"/>
+      <c r="F207" s="49"/>
+      <c r="G207" s="49"/>
+      <c r="H207" s="49"/>
     </row>
     <row r="208" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F208" s="51"/>
-      <c r="G208" s="51"/>
-      <c r="H208" s="51"/>
+      <c r="F208" s="49"/>
+      <c r="G208" s="49"/>
+      <c r="H208" s="49"/>
     </row>
     <row r="209" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F209" s="51"/>
-      <c r="G209" s="51"/>
-      <c r="H209" s="51"/>
+      <c r="F209" s="49"/>
+      <c r="G209" s="49"/>
+      <c r="H209" s="49"/>
     </row>
     <row r="210" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F210" s="51"/>
-      <c r="G210" s="51"/>
-      <c r="H210" s="51"/>
+      <c r="F210" s="49"/>
+      <c r="G210" s="49"/>
+      <c r="H210" s="49"/>
     </row>
     <row r="211" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F211" s="51"/>
-      <c r="G211" s="51"/>
-      <c r="H211" s="51"/>
+      <c r="F211" s="49"/>
+      <c r="G211" s="49"/>
+      <c r="H211" s="49"/>
     </row>
     <row r="212" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F212" s="51"/>
-      <c r="G212" s="51"/>
-      <c r="H212" s="51"/>
+      <c r="F212" s="49"/>
+      <c r="G212" s="49"/>
+      <c r="H212" s="49"/>
     </row>
     <row r="213" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F213" s="51"/>
-      <c r="G213" s="51"/>
-      <c r="H213" s="51"/>
+      <c r="F213" s="49"/>
+      <c r="G213" s="49"/>
+      <c r="H213" s="49"/>
     </row>
     <row r="214" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F214" s="51"/>
-      <c r="G214" s="51"/>
-      <c r="H214" s="51"/>
+      <c r="F214" s="49"/>
+      <c r="G214" s="49"/>
+      <c r="H214" s="49"/>
     </row>
     <row r="215" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F215" s="51"/>
-      <c r="G215" s="51"/>
-      <c r="H215" s="51"/>
+      <c r="F215" s="49"/>
+      <c r="G215" s="49"/>
+      <c r="H215" s="49"/>
     </row>
     <row r="216" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F216" s="51"/>
-      <c r="G216" s="51"/>
-      <c r="H216" s="51"/>
+      <c r="F216" s="49"/>
+      <c r="G216" s="49"/>
+      <c r="H216" s="49"/>
     </row>
     <row r="217" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F217" s="51"/>
-      <c r="G217" s="51"/>
-      <c r="H217" s="51"/>
+      <c r="F217" s="49"/>
+      <c r="G217" s="49"/>
+      <c r="H217" s="49"/>
     </row>
     <row r="218" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F218" s="51"/>
-      <c r="G218" s="51"/>
-      <c r="H218" s="51"/>
+      <c r="F218" s="49"/>
+      <c r="G218" s="49"/>
+      <c r="H218" s="49"/>
     </row>
     <row r="219" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F219" s="51"/>
-      <c r="G219" s="51"/>
-      <c r="H219" s="51"/>
+      <c r="F219" s="49"/>
+      <c r="G219" s="49"/>
+      <c r="H219" s="49"/>
     </row>
     <row r="220" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F220" s="51"/>
-      <c r="G220" s="51"/>
-      <c r="H220" s="51"/>
+      <c r="F220" s="49"/>
+      <c r="G220" s="49"/>
+      <c r="H220" s="49"/>
     </row>
     <row r="221" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F221" s="51"/>
-      <c r="G221" s="51"/>
-      <c r="H221" s="51"/>
+      <c r="F221" s="49"/>
+      <c r="G221" s="49"/>
+      <c r="H221" s="49"/>
     </row>
     <row r="222" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F222" s="51"/>
-      <c r="G222" s="51"/>
-      <c r="H222" s="51"/>
+      <c r="F222" s="49"/>
+      <c r="G222" s="49"/>
+      <c r="H222" s="49"/>
     </row>
     <row r="223" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F223" s="51"/>
-      <c r="G223" s="51"/>
-      <c r="H223" s="51"/>
+      <c r="F223" s="49"/>
+      <c r="G223" s="49"/>
+      <c r="H223" s="49"/>
     </row>
     <row r="224" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F224" s="51"/>
-      <c r="G224" s="51"/>
-      <c r="H224" s="51"/>
+      <c r="F224" s="49"/>
+      <c r="G224" s="49"/>
+      <c r="H224" s="49"/>
     </row>
     <row r="225" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F225" s="51"/>
-      <c r="G225" s="51"/>
-      <c r="H225" s="51"/>
+      <c r="F225" s="49"/>
+      <c r="G225" s="49"/>
+      <c r="H225" s="49"/>
     </row>
     <row r="226" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F226" s="51"/>
-      <c r="G226" s="51"/>
-      <c r="H226" s="51"/>
+      <c r="F226" s="49"/>
+      <c r="G226" s="49"/>
+      <c r="H226" s="49"/>
     </row>
     <row r="227" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F227" s="51"/>
-      <c r="G227" s="51"/>
-      <c r="H227" s="51"/>
+      <c r="F227" s="49"/>
+      <c r="G227" s="49"/>
+      <c r="H227" s="49"/>
     </row>
     <row r="228" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F228" s="51"/>
-      <c r="G228" s="51"/>
-      <c r="H228" s="51"/>
+      <c r="F228" s="49"/>
+      <c r="G228" s="49"/>
+      <c r="H228" s="49"/>
     </row>
     <row r="229" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F229" s="51"/>
-      <c r="G229" s="51"/>
-      <c r="H229" s="51"/>
+      <c r="F229" s="49"/>
+      <c r="G229" s="49"/>
+      <c r="H229" s="49"/>
     </row>
     <row r="230" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F230" s="51"/>
-      <c r="G230" s="51"/>
-      <c r="H230" s="51"/>
+      <c r="F230" s="49"/>
+      <c r="G230" s="49"/>
+      <c r="H230" s="49"/>
     </row>
     <row r="231" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F231" s="51"/>
-      <c r="G231" s="51"/>
-      <c r="H231" s="51"/>
+      <c r="F231" s="49"/>
+      <c r="G231" s="49"/>
+      <c r="H231" s="49"/>
     </row>
     <row r="232" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F232" s="51"/>
-      <c r="G232" s="51"/>
-      <c r="H232" s="51"/>
+      <c r="F232" s="49"/>
+      <c r="G232" s="49"/>
+      <c r="H232" s="49"/>
     </row>
     <row r="233" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F233" s="51"/>
-      <c r="G233" s="51"/>
-      <c r="H233" s="51"/>
+      <c r="F233" s="49"/>
+      <c r="G233" s="49"/>
+      <c r="H233" s="49"/>
     </row>
     <row r="234" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F234" s="51"/>
-      <c r="G234" s="51"/>
-      <c r="H234" s="51"/>
+      <c r="F234" s="49"/>
+      <c r="G234" s="49"/>
+      <c r="H234" s="49"/>
     </row>
     <row r="235" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F235" s="51"/>
-      <c r="G235" s="51"/>
-      <c r="H235" s="51"/>
+      <c r="F235" s="49"/>
+      <c r="G235" s="49"/>
+      <c r="H235" s="49"/>
     </row>
     <row r="236" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F236" s="51"/>
-      <c r="G236" s="51"/>
-      <c r="H236" s="51"/>
+      <c r="F236" s="49"/>
+      <c r="G236" s="49"/>
+      <c r="H236" s="49"/>
     </row>
     <row r="237" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F237" s="51"/>
-      <c r="G237" s="51"/>
-      <c r="H237" s="51"/>
+      <c r="F237" s="49"/>
+      <c r="G237" s="49"/>
+      <c r="H237" s="49"/>
     </row>
     <row r="238" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F238" s="51"/>
-      <c r="G238" s="51"/>
-      <c r="H238" s="51"/>
+      <c r="F238" s="49"/>
+      <c r="G238" s="49"/>
+      <c r="H238" s="49"/>
     </row>
     <row r="239" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F239" s="51"/>
-      <c r="G239" s="51"/>
-      <c r="H239" s="51"/>
+      <c r="F239" s="49"/>
+      <c r="G239" s="49"/>
+      <c r="H239" s="49"/>
     </row>
     <row r="240" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F240" s="51"/>
-      <c r="G240" s="51"/>
-      <c r="H240" s="51"/>
+      <c r="F240" s="49"/>
+      <c r="G240" s="49"/>
+      <c r="H240" s="49"/>
     </row>
     <row r="241" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F241" s="51"/>
-      <c r="G241" s="51"/>
-      <c r="H241" s="51"/>
+      <c r="F241" s="49"/>
+      <c r="G241" s="49"/>
+      <c r="H241" s="49"/>
     </row>
     <row r="242" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F242" s="51"/>
-      <c r="G242" s="51"/>
-      <c r="H242" s="51"/>
+      <c r="F242" s="49"/>
+      <c r="G242" s="49"/>
+      <c r="H242" s="49"/>
     </row>
     <row r="243" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F243" s="51"/>
-      <c r="G243" s="51"/>
-      <c r="H243" s="51"/>
+      <c r="F243" s="49"/>
+      <c r="G243" s="49"/>
+      <c r="H243" s="49"/>
     </row>
     <row r="244" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F244" s="51"/>
-      <c r="G244" s="51"/>
-      <c r="H244" s="51"/>
+      <c r="F244" s="49"/>
+      <c r="G244" s="49"/>
+      <c r="H244" s="49"/>
     </row>
     <row r="245" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F245" s="51"/>
-      <c r="G245" s="51"/>
-      <c r="H245" s="51"/>
+      <c r="F245" s="49"/>
+      <c r="G245" s="49"/>
+      <c r="H245" s="49"/>
     </row>
     <row r="246" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F246" s="51"/>
-      <c r="G246" s="51"/>
-      <c r="H246" s="51"/>
+      <c r="F246" s="49"/>
+      <c r="G246" s="49"/>
+      <c r="H246" s="49"/>
     </row>
     <row r="247" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F247" s="51"/>
-      <c r="G247" s="51"/>
-      <c r="H247" s="51"/>
+      <c r="F247" s="49"/>
+      <c r="G247" s="49"/>
+      <c r="H247" s="49"/>
     </row>
     <row r="248" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F248" s="51"/>
-      <c r="G248" s="51"/>
-      <c r="H248" s="51"/>
+      <c r="F248" s="49"/>
+      <c r="G248" s="49"/>
+      <c r="H248" s="49"/>
     </row>
     <row r="249" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F249" s="51"/>
-      <c r="G249" s="51"/>
-      <c r="H249" s="51"/>
+      <c r="F249" s="49"/>
+      <c r="G249" s="49"/>
+      <c r="H249" s="49"/>
     </row>
     <row r="250" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F250" s="51"/>
-      <c r="G250" s="51"/>
-      <c r="H250" s="51"/>
+      <c r="F250" s="49"/>
+      <c r="G250" s="49"/>
+      <c r="H250" s="49"/>
     </row>
     <row r="251" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F251" s="51"/>
-      <c r="G251" s="51"/>
-      <c r="H251" s="51"/>
+      <c r="F251" s="49"/>
+      <c r="G251" s="49"/>
+      <c r="H251" s="49"/>
     </row>
     <row r="252" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F252" s="51"/>
-      <c r="G252" s="51"/>
-      <c r="H252" s="51"/>
+      <c r="F252" s="49"/>
+      <c r="G252" s="49"/>
+      <c r="H252" s="49"/>
     </row>
     <row r="253" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F253" s="51"/>
-      <c r="G253" s="51"/>
-      <c r="H253" s="51"/>
+      <c r="F253" s="49"/>
+      <c r="G253" s="49"/>
+      <c r="H253" s="49"/>
     </row>
     <row r="254" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F254" s="51"/>
-      <c r="G254" s="51"/>
-      <c r="H254" s="51"/>
+      <c r="F254" s="49"/>
+      <c r="G254" s="49"/>
+      <c r="H254" s="49"/>
     </row>
     <row r="255" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F255" s="51"/>
-      <c r="G255" s="51"/>
-      <c r="H255" s="51"/>
+      <c r="F255" s="49"/>
+      <c r="G255" s="49"/>
+      <c r="H255" s="49"/>
     </row>
     <row r="256" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F256" s="51"/>
-      <c r="G256" s="51"/>
-      <c r="H256" s="51"/>
+      <c r="F256" s="49"/>
+      <c r="G256" s="49"/>
+      <c r="H256" s="49"/>
     </row>
     <row r="257" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F257" s="51"/>
-      <c r="G257" s="51"/>
-      <c r="H257" s="51"/>
+      <c r="F257" s="49"/>
+      <c r="G257" s="49"/>
+      <c r="H257" s="49"/>
     </row>
     <row r="258" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F258" s="51"/>
-      <c r="G258" s="51"/>
-      <c r="H258" s="51"/>
+      <c r="F258" s="49"/>
+      <c r="G258" s="49"/>
+      <c r="H258" s="49"/>
     </row>
     <row r="259" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F259" s="51"/>
-      <c r="G259" s="51"/>
-      <c r="H259" s="51"/>
+      <c r="F259" s="49"/>
+      <c r="G259" s="49"/>
+      <c r="H259" s="49"/>
     </row>
     <row r="260" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F260" s="51"/>
-      <c r="G260" s="51"/>
-      <c r="H260" s="51"/>
+      <c r="F260" s="49"/>
+      <c r="G260" s="49"/>
+      <c r="H260" s="49"/>
     </row>
     <row r="261" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F261" s="51"/>
-      <c r="G261" s="51"/>
-      <c r="H261" s="51"/>
+      <c r="F261" s="49"/>
+      <c r="G261" s="49"/>
+      <c r="H261" s="49"/>
     </row>
     <row r="262" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F262" s="51"/>
-      <c r="G262" s="51"/>
-      <c r="H262" s="51"/>
+      <c r="F262" s="49"/>
+      <c r="G262" s="49"/>
+      <c r="H262" s="49"/>
     </row>
     <row r="263" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F263" s="51"/>
-      <c r="G263" s="51"/>
-      <c r="H263" s="51"/>
+      <c r="F263" s="49"/>
+      <c r="G263" s="49"/>
+      <c r="H263" s="49"/>
     </row>
     <row r="264" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F264" s="51"/>
-      <c r="G264" s="51"/>
-      <c r="H264" s="51"/>
+      <c r="F264" s="49"/>
+      <c r="G264" s="49"/>
+      <c r="H264" s="49"/>
     </row>
     <row r="265" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F265" s="51"/>
-      <c r="G265" s="51"/>
-      <c r="H265" s="51"/>
+      <c r="F265" s="49"/>
+      <c r="G265" s="49"/>
+      <c r="H265" s="49"/>
     </row>
     <row r="266" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F266" s="51"/>
-      <c r="G266" s="51"/>
-      <c r="H266" s="51"/>
+      <c r="F266" s="49"/>
+      <c r="G266" s="49"/>
+      <c r="H266" s="49"/>
     </row>
     <row r="267" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F267" s="51"/>
-      <c r="G267" s="51"/>
-      <c r="H267" s="51"/>
+      <c r="F267" s="49"/>
+      <c r="G267" s="49"/>
+      <c r="H267" s="49"/>
     </row>
     <row r="268" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F268" s="51"/>
-      <c r="G268" s="51"/>
-      <c r="H268" s="51"/>
+      <c r="F268" s="49"/>
+      <c r="G268" s="49"/>
+      <c r="H268" s="49"/>
     </row>
     <row r="269" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F269" s="51"/>
-      <c r="G269" s="51"/>
-      <c r="H269" s="51"/>
+      <c r="F269" s="49"/>
+      <c r="G269" s="49"/>
+      <c r="H269" s="49"/>
     </row>
     <row r="270" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F270" s="51"/>
-      <c r="G270" s="51"/>
-      <c r="H270" s="51"/>
+      <c r="F270" s="49"/>
+      <c r="G270" s="49"/>
+      <c r="H270" s="49"/>
     </row>
     <row r="271" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F271" s="51"/>
-      <c r="G271" s="51"/>
-      <c r="H271" s="51"/>
+      <c r="F271" s="49"/>
+      <c r="G271" s="49"/>
+      <c r="H271" s="49"/>
     </row>
     <row r="272" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F272" s="51"/>
-      <c r="G272" s="51"/>
-      <c r="H272" s="51"/>
+      <c r="F272" s="49"/>
+      <c r="G272" s="49"/>
+      <c r="H272" s="49"/>
     </row>
     <row r="273" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F273" s="51"/>
-      <c r="G273" s="51"/>
-      <c r="H273" s="51"/>
+      <c r="F273" s="49"/>
+      <c r="G273" s="49"/>
+      <c r="H273" s="49"/>
     </row>
     <row r="274" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F274" s="51"/>
-      <c r="G274" s="51"/>
-      <c r="H274" s="51"/>
+      <c r="F274" s="49"/>
+      <c r="G274" s="49"/>
+      <c r="H274" s="49"/>
     </row>
     <row r="275" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F275" s="51"/>
-      <c r="G275" s="51"/>
-      <c r="H275" s="51"/>
+      <c r="F275" s="49"/>
+      <c r="G275" s="49"/>
+      <c r="H275" s="49"/>
     </row>
     <row r="276" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F276" s="51"/>
-      <c r="G276" s="51"/>
-      <c r="H276" s="51"/>
+      <c r="F276" s="49"/>
+      <c r="G276" s="49"/>
+      <c r="H276" s="49"/>
     </row>
     <row r="277" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F277" s="51"/>
-      <c r="G277" s="51"/>
-      <c r="H277" s="51"/>
+      <c r="F277" s="49"/>
+      <c r="G277" s="49"/>
+      <c r="H277" s="49"/>
     </row>
     <row r="278" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F278" s="51"/>
-      <c r="G278" s="51"/>
-      <c r="H278" s="51"/>
+      <c r="F278" s="49"/>
+      <c r="G278" s="49"/>
+      <c r="H278" s="49"/>
     </row>
     <row r="279" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F279" s="51"/>
-      <c r="G279" s="51"/>
-      <c r="H279" s="51"/>
+      <c r="F279" s="49"/>
+      <c r="G279" s="49"/>
+      <c r="H279" s="49"/>
     </row>
     <row r="280" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F280" s="51"/>
-      <c r="G280" s="51"/>
-      <c r="H280" s="51"/>
+      <c r="F280" s="49"/>
+      <c r="G280" s="49"/>
+      <c r="H280" s="49"/>
     </row>
     <row r="281" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F281" s="51"/>
-      <c r="G281" s="51"/>
-      <c r="H281" s="51"/>
+      <c r="F281" s="49"/>
+      <c r="G281" s="49"/>
+      <c r="H281" s="49"/>
     </row>
     <row r="282" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F282" s="51"/>
-      <c r="G282" s="51"/>
-      <c r="H282" s="51"/>
+      <c r="F282" s="49"/>
+      <c r="G282" s="49"/>
+      <c r="H282" s="49"/>
     </row>
     <row r="283" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F283" s="51"/>
-      <c r="G283" s="51"/>
-      <c r="H283" s="51"/>
+      <c r="F283" s="49"/>
+      <c r="G283" s="49"/>
+      <c r="H283" s="49"/>
     </row>
     <row r="284" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F284" s="51"/>
-      <c r="G284" s="51"/>
-      <c r="H284" s="51"/>
+      <c r="F284" s="49"/>
+      <c r="G284" s="49"/>
+      <c r="H284" s="49"/>
     </row>
     <row r="285" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F285" s="51"/>
-      <c r="G285" s="51"/>
-      <c r="H285" s="51"/>
+      <c r="F285" s="49"/>
+      <c r="G285" s="49"/>
+      <c r="H285" s="49"/>
     </row>
     <row r="286" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F286" s="51"/>
-      <c r="G286" s="51"/>
-      <c r="H286" s="51"/>
+      <c r="F286" s="49"/>
+      <c r="G286" s="49"/>
+      <c r="H286" s="49"/>
     </row>
     <row r="287" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F287" s="51"/>
-      <c r="G287" s="51"/>
-      <c r="H287" s="51"/>
+      <c r="F287" s="49"/>
+      <c r="G287" s="49"/>
+      <c r="H287" s="49"/>
     </row>
     <row r="288" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F288" s="51"/>
-      <c r="G288" s="51"/>
-      <c r="H288" s="51"/>
+      <c r="F288" s="49"/>
+      <c r="G288" s="49"/>
+      <c r="H288" s="49"/>
     </row>
     <row r="289" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F289" s="51"/>
-      <c r="G289" s="51"/>
-      <c r="H289" s="51"/>
+      <c r="F289" s="49"/>
+      <c r="G289" s="49"/>
+      <c r="H289" s="49"/>
     </row>
     <row r="290" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F290" s="51"/>
-      <c r="G290" s="51"/>
-      <c r="H290" s="51"/>
+      <c r="F290" s="49"/>
+      <c r="G290" s="49"/>
+      <c r="H290" s="49"/>
     </row>
     <row r="291" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F291" s="51"/>
-      <c r="G291" s="51"/>
-      <c r="H291" s="51"/>
+      <c r="F291" s="49"/>
+      <c r="G291" s="49"/>
+      <c r="H291" s="49"/>
     </row>
     <row r="292" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F292" s="51"/>
-      <c r="G292" s="51"/>
-      <c r="H292" s="51"/>
+      <c r="F292" s="49"/>
+      <c r="G292" s="49"/>
+      <c r="H292" s="49"/>
     </row>
     <row r="293" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F293" s="51"/>
-      <c r="G293" s="51"/>
-      <c r="H293" s="51"/>
+      <c r="F293" s="49"/>
+      <c r="G293" s="49"/>
+      <c r="H293" s="49"/>
     </row>
     <row r="294" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F294" s="51"/>
-      <c r="G294" s="51"/>
-      <c r="H294" s="51"/>
+      <c r="F294" s="49"/>
+      <c r="G294" s="49"/>
+      <c r="H294" s="49"/>
     </row>
     <row r="295" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F295" s="51"/>
-      <c r="G295" s="51"/>
-      <c r="H295" s="51"/>
+      <c r="F295" s="49"/>
+      <c r="G295" s="49"/>
+      <c r="H295" s="49"/>
     </row>
     <row r="296" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F296" s="51"/>
-      <c r="G296" s="51"/>
-      <c r="H296" s="51"/>
+      <c r="F296" s="49"/>
+      <c r="G296" s="49"/>
+      <c r="H296" s="49"/>
     </row>
     <row r="297" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F297" s="51"/>
-      <c r="G297" s="51"/>
-      <c r="H297" s="51"/>
+      <c r="F297" s="49"/>
+      <c r="G297" s="49"/>
+      <c r="H297" s="49"/>
     </row>
     <row r="298" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F298" s="51"/>
-      <c r="G298" s="51"/>
-      <c r="H298" s="51"/>
+      <c r="F298" s="49"/>
+      <c r="G298" s="49"/>
+      <c r="H298" s="49"/>
     </row>
     <row r="299" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F299" s="51"/>
-      <c r="G299" s="51"/>
-      <c r="H299" s="51"/>
+      <c r="F299" s="49"/>
+      <c r="G299" s="49"/>
+      <c r="H299" s="49"/>
     </row>
     <row r="300" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F300" s="51"/>
-      <c r="G300" s="51"/>
-      <c r="H300" s="51"/>
+      <c r="F300" s="49"/>
+      <c r="G300" s="49"/>
+      <c r="H300" s="49"/>
     </row>
     <row r="301" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F301" s="51"/>
-      <c r="G301" s="51"/>
-      <c r="H301" s="51"/>
+      <c r="F301" s="49"/>
+      <c r="G301" s="49"/>
+      <c r="H301" s="49"/>
     </row>
     <row r="302" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F302" s="51"/>
-      <c r="G302" s="51"/>
-      <c r="H302" s="51"/>
+      <c r="F302" s="49"/>
+      <c r="G302" s="49"/>
+      <c r="H302" s="49"/>
     </row>
     <row r="303" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F303" s="51"/>
-      <c r="G303" s="51"/>
-      <c r="H303" s="51"/>
+      <c r="F303" s="49"/>
+      <c r="G303" s="49"/>
+      <c r="H303" s="49"/>
     </row>
     <row r="304" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F304" s="51"/>
-      <c r="G304" s="51"/>
-      <c r="H304" s="51"/>
+      <c r="F304" s="49"/>
+      <c r="G304" s="49"/>
+      <c r="H304" s="49"/>
     </row>
     <row r="305" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F305" s="51"/>
-      <c r="G305" s="51"/>
-      <c r="H305" s="51"/>
+      <c r="F305" s="49"/>
+      <c r="G305" s="49"/>
+      <c r="H305" s="49"/>
     </row>
     <row r="306" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F306" s="51"/>
-      <c r="G306" s="51"/>
-      <c r="H306" s="51"/>
+      <c r="F306" s="49"/>
+      <c r="G306" s="49"/>
+      <c r="H306" s="49"/>
     </row>
     <row r="307" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F307" s="51"/>
-      <c r="G307" s="51"/>
-      <c r="H307" s="51"/>
+      <c r="F307" s="49"/>
+      <c r="G307" s="49"/>
+      <c r="H307" s="49"/>
     </row>
     <row r="308" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F308" s="51"/>
-      <c r="G308" s="51"/>
-      <c r="H308" s="51"/>
+      <c r="F308" s="49"/>
+      <c r="G308" s="49"/>
+      <c r="H308" s="49"/>
     </row>
     <row r="309" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F309" s="51"/>
-      <c r="G309" s="51"/>
-      <c r="H309" s="51"/>
+      <c r="F309" s="49"/>
+      <c r="G309" s="49"/>
+      <c r="H309" s="49"/>
     </row>
     <row r="310" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F310" s="51"/>
-      <c r="G310" s="51"/>
-      <c r="H310" s="51"/>
+      <c r="F310" s="49"/>
+      <c r="G310" s="49"/>
+      <c r="H310" s="49"/>
     </row>
     <row r="311" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F311" s="51"/>
-      <c r="G311" s="51"/>
-      <c r="H311" s="51"/>
+      <c r="F311" s="49"/>
+      <c r="G311" s="49"/>
+      <c r="H311" s="49"/>
     </row>
     <row r="312" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F312" s="51"/>
-      <c r="G312" s="51"/>
-      <c r="H312" s="51"/>
+      <c r="F312" s="49"/>
+      <c r="G312" s="49"/>
+      <c r="H312" s="49"/>
     </row>
     <row r="313" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F313" s="51"/>
-      <c r="G313" s="51"/>
-      <c r="H313" s="51"/>
+      <c r="F313" s="49"/>
+      <c r="G313" s="49"/>
+      <c r="H313" s="49"/>
     </row>
     <row r="314" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F314" s="51"/>
-      <c r="G314" s="51"/>
-      <c r="H314" s="51"/>
+      <c r="F314" s="49"/>
+      <c r="G314" s="49"/>
+      <c r="H314" s="49"/>
     </row>
     <row r="315" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F315" s="51"/>
-      <c r="G315" s="51"/>
-      <c r="H315" s="51"/>
+      <c r="F315" s="49"/>
+      <c r="G315" s="49"/>
+      <c r="H315" s="49"/>
     </row>
     <row r="316" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F316" s="51"/>
-      <c r="G316" s="51"/>
-      <c r="H316" s="51"/>
+      <c r="F316" s="49"/>
+      <c r="G316" s="49"/>
+      <c r="H316" s="49"/>
     </row>
     <row r="317" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F317" s="51"/>
-      <c r="G317" s="51"/>
-      <c r="H317" s="51"/>
+      <c r="F317" s="49"/>
+      <c r="G317" s="49"/>
+      <c r="H317" s="49"/>
     </row>
     <row r="318" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F318" s="51"/>
-      <c r="G318" s="51"/>
-      <c r="H318" s="51"/>
+      <c r="F318" s="49"/>
+      <c r="G318" s="49"/>
+      <c r="H318" s="49"/>
     </row>
     <row r="319" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F319" s="51"/>
-      <c r="G319" s="51"/>
-      <c r="H319" s="51"/>
+      <c r="F319" s="49"/>
+      <c r="G319" s="49"/>
+      <c r="H319" s="49"/>
     </row>
     <row r="320" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F320" s="51"/>
-      <c r="G320" s="51"/>
-      <c r="H320" s="51"/>
+      <c r="F320" s="49"/>
+      <c r="G320" s="49"/>
+      <c r="H320" s="49"/>
     </row>
     <row r="321" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F321" s="51"/>
-      <c r="G321" s="51"/>
-      <c r="H321" s="51"/>
+      <c r="F321" s="49"/>
+      <c r="G321" s="49"/>
+      <c r="H321" s="49"/>
     </row>
     <row r="322" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F322" s="51"/>
-      <c r="G322" s="51"/>
-      <c r="H322" s="51"/>
+      <c r="F322" s="49"/>
+      <c r="G322" s="49"/>
+      <c r="H322" s="49"/>
     </row>
     <row r="323" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F323" s="51"/>
-      <c r="G323" s="51"/>
-      <c r="H323" s="51"/>
+      <c r="F323" s="49"/>
+      <c r="G323" s="49"/>
+      <c r="H323" s="49"/>
     </row>
     <row r="324" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F324" s="51"/>
-      <c r="G324" s="51"/>
-      <c r="H324" s="51"/>
+      <c r="F324" s="49"/>
+      <c r="G324" s="49"/>
+      <c r="H324" s="49"/>
     </row>
     <row r="325" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F325" s="51"/>
-      <c r="G325" s="51"/>
-      <c r="H325" s="51"/>
+      <c r="F325" s="49"/>
+      <c r="G325" s="49"/>
+      <c r="H325" s="49"/>
     </row>
     <row r="326" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F326" s="51"/>
-      <c r="G326" s="51"/>
-      <c r="H326" s="51"/>
+      <c r="F326" s="49"/>
+      <c r="G326" s="49"/>
+      <c r="H326" s="49"/>
     </row>
     <row r="327" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F327" s="51"/>
-      <c r="G327" s="51"/>
-      <c r="H327" s="51"/>
+      <c r="F327" s="49"/>
+      <c r="G327" s="49"/>
+      <c r="H327" s="49"/>
     </row>
     <row r="328" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F328" s="51"/>
-      <c r="G328" s="51"/>
-      <c r="H328" s="51"/>
+      <c r="F328" s="49"/>
+      <c r="G328" s="49"/>
+      <c r="H328" s="49"/>
     </row>
     <row r="329" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F329" s="51"/>
-      <c r="G329" s="51"/>
-      <c r="H329" s="51"/>
+      <c r="F329" s="49"/>
+      <c r="G329" s="49"/>
+      <c r="H329" s="49"/>
     </row>
     <row r="330" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F330" s="51"/>
-      <c r="G330" s="51"/>
-      <c r="H330" s="51"/>
+      <c r="F330" s="49"/>
+      <c r="G330" s="49"/>
+      <c r="H330" s="49"/>
     </row>
     <row r="331" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F331" s="51"/>
-      <c r="G331" s="51"/>
-      <c r="H331" s="51"/>
+      <c r="F331" s="49"/>
+      <c r="G331" s="49"/>
+      <c r="H331" s="49"/>
     </row>
     <row r="332" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F332" s="51"/>
-      <c r="G332" s="51"/>
-      <c r="H332" s="51"/>
+      <c r="F332" s="49"/>
+      <c r="G332" s="49"/>
+      <c r="H332" s="49"/>
     </row>
     <row r="333" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F333" s="51"/>
-      <c r="G333" s="51"/>
-      <c r="H333" s="51"/>
+      <c r="F333" s="49"/>
+      <c r="G333" s="49"/>
+      <c r="H333" s="49"/>
     </row>
     <row r="334" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F334" s="51"/>
-      <c r="G334" s="51"/>
-      <c r="H334" s="51"/>
+      <c r="F334" s="49"/>
+      <c r="G334" s="49"/>
+      <c r="H334" s="49"/>
     </row>
     <row r="335" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F335" s="51"/>
-      <c r="G335" s="51"/>
-      <c r="H335" s="51"/>
+      <c r="F335" s="49"/>
+      <c r="G335" s="49"/>
+      <c r="H335" s="49"/>
     </row>
     <row r="336" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F336" s="51"/>
-      <c r="G336" s="51"/>
-      <c r="H336" s="51"/>
+      <c r="F336" s="49"/>
+      <c r="G336" s="49"/>
+      <c r="H336" s="49"/>
     </row>
     <row r="337" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F337" s="51"/>
-      <c r="G337" s="51"/>
-      <c r="H337" s="51"/>
+      <c r="F337" s="49"/>
+      <c r="G337" s="49"/>
+      <c r="H337" s="49"/>
     </row>
     <row r="338" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F338" s="51"/>
-      <c r="G338" s="51"/>
-      <c r="H338" s="51"/>
+      <c r="F338" s="49"/>
+      <c r="G338" s="49"/>
+      <c r="H338" s="49"/>
     </row>
     <row r="339" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F339" s="51"/>
-      <c r="G339" s="51"/>
-      <c r="H339" s="51"/>
+      <c r="F339" s="49"/>
+      <c r="G339" s="49"/>
+      <c r="H339" s="49"/>
     </row>
     <row r="340" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F340" s="51"/>
-      <c r="G340" s="51"/>
-      <c r="H340" s="51"/>
+      <c r="F340" s="49"/>
+      <c r="G340" s="49"/>
+      <c r="H340" s="49"/>
     </row>
     <row r="341" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F341" s="51"/>
-      <c r="G341" s="51"/>
-      <c r="H341" s="51"/>
+      <c r="F341" s="49"/>
+      <c r="G341" s="49"/>
+      <c r="H341" s="49"/>
     </row>
     <row r="342" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F342" s="51"/>
-      <c r="G342" s="51"/>
-      <c r="H342" s="51"/>
+      <c r="F342" s="49"/>
+      <c r="G342" s="49"/>
+      <c r="H342" s="49"/>
     </row>
     <row r="343" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F343" s="51"/>
-      <c r="G343" s="51"/>
-      <c r="H343" s="51"/>
+      <c r="F343" s="49"/>
+      <c r="G343" s="49"/>
+      <c r="H343" s="49"/>
     </row>
     <row r="344" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F344" s="51"/>
-      <c r="G344" s="51"/>
-      <c r="H344" s="51"/>
+      <c r="F344" s="49"/>
+      <c r="G344" s="49"/>
+      <c r="H344" s="49"/>
     </row>
     <row r="345" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F345" s="51"/>
-      <c r="G345" s="51"/>
-      <c r="H345" s="51"/>
+      <c r="F345" s="49"/>
+      <c r="G345" s="49"/>
+      <c r="H345" s="49"/>
     </row>
     <row r="346" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F346" s="51"/>
-      <c r="G346" s="51"/>
-      <c r="H346" s="51"/>
+      <c r="F346" s="49"/>
+      <c r="G346" s="49"/>
+      <c r="H346" s="49"/>
     </row>
     <row r="347" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F347" s="51"/>
-      <c r="G347" s="51"/>
-      <c r="H347" s="51"/>
+      <c r="F347" s="49"/>
+      <c r="G347" s="49"/>
+      <c r="H347" s="49"/>
     </row>
     <row r="348" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F348" s="51"/>
-      <c r="G348" s="51"/>
-      <c r="H348" s="51"/>
+      <c r="F348" s="49"/>
+      <c r="G348" s="49"/>
+      <c r="H348" s="49"/>
     </row>
     <row r="349" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F349" s="51"/>
-      <c r="G349" s="51"/>
-      <c r="H349" s="51"/>
+      <c r="F349" s="49"/>
+      <c r="G349" s="49"/>
+      <c r="H349" s="49"/>
     </row>
     <row r="350" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F350" s="51"/>
-      <c r="G350" s="51"/>
-      <c r="H350" s="51"/>
+      <c r="F350" s="49"/>
+      <c r="G350" s="49"/>
+      <c r="H350" s="49"/>
     </row>
     <row r="351" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F351" s="51"/>
-      <c r="G351" s="51"/>
-      <c r="H351" s="51"/>
+      <c r="F351" s="49"/>
+      <c r="G351" s="49"/>
+      <c r="H351" s="49"/>
     </row>
     <row r="352" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F352" s="51"/>
-      <c r="G352" s="51"/>
-      <c r="H352" s="51"/>
+      <c r="F352" s="49"/>
+      <c r="G352" s="49"/>
+      <c r="H352" s="49"/>
     </row>
     <row r="353" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F353" s="51"/>
-      <c r="G353" s="51"/>
-      <c r="H353" s="51"/>
+      <c r="F353" s="49"/>
+      <c r="G353" s="49"/>
+      <c r="H353" s="49"/>
     </row>
     <row r="354" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F354" s="51"/>
-      <c r="G354" s="51"/>
-      <c r="H354" s="51"/>
+      <c r="F354" s="49"/>
+      <c r="G354" s="49"/>
+      <c r="H354" s="49"/>
     </row>
     <row r="355" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F355" s="51"/>
-      <c r="G355" s="51"/>
-      <c r="H355" s="51"/>
+      <c r="F355" s="49"/>
+      <c r="G355" s="49"/>
+      <c r="H355" s="49"/>
     </row>
     <row r="356" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F356" s="51"/>
-      <c r="G356" s="51"/>
-      <c r="H356" s="51"/>
+      <c r="F356" s="49"/>
+      <c r="G356" s="49"/>
+      <c r="H356" s="49"/>
     </row>
     <row r="357" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F357" s="51"/>
-      <c r="G357" s="51"/>
-      <c r="H357" s="51"/>
+      <c r="F357" s="49"/>
+      <c r="G357" s="49"/>
+      <c r="H357" s="49"/>
     </row>
     <row r="358" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F358" s="51"/>
-      <c r="G358" s="51"/>
-      <c r="H358" s="51"/>
+      <c r="F358" s="49"/>
+      <c r="G358" s="49"/>
+      <c r="H358" s="49"/>
     </row>
     <row r="359" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F359" s="51"/>
-      <c r="G359" s="51"/>
-      <c r="H359" s="51"/>
+      <c r="F359" s="49"/>
+      <c r="G359" s="49"/>
+      <c r="H359" s="49"/>
     </row>
     <row r="360" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F360" s="51"/>
-      <c r="G360" s="51"/>
-      <c r="H360" s="51"/>
+      <c r="F360" s="49"/>
+      <c r="G360" s="49"/>
+      <c r="H360" s="49"/>
     </row>
     <row r="361" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F361" s="51"/>
-      <c r="G361" s="51"/>
-      <c r="H361" s="51"/>
+      <c r="F361" s="49"/>
+      <c r="G361" s="49"/>
+      <c r="H361" s="49"/>
     </row>
     <row r="362" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F362" s="51"/>
-      <c r="G362" s="51"/>
-      <c r="H362" s="51"/>
+      <c r="F362" s="49"/>
+      <c r="G362" s="49"/>
+      <c r="H362" s="49"/>
     </row>
     <row r="363" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F363" s="51"/>
-      <c r="G363" s="51"/>
-      <c r="H363" s="51"/>
+      <c r="F363" s="49"/>
+      <c r="G363" s="49"/>
+      <c r="H363" s="49"/>
     </row>
     <row r="364" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F364" s="51"/>
-      <c r="G364" s="51"/>
-      <c r="H364" s="51"/>
+      <c r="F364" s="49"/>
+      <c r="G364" s="49"/>
+      <c r="H364" s="49"/>
     </row>
     <row r="365" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F365" s="51"/>
-      <c r="G365" s="51"/>
-      <c r="H365" s="51"/>
+      <c r="F365" s="49"/>
+      <c r="G365" s="49"/>
+      <c r="H365" s="49"/>
     </row>
     <row r="366" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F366" s="51"/>
-      <c r="G366" s="51"/>
-      <c r="H366" s="51"/>
+      <c r="F366" s="49"/>
+      <c r="G366" s="49"/>
+      <c r="H366" s="49"/>
     </row>
     <row r="367" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F367" s="51"/>
-      <c r="G367" s="51"/>
-      <c r="H367" s="51"/>
+      <c r="F367" s="49"/>
+      <c r="G367" s="49"/>
+      <c r="H367" s="49"/>
     </row>
     <row r="368" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F368" s="51"/>
-      <c r="G368" s="51"/>
-      <c r="H368" s="51"/>
+      <c r="F368" s="49"/>
+      <c r="G368" s="49"/>
+      <c r="H368" s="49"/>
     </row>
     <row r="369" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F369" s="51"/>
-      <c r="G369" s="51"/>
-      <c r="H369" s="51"/>
+      <c r="F369" s="49"/>
+      <c r="G369" s="49"/>
+      <c r="H369" s="49"/>
     </row>
     <row r="370" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F370" s="51"/>
-      <c r="G370" s="51"/>
-      <c r="H370" s="51"/>
+      <c r="F370" s="49"/>
+      <c r="G370" s="49"/>
+      <c r="H370" s="49"/>
     </row>
     <row r="371" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F371" s="51"/>
-      <c r="G371" s="51"/>
-      <c r="H371" s="51"/>
+      <c r="F371" s="49"/>
+      <c r="G371" s="49"/>
+      <c r="H371" s="49"/>
     </row>
     <row r="372" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F372" s="51"/>
-      <c r="G372" s="51"/>
-      <c r="H372" s="51"/>
+      <c r="F372" s="49"/>
+      <c r="G372" s="49"/>
+      <c r="H372" s="49"/>
     </row>
     <row r="373" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F373" s="51"/>
-      <c r="G373" s="51"/>
-      <c r="H373" s="51"/>
+      <c r="F373" s="49"/>
+      <c r="G373" s="49"/>
+      <c r="H373" s="49"/>
     </row>
     <row r="374" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F374" s="51"/>
-      <c r="G374" s="51"/>
-      <c r="H374" s="51"/>
+      <c r="F374" s="49"/>
+      <c r="G374" s="49"/>
+      <c r="H374" s="49"/>
     </row>
     <row r="375" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F375" s="51"/>
-      <c r="G375" s="51"/>
-      <c r="H375" s="51"/>
+      <c r="F375" s="49"/>
+      <c r="G375" s="49"/>
+      <c r="H375" s="49"/>
     </row>
     <row r="376" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F376" s="51"/>
-      <c r="G376" s="51"/>
-      <c r="H376" s="51"/>
+      <c r="F376" s="49"/>
+      <c r="G376" s="49"/>
+      <c r="H376" s="49"/>
     </row>
     <row r="377" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F377" s="51"/>
-      <c r="G377" s="51"/>
-      <c r="H377" s="51"/>
+      <c r="F377" s="49"/>
+      <c r="G377" s="49"/>
+      <c r="H377" s="49"/>
     </row>
     <row r="378" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F378" s="51"/>
-      <c r="G378" s="51"/>
-      <c r="H378" s="51"/>
+      <c r="F378" s="49"/>
+      <c r="G378" s="49"/>
+      <c r="H378" s="49"/>
     </row>
     <row r="379" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F379" s="51"/>
-      <c r="G379" s="51"/>
-      <c r="H379" s="51"/>
+      <c r="F379" s="49"/>
+      <c r="G379" s="49"/>
+      <c r="H379" s="49"/>
     </row>
     <row r="380" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F380" s="51"/>
-      <c r="G380" s="51"/>
-      <c r="H380" s="51"/>
+      <c r="F380" s="49"/>
+      <c r="G380" s="49"/>
+      <c r="H380" s="49"/>
     </row>
     <row r="381" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F381" s="51"/>
-      <c r="G381" s="51"/>
-      <c r="H381" s="51"/>
+      <c r="F381" s="49"/>
+      <c r="G381" s="49"/>
+      <c r="H381" s="49"/>
     </row>
     <row r="382" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F382" s="51"/>
-      <c r="G382" s="51"/>
-      <c r="H382" s="51"/>
+      <c r="F382" s="49"/>
+      <c r="G382" s="49"/>
+      <c r="H382" s="49"/>
     </row>
     <row r="383" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F383" s="51"/>
-      <c r="G383" s="51"/>
-      <c r="H383" s="51"/>
+      <c r="F383" s="49"/>
+      <c r="G383" s="49"/>
+      <c r="H383" s="49"/>
     </row>
     <row r="384" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F384" s="51"/>
-      <c r="G384" s="51"/>
-      <c r="H384" s="51"/>
+      <c r="F384" s="49"/>
+      <c r="G384" s="49"/>
+      <c r="H384" s="49"/>
     </row>
     <row r="385" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F385" s="51"/>
-      <c r="G385" s="51"/>
-      <c r="H385" s="51"/>
+      <c r="F385" s="49"/>
+      <c r="G385" s="49"/>
+      <c r="H385" s="49"/>
     </row>
     <row r="386" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F386" s="51"/>
-      <c r="G386" s="51"/>
-      <c r="H386" s="51"/>
+      <c r="F386" s="49"/>
+      <c r="G386" s="49"/>
+      <c r="H386" s="49"/>
     </row>
     <row r="387" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F387" s="51"/>
-      <c r="G387" s="51"/>
-      <c r="H387" s="51"/>
+      <c r="F387" s="49"/>
+      <c r="G387" s="49"/>
+      <c r="H387" s="49"/>
     </row>
     <row r="388" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F388" s="51"/>
-      <c r="G388" s="51"/>
-      <c r="H388" s="51"/>
+      <c r="F388" s="49"/>
+      <c r="G388" s="49"/>
+      <c r="H388" s="49"/>
     </row>
     <row r="389" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F389" s="51"/>
-      <c r="G389" s="51"/>
-      <c r="H389" s="51"/>
+      <c r="F389" s="49"/>
+      <c r="G389" s="49"/>
+      <c r="H389" s="49"/>
     </row>
     <row r="390" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F390" s="51"/>
-      <c r="G390" s="51"/>
-      <c r="H390" s="51"/>
+      <c r="F390" s="49"/>
+      <c r="G390" s="49"/>
+      <c r="H390" s="49"/>
     </row>
     <row r="391" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F391" s="51"/>
-      <c r="G391" s="51"/>
-      <c r="H391" s="51"/>
+      <c r="F391" s="49"/>
+      <c r="G391" s="49"/>
+      <c r="H391" s="49"/>
     </row>
     <row r="392" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F392" s="51"/>
-      <c r="G392" s="51"/>
-      <c r="H392" s="51"/>
+      <c r="F392" s="49"/>
+      <c r="G392" s="49"/>
+      <c r="H392" s="49"/>
     </row>
     <row r="393" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F393" s="51"/>
-      <c r="G393" s="51"/>
-      <c r="H393" s="51"/>
+      <c r="F393" s="49"/>
+      <c r="G393" s="49"/>
+      <c r="H393" s="49"/>
     </row>
     <row r="394" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F394" s="51"/>
-      <c r="G394" s="51"/>
-      <c r="H394" s="51"/>
+      <c r="F394" s="49"/>
+      <c r="G394" s="49"/>
+      <c r="H394" s="49"/>
     </row>
     <row r="395" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F395" s="51"/>
-      <c r="G395" s="51"/>
-      <c r="H395" s="51"/>
+      <c r="F395" s="49"/>
+      <c r="G395" s="49"/>
+      <c r="H395" s="49"/>
     </row>
     <row r="396" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F396" s="51"/>
-      <c r="G396" s="51"/>
-      <c r="H396" s="51"/>
+      <c r="F396" s="49"/>
+      <c r="G396" s="49"/>
+      <c r="H396" s="49"/>
     </row>
     <row r="397" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F397" s="51"/>
-      <c r="G397" s="51"/>
-      <c r="H397" s="51"/>
+      <c r="F397" s="49"/>
+      <c r="G397" s="49"/>
+      <c r="H397" s="49"/>
     </row>
     <row r="398" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F398" s="51"/>
-      <c r="G398" s="51"/>
-      <c r="H398" s="51"/>
+      <c r="F398" s="49"/>
+      <c r="G398" s="49"/>
+      <c r="H398" s="49"/>
     </row>
     <row r="399" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F399" s="51"/>
-      <c r="G399" s="51"/>
-      <c r="H399" s="51"/>
+      <c r="F399" s="49"/>
+      <c r="G399" s="49"/>
+      <c r="H399" s="49"/>
     </row>
     <row r="400" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F400" s="51"/>
-      <c r="G400" s="51"/>
-      <c r="H400" s="51"/>
+      <c r="F400" s="49"/>
+      <c r="G400" s="49"/>
+      <c r="H400" s="49"/>
     </row>
     <row r="401" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F401" s="51"/>
-      <c r="G401" s="51"/>
-      <c r="H401" s="51"/>
+      <c r="F401" s="49"/>
+      <c r="G401" s="49"/>
+      <c r="H401" s="49"/>
     </row>
     <row r="402" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F402" s="51"/>
-      <c r="G402" s="51"/>
-      <c r="H402" s="51"/>
+      <c r="F402" s="49"/>
+      <c r="G402" s="49"/>
+      <c r="H402" s="49"/>
     </row>
     <row r="403" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F403" s="51"/>
-      <c r="G403" s="51"/>
-      <c r="H403" s="51"/>
+      <c r="F403" s="49"/>
+      <c r="G403" s="49"/>
+      <c r="H403" s="49"/>
     </row>
     <row r="404" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F404" s="51"/>
-      <c r="G404" s="51"/>
-      <c r="H404" s="51"/>
+      <c r="F404" s="49"/>
+      <c r="G404" s="49"/>
+      <c r="H404" s="49"/>
     </row>
     <row r="405" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F405" s="51"/>
-      <c r="G405" s="51"/>
-      <c r="H405" s="51"/>
+      <c r="F405" s="49"/>
+      <c r="G405" s="49"/>
+      <c r="H405" s="49"/>
     </row>
     <row r="406" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F406" s="51"/>
-      <c r="G406" s="51"/>
-      <c r="H406" s="51"/>
+      <c r="F406" s="49"/>
+      <c r="G406" s="49"/>
+      <c r="H406" s="49"/>
     </row>
     <row r="407" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F407" s="51"/>
-      <c r="G407" s="51"/>
-      <c r="H407" s="51"/>
+      <c r="F407" s="49"/>
+      <c r="G407" s="49"/>
+      <c r="H407" s="49"/>
     </row>
     <row r="408" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F408" s="51"/>
-      <c r="G408" s="51"/>
-      <c r="H408" s="51"/>
+      <c r="F408" s="49"/>
+      <c r="G408" s="49"/>
+      <c r="H408" s="49"/>
     </row>
     <row r="409" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F409" s="51"/>
-      <c r="G409" s="51"/>
-      <c r="H409" s="51"/>
+      <c r="F409" s="49"/>
+      <c r="G409" s="49"/>
+      <c r="H409" s="49"/>
     </row>
     <row r="410" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F410" s="51"/>
-      <c r="G410" s="51"/>
-      <c r="H410" s="51"/>
+      <c r="F410" s="49"/>
+      <c r="G410" s="49"/>
+      <c r="H410" s="49"/>
     </row>
     <row r="411" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F411" s="51"/>
-      <c r="G411" s="51"/>
-      <c r="H411" s="51"/>
+      <c r="F411" s="49"/>
+      <c r="G411" s="49"/>
+      <c r="H411" s="49"/>
     </row>
     <row r="412" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F412" s="51"/>
-      <c r="G412" s="51"/>
-      <c r="H412" s="51"/>
+      <c r="F412" s="49"/>
+      <c r="G412" s="49"/>
+      <c r="H412" s="49"/>
     </row>
     <row r="413" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F413" s="51"/>
-      <c r="G413" s="51"/>
-      <c r="H413" s="51"/>
+      <c r="F413" s="49"/>
+      <c r="G413" s="49"/>
+      <c r="H413" s="49"/>
     </row>
     <row r="414" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F414" s="51"/>
-      <c r="G414" s="51"/>
-      <c r="H414" s="51"/>
+      <c r="F414" s="49"/>
+      <c r="G414" s="49"/>
+      <c r="H414" s="49"/>
     </row>
     <row r="415" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F415" s="51"/>
-      <c r="G415" s="51"/>
-      <c r="H415" s="51"/>
+      <c r="F415" s="49"/>
+      <c r="G415" s="49"/>
+      <c r="H415" s="49"/>
     </row>
     <row r="416" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F416" s="51"/>
-      <c r="G416" s="51"/>
-      <c r="H416" s="51"/>
+      <c r="F416" s="49"/>
+      <c r="G416" s="49"/>
+      <c r="H416" s="49"/>
     </row>
     <row r="417" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F417" s="51"/>
-      <c r="G417" s="51"/>
-      <c r="H417" s="51"/>
+      <c r="F417" s="49"/>
+      <c r="G417" s="49"/>
+      <c r="H417" s="49"/>
     </row>
     <row r="418" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F418" s="51"/>
-      <c r="G418" s="51"/>
-      <c r="H418" s="51"/>
+      <c r="F418" s="49"/>
+      <c r="G418" s="49"/>
+      <c r="H418" s="49"/>
     </row>
     <row r="419" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F419" s="51"/>
-      <c r="G419" s="51"/>
-      <c r="H419" s="51"/>
+      <c r="F419" s="49"/>
+      <c r="G419" s="49"/>
+      <c r="H419" s="49"/>
     </row>
     <row r="420" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F420" s="51"/>
-      <c r="G420" s="51"/>
-      <c r="H420" s="51"/>
+      <c r="F420" s="49"/>
+      <c r="G420" s="49"/>
+      <c r="H420" s="49"/>
     </row>
     <row r="421" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F421" s="51"/>
-      <c r="G421" s="51"/>
-      <c r="H421" s="51"/>
+      <c r="F421" s="49"/>
+      <c r="G421" s="49"/>
+      <c r="H421" s="49"/>
     </row>
     <row r="422" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F422" s="51"/>
-      <c r="G422" s="51"/>
-      <c r="H422" s="51"/>
+      <c r="F422" s="49"/>
+      <c r="G422" s="49"/>
+      <c r="H422" s="49"/>
     </row>
     <row r="423" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F423" s="51"/>
-      <c r="G423" s="51"/>
-      <c r="H423" s="51"/>
+      <c r="F423" s="49"/>
+      <c r="G423" s="49"/>
+      <c r="H423" s="49"/>
     </row>
     <row r="424" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F424" s="51"/>
-      <c r="G424" s="51"/>
-      <c r="H424" s="51"/>
+      <c r="F424" s="49"/>
+      <c r="G424" s="49"/>
+      <c r="H424" s="49"/>
     </row>
     <row r="425" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F425" s="51"/>
-      <c r="G425" s="51"/>
-      <c r="H425" s="51"/>
+      <c r="F425" s="49"/>
+      <c r="G425" s="49"/>
+      <c r="H425" s="49"/>
     </row>
     <row r="426" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F426" s="51"/>
-      <c r="G426" s="51"/>
-      <c r="H426" s="51"/>
+      <c r="F426" s="49"/>
+      <c r="G426" s="49"/>
+      <c r="H426" s="49"/>
     </row>
     <row r="427" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F427" s="51"/>
-      <c r="G427" s="51"/>
-      <c r="H427" s="51"/>
+      <c r="F427" s="49"/>
+      <c r="G427" s="49"/>
+      <c r="H427" s="49"/>
     </row>
     <row r="428" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F428" s="51"/>
-      <c r="G428" s="51"/>
-      <c r="H428" s="51"/>
+      <c r="F428" s="49"/>
+      <c r="G428" s="49"/>
+      <c r="H428" s="49"/>
     </row>
     <row r="429" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F429" s="51"/>
-      <c r="G429" s="51"/>
-      <c r="H429" s="51"/>
+      <c r="F429" s="49"/>
+      <c r="G429" s="49"/>
+      <c r="H429" s="49"/>
     </row>
     <row r="430" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F430" s="51"/>
-      <c r="G430" s="51"/>
-      <c r="H430" s="51"/>
+      <c r="F430" s="49"/>
+      <c r="G430" s="49"/>
+      <c r="H430" s="49"/>
     </row>
     <row r="431" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F431" s="51"/>
-      <c r="G431" s="51"/>
-      <c r="H431" s="51"/>
+      <c r="F431" s="49"/>
+      <c r="G431" s="49"/>
+      <c r="H431" s="49"/>
     </row>
     <row r="432" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F432" s="51"/>
-      <c r="G432" s="51"/>
-      <c r="H432" s="51"/>
+      <c r="F432" s="49"/>
+      <c r="G432" s="49"/>
+      <c r="H432" s="49"/>
     </row>
     <row r="433" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F433" s="51"/>
-      <c r="G433" s="51"/>
-      <c r="H433" s="51"/>
+      <c r="F433" s="49"/>
+      <c r="G433" s="49"/>
+      <c r="H433" s="49"/>
     </row>
     <row r="434" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F434" s="51"/>
-      <c r="G434" s="51"/>
-      <c r="H434" s="51"/>
+      <c r="F434" s="49"/>
+      <c r="G434" s="49"/>
+      <c r="H434" s="49"/>
     </row>
     <row r="435" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F435" s="51"/>
-      <c r="G435" s="51"/>
-      <c r="H435" s="51"/>
+      <c r="F435" s="49"/>
+      <c r="G435" s="49"/>
+      <c r="H435" s="49"/>
     </row>
     <row r="436" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F436" s="51"/>
-      <c r="G436" s="51"/>
-      <c r="H436" s="51"/>
+      <c r="F436" s="49"/>
+      <c r="G436" s="49"/>
+      <c r="H436" s="49"/>
     </row>
     <row r="437" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F437" s="51"/>
-      <c r="G437" s="51"/>
-      <c r="H437" s="51"/>
+      <c r="F437" s="49"/>
+      <c r="G437" s="49"/>
+      <c r="H437" s="49"/>
     </row>
     <row r="438" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F438" s="51"/>
-      <c r="G438" s="51"/>
-      <c r="H438" s="51"/>
+      <c r="F438" s="49"/>
+      <c r="G438" s="49"/>
+      <c r="H438" s="49"/>
     </row>
     <row r="439" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F439" s="51"/>
-      <c r="G439" s="51"/>
-      <c r="H439" s="51"/>
+      <c r="F439" s="49"/>
+      <c r="G439" s="49"/>
+      <c r="H439" s="49"/>
     </row>
     <row r="440" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F440" s="51"/>
-      <c r="G440" s="51"/>
-      <c r="H440" s="51"/>
+      <c r="F440" s="49"/>
+      <c r="G440" s="49"/>
+      <c r="H440" s="49"/>
     </row>
     <row r="441" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F441" s="51"/>
-      <c r="G441" s="51"/>
-      <c r="H441" s="51"/>
+      <c r="F441" s="49"/>
+      <c r="G441" s="49"/>
+      <c r="H441" s="49"/>
     </row>
     <row r="442" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F442" s="51"/>
-      <c r="G442" s="51"/>
-      <c r="H442" s="51"/>
+      <c r="F442" s="49"/>
+      <c r="G442" s="49"/>
+      <c r="H442" s="49"/>
     </row>
     <row r="443" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F443" s="51"/>
-      <c r="G443" s="51"/>
-      <c r="H443" s="51"/>
+      <c r="F443" s="49"/>
+      <c r="G443" s="49"/>
+      <c r="H443" s="49"/>
     </row>
     <row r="444" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F444" s="51"/>
-      <c r="G444" s="51"/>
-      <c r="H444" s="51"/>
+      <c r="F444" s="49"/>
+      <c r="G444" s="49"/>
+      <c r="H444" s="49"/>
     </row>
     <row r="445" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F445" s="51"/>
-      <c r="G445" s="51"/>
-      <c r="H445" s="51"/>
+      <c r="F445" s="49"/>
+      <c r="G445" s="49"/>
+      <c r="H445" s="49"/>
     </row>
     <row r="446" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F446" s="51"/>
-      <c r="G446" s="51"/>
-      <c r="H446" s="51"/>
+      <c r="F446" s="49"/>
+      <c r="G446" s="49"/>
+      <c r="H446" s="49"/>
     </row>
     <row r="447" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F447" s="51"/>
-      <c r="G447" s="51"/>
-      <c r="H447" s="51"/>
+      <c r="F447" s="49"/>
+      <c r="G447" s="49"/>
+      <c r="H447" s="49"/>
     </row>
     <row r="448" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F448" s="51"/>
-      <c r="G448" s="51"/>
-      <c r="H448" s="51"/>
+      <c r="F448" s="49"/>
+      <c r="G448" s="49"/>
+      <c r="H448" s="49"/>
     </row>
     <row r="449" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F449" s="51"/>
-      <c r="G449" s="51"/>
-      <c r="H449" s="51"/>
+      <c r="F449" s="49"/>
+      <c r="G449" s="49"/>
+      <c r="H449" s="49"/>
     </row>
     <row r="450" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F450" s="51"/>
-      <c r="G450" s="51"/>
-      <c r="H450" s="51"/>
+      <c r="F450" s="49"/>
+      <c r="G450" s="49"/>
+      <c r="H450" s="49"/>
     </row>
     <row r="451" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F451" s="51"/>
-      <c r="G451" s="51"/>
-      <c r="H451" s="51"/>
+      <c r="F451" s="49"/>
+      <c r="G451" s="49"/>
+      <c r="H451" s="49"/>
     </row>
     <row r="452" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F452" s="51"/>
-      <c r="G452" s="51"/>
-      <c r="H452" s="51"/>
+      <c r="F452" s="49"/>
+      <c r="G452" s="49"/>
+      <c r="H452" s="49"/>
     </row>
     <row r="453" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F453" s="51"/>
-      <c r="G453" s="51"/>
-      <c r="H453" s="51"/>
+      <c r="F453" s="49"/>
+      <c r="G453" s="49"/>
+      <c r="H453" s="49"/>
     </row>
     <row r="454" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F454" s="51"/>
-      <c r="G454" s="51"/>
-      <c r="H454" s="51"/>
+      <c r="F454" s="49"/>
+      <c r="G454" s="49"/>
+      <c r="H454" s="49"/>
     </row>
     <row r="455" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F455" s="51"/>
-      <c r="G455" s="51"/>
-      <c r="H455" s="51"/>
+      <c r="F455" s="49"/>
+      <c r="G455" s="49"/>
+      <c r="H455" s="49"/>
     </row>
     <row r="456" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F456" s="51"/>
-      <c r="G456" s="51"/>
-      <c r="H456" s="51"/>
+      <c r="F456" s="49"/>
+      <c r="G456" s="49"/>
+      <c r="H456" s="49"/>
     </row>
     <row r="457" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F457" s="51"/>
-      <c r="G457" s="51"/>
-      <c r="H457" s="51"/>
+      <c r="F457" s="49"/>
+      <c r="G457" s="49"/>
+      <c r="H457" s="49"/>
     </row>
     <row r="458" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F458" s="51"/>
-      <c r="G458" s="51"/>
-      <c r="H458" s="51"/>
+      <c r="F458" s="49"/>
+      <c r="G458" s="49"/>
+      <c r="H458" s="49"/>
     </row>
     <row r="459" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F459" s="51"/>
-      <c r="G459" s="51"/>
-      <c r="H459" s="51"/>
+      <c r="F459" s="49"/>
+      <c r="G459" s="49"/>
+      <c r="H459" s="49"/>
     </row>
     <row r="460" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F460" s="51"/>
-      <c r="G460" s="51"/>
-      <c r="H460" s="51"/>
+      <c r="F460" s="49"/>
+      <c r="G460" s="49"/>
+      <c r="H460" s="49"/>
     </row>
     <row r="461" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F461" s="51"/>
-      <c r="G461" s="51"/>
-      <c r="H461" s="51"/>
+      <c r="F461" s="49"/>
+      <c r="G461" s="49"/>
+      <c r="H461" s="49"/>
     </row>
     <row r="462" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F462" s="51"/>
-      <c r="G462" s="51"/>
-      <c r="H462" s="51"/>
+      <c r="F462" s="49"/>
+      <c r="G462" s="49"/>
+      <c r="H462" s="49"/>
     </row>
     <row r="463" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F463" s="51"/>
-      <c r="G463" s="51"/>
-      <c r="H463" s="51"/>
+      <c r="F463" s="49"/>
+      <c r="G463" s="49"/>
+      <c r="H463" s="49"/>
     </row>
     <row r="464" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F464" s="51"/>
-      <c r="G464" s="51"/>
-      <c r="H464" s="51"/>
+      <c r="F464" s="49"/>
+      <c r="G464" s="49"/>
+      <c r="H464" s="49"/>
     </row>
     <row r="465" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F465" s="51"/>
-      <c r="G465" s="51"/>
-      <c r="H465" s="51"/>
+      <c r="F465" s="49"/>
+      <c r="G465" s="49"/>
+      <c r="H465" s="49"/>
     </row>
     <row r="466" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F466" s="51"/>
-      <c r="G466" s="51"/>
-      <c r="H466" s="51"/>
+      <c r="F466" s="49"/>
+      <c r="G466" s="49"/>
+      <c r="H466" s="49"/>
     </row>
     <row r="467" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F467" s="51"/>
-      <c r="G467" s="51"/>
-      <c r="H467" s="51"/>
+      <c r="F467" s="49"/>
+      <c r="G467" s="49"/>
+      <c r="H467" s="49"/>
     </row>
     <row r="468" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F468" s="51"/>
-      <c r="G468" s="51"/>
-      <c r="H468" s="51"/>
+      <c r="F468" s="49"/>
+      <c r="G468" s="49"/>
+      <c r="H468" s="49"/>
     </row>
     <row r="469" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F469" s="51"/>
-      <c r="G469" s="51"/>
-      <c r="H469" s="51"/>
+      <c r="F469" s="49"/>
+      <c r="G469" s="49"/>
+      <c r="H469" s="49"/>
     </row>
     <row r="470" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F470" s="51"/>
-      <c r="G470" s="51"/>
-      <c r="H470" s="51"/>
+      <c r="F470" s="49"/>
+      <c r="G470" s="49"/>
+      <c r="H470" s="49"/>
     </row>
     <row r="471" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F471" s="51"/>
-      <c r="G471" s="51"/>
-      <c r="H471" s="51"/>
+      <c r="F471" s="49"/>
+      <c r="G471" s="49"/>
+      <c r="H471" s="49"/>
     </row>
     <row r="472" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F472" s="51"/>
-      <c r="G472" s="51"/>
-      <c r="H472" s="51"/>
+      <c r="F472" s="49"/>
+      <c r="G472" s="49"/>
+      <c r="H472" s="49"/>
     </row>
     <row r="473" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F473" s="51"/>
-      <c r="G473" s="51"/>
-      <c r="H473" s="51"/>
+      <c r="F473" s="49"/>
+      <c r="G473" s="49"/>
+      <c r="H473" s="49"/>
     </row>
     <row r="474" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F474" s="51"/>
-      <c r="G474" s="51"/>
-      <c r="H474" s="51"/>
+      <c r="F474" s="49"/>
+      <c r="G474" s="49"/>
+      <c r="H474" s="49"/>
     </row>
     <row r="475" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F475" s="51"/>
-      <c r="G475" s="51"/>
-      <c r="H475" s="51"/>
+      <c r="F475" s="49"/>
+      <c r="G475" s="49"/>
+      <c r="H475" s="49"/>
     </row>
     <row r="476" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F476" s="51"/>
-      <c r="G476" s="51"/>
-      <c r="H476" s="51"/>
+      <c r="F476" s="49"/>
+      <c r="G476" s="49"/>
+      <c r="H476" s="49"/>
     </row>
     <row r="477" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F477" s="51"/>
-      <c r="G477" s="51"/>
-      <c r="H477" s="51"/>
+      <c r="F477" s="49"/>
+      <c r="G477" s="49"/>
+      <c r="H477" s="49"/>
     </row>
     <row r="478" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F478" s="51"/>
-      <c r="G478" s="51"/>
-      <c r="H478" s="51"/>
+      <c r="F478" s="49"/>
+      <c r="G478" s="49"/>
+      <c r="H478" s="49"/>
     </row>
     <row r="479" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F479" s="51"/>
-      <c r="G479" s="51"/>
-      <c r="H479" s="51"/>
+      <c r="F479" s="49"/>
+      <c r="G479" s="49"/>
+      <c r="H479" s="49"/>
     </row>
     <row r="480" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F480" s="51"/>
-      <c r="G480" s="51"/>
-      <c r="H480" s="51"/>
+      <c r="F480" s="49"/>
+      <c r="G480" s="49"/>
+      <c r="H480" s="49"/>
     </row>
     <row r="481" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F481" s="51"/>
-      <c r="G481" s="51"/>
-      <c r="H481" s="51"/>
+      <c r="F481" s="49"/>
+      <c r="G481" s="49"/>
+      <c r="H481" s="49"/>
     </row>
     <row r="482" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F482" s="51"/>
-      <c r="G482" s="51"/>
-      <c r="H482" s="51"/>
+      <c r="F482" s="49"/>
+      <c r="G482" s="49"/>
+      <c r="H482" s="49"/>
     </row>
     <row r="483" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F483" s="51"/>
-      <c r="G483" s="51"/>
-      <c r="H483" s="51"/>
+      <c r="F483" s="49"/>
+      <c r="G483" s="49"/>
+      <c r="H483" s="49"/>
     </row>
     <row r="484" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F484" s="51"/>
-      <c r="G484" s="51"/>
-      <c r="H484" s="51"/>
+      <c r="F484" s="49"/>
+      <c r="G484" s="49"/>
+      <c r="H484" s="49"/>
     </row>
     <row r="485" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F485" s="51"/>
-      <c r="G485" s="51"/>
-      <c r="H485" s="51"/>
+      <c r="F485" s="49"/>
+      <c r="G485" s="49"/>
+      <c r="H485" s="49"/>
     </row>
     <row r="486" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F486" s="51"/>
-      <c r="G486" s="51"/>
-      <c r="H486" s="51"/>
+      <c r="F486" s="49"/>
+      <c r="G486" s="49"/>
+      <c r="H486" s="49"/>
     </row>
     <row r="487" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F487" s="51"/>
-      <c r="G487" s="51"/>
-      <c r="H487" s="51"/>
+      <c r="F487" s="49"/>
+      <c r="G487" s="49"/>
+      <c r="H487" s="49"/>
     </row>
     <row r="488" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F488" s="51"/>
-      <c r="G488" s="51"/>
-      <c r="H488" s="51"/>
+      <c r="F488" s="49"/>
+      <c r="G488" s="49"/>
+      <c r="H488" s="49"/>
     </row>
     <row r="489" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F489" s="51"/>
-      <c r="G489" s="51"/>
-      <c r="H489" s="51"/>
+      <c r="F489" s="49"/>
+      <c r="G489" s="49"/>
+      <c r="H489" s="49"/>
     </row>
     <row r="490" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F490" s="51"/>
-      <c r="G490" s="51"/>
-      <c r="H490" s="51"/>
+      <c r="F490" s="49"/>
+      <c r="G490" s="49"/>
+      <c r="H490" s="49"/>
     </row>
     <row r="491" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F491" s="51"/>
-      <c r="G491" s="51"/>
-      <c r="H491" s="51"/>
+      <c r="F491" s="49"/>
+      <c r="G491" s="49"/>
+      <c r="H491" s="49"/>
     </row>
     <row r="492" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F492" s="51"/>
-      <c r="G492" s="51"/>
-      <c r="H492" s="51"/>
+      <c r="F492" s="49"/>
+      <c r="G492" s="49"/>
+      <c r="H492" s="49"/>
     </row>
     <row r="493" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F493" s="51"/>
-      <c r="G493" s="51"/>
-      <c r="H493" s="51"/>
+      <c r="F493" s="49"/>
+      <c r="G493" s="49"/>
+      <c r="H493" s="49"/>
     </row>
     <row r="494" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F494" s="51"/>
-      <c r="G494" s="51"/>
-      <c r="H494" s="51"/>
+      <c r="F494" s="49"/>
+      <c r="G494" s="49"/>
+      <c r="H494" s="49"/>
     </row>
     <row r="495" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F495" s="51"/>
-      <c r="G495" s="51"/>
-      <c r="H495" s="51"/>
+      <c r="F495" s="49"/>
+      <c r="G495" s="49"/>
+      <c r="H495" s="49"/>
     </row>
     <row r="496" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F496" s="51"/>
-      <c r="G496" s="51"/>
-      <c r="H496" s="51"/>
+      <c r="F496" s="49"/>
+      <c r="G496" s="49"/>
+      <c r="H496" s="49"/>
     </row>
     <row r="497" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F497" s="51"/>
-      <c r="G497" s="51"/>
-      <c r="H497" s="51"/>
+      <c r="F497" s="49"/>
+      <c r="G497" s="49"/>
+      <c r="H497" s="49"/>
     </row>
     <row r="498" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F498" s="51"/>
-      <c r="G498" s="51"/>
-      <c r="H498" s="51"/>
+      <c r="F498" s="49"/>
+      <c r="G498" s="49"/>
+      <c r="H498" s="49"/>
     </row>
     <row r="499" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F499" s="51"/>
-      <c r="G499" s="51"/>
-      <c r="H499" s="51"/>
+      <c r="F499" s="49"/>
+      <c r="G499" s="49"/>
+      <c r="H499" s="49"/>
     </row>
     <row r="500" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F500" s="51"/>
-      <c r="G500" s="51"/>
-      <c r="H500" s="51"/>
+      <c r="F500" s="49"/>
+      <c r="G500" s="49"/>
+      <c r="H500" s="49"/>
     </row>
     <row r="501" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F501" s="51"/>
-      <c r="G501" s="51"/>
-      <c r="H501" s="51"/>
+      <c r="F501" s="49"/>
+      <c r="G501" s="49"/>
+      <c r="H501" s="49"/>
     </row>
     <row r="502" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F502" s="51"/>
-      <c r="G502" s="51"/>
-      <c r="H502" s="51"/>
+      <c r="F502" s="49"/>
+      <c r="G502" s="49"/>
+      <c r="H502" s="49"/>
     </row>
     <row r="503" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F503" s="51"/>
-      <c r="G503" s="51"/>
-      <c r="H503" s="51"/>
+      <c r="F503" s="49"/>
+      <c r="G503" s="49"/>
+      <c r="H503" s="49"/>
     </row>
     <row r="504" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F504" s="51"/>
-      <c r="G504" s="51"/>
-      <c r="H504" s="51"/>
+      <c r="F504" s="49"/>
+      <c r="G504" s="49"/>
+      <c r="H504" s="49"/>
     </row>
     <row r="505" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F505" s="51"/>
-      <c r="G505" s="51"/>
-      <c r="H505" s="51"/>
+      <c r="F505" s="49"/>
+      <c r="G505" s="49"/>
+      <c r="H505" s="49"/>
     </row>
     <row r="506" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F506" s="51"/>
-      <c r="G506" s="51"/>
-      <c r="H506" s="51"/>
+      <c r="F506" s="49"/>
+      <c r="G506" s="49"/>
+      <c r="H506" s="49"/>
     </row>
     <row r="507" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F507" s="51"/>
-      <c r="G507" s="51"/>
-      <c r="H507" s="51"/>
+      <c r="F507" s="49"/>
+      <c r="G507" s="49"/>
+      <c r="H507" s="49"/>
     </row>
     <row r="508" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F508" s="51"/>
-      <c r="G508" s="51"/>
-      <c r="H508" s="51"/>
+      <c r="F508" s="49"/>
+      <c r="G508" s="49"/>
+      <c r="H508" s="49"/>
     </row>
     <row r="509" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F509" s="51"/>
-      <c r="G509" s="51"/>
-      <c r="H509" s="51"/>
+      <c r="F509" s="49"/>
+      <c r="G509" s="49"/>
+      <c r="H509" s="49"/>
     </row>
     <row r="510" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F510" s="51"/>
-      <c r="G510" s="51"/>
-      <c r="H510" s="51"/>
+      <c r="F510" s="49"/>
+      <c r="G510" s="49"/>
+      <c r="H510" s="49"/>
     </row>
     <row r="511" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F511" s="51"/>
-      <c r="G511" s="51"/>
-      <c r="H511" s="51"/>
+      <c r="F511" s="49"/>
+      <c r="G511" s="49"/>
+      <c r="H511" s="49"/>
     </row>
     <row r="512" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F512" s="51"/>
-      <c r="G512" s="51"/>
-      <c r="H512" s="51"/>
+      <c r="F512" s="49"/>
+      <c r="G512" s="49"/>
+      <c r="H512" s="49"/>
     </row>
     <row r="513" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F513" s="51"/>
-      <c r="G513" s="51"/>
-      <c r="H513" s="51"/>
+      <c r="F513" s="49"/>
+      <c r="G513" s="49"/>
+      <c r="H513" s="49"/>
     </row>
     <row r="514" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F514" s="51"/>
-      <c r="G514" s="51"/>
-      <c r="H514" s="51"/>
+      <c r="F514" s="49"/>
+      <c r="G514" s="49"/>
+      <c r="H514" s="49"/>
     </row>
     <row r="515" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F515" s="51"/>
-      <c r="G515" s="51"/>
-      <c r="H515" s="51"/>
+      <c r="F515" s="49"/>
+      <c r="G515" s="49"/>
+      <c r="H515" s="49"/>
     </row>
     <row r="516" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F516" s="51"/>
-      <c r="G516" s="51"/>
-      <c r="H516" s="51"/>
+      <c r="F516" s="49"/>
+      <c r="G516" s="49"/>
+      <c r="H516" s="49"/>
     </row>
     <row r="517" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F517" s="51"/>
-      <c r="G517" s="51"/>
-      <c r="H517" s="51"/>
+      <c r="F517" s="49"/>
+      <c r="G517" s="49"/>
+      <c r="H517" s="49"/>
     </row>
     <row r="518" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F518" s="51"/>
-      <c r="G518" s="51"/>
-      <c r="H518" s="51"/>
+      <c r="F518" s="49"/>
+      <c r="G518" s="49"/>
+      <c r="H518" s="49"/>
     </row>
     <row r="519" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F519" s="51"/>
-      <c r="G519" s="51"/>
-      <c r="H519" s="51"/>
+      <c r="F519" s="49"/>
+      <c r="G519" s="49"/>
+      <c r="H519" s="49"/>
     </row>
     <row r="520" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F520" s="51"/>
-      <c r="G520" s="51"/>
-      <c r="H520" s="51"/>
+      <c r="F520" s="49"/>
+      <c r="G520" s="49"/>
+      <c r="H520" s="49"/>
     </row>
     <row r="521" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F521" s="51"/>
-      <c r="G521" s="51"/>
-      <c r="H521" s="51"/>
+      <c r="F521" s="49"/>
+      <c r="G521" s="49"/>
+      <c r="H521" s="49"/>
     </row>
     <row r="522" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F522" s="51"/>
-      <c r="G522" s="51"/>
-      <c r="H522" s="51"/>
+      <c r="F522" s="49"/>
+      <c r="G522" s="49"/>
+      <c r="H522" s="49"/>
     </row>
     <row r="523" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F523" s="51"/>
-      <c r="G523" s="51"/>
-      <c r="H523" s="51"/>
+      <c r="F523" s="49"/>
+      <c r="G523" s="49"/>
+      <c r="H523" s="49"/>
     </row>
     <row r="524" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F524" s="51"/>
-      <c r="G524" s="51"/>
-      <c r="H524" s="51"/>
+      <c r="F524" s="49"/>
+      <c r="G524" s="49"/>
+      <c r="H524" s="49"/>
     </row>
     <row r="525" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F525" s="51"/>
-      <c r="G525" s="51"/>
-      <c r="H525" s="51"/>
+      <c r="F525" s="49"/>
+      <c r="G525" s="49"/>
+      <c r="H525" s="49"/>
     </row>
     <row r="526" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F526" s="51"/>
-      <c r="G526" s="51"/>
-      <c r="H526" s="51"/>
+      <c r="F526" s="49"/>
+      <c r="G526" s="49"/>
+      <c r="H526" s="49"/>
     </row>
     <row r="527" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F527" s="51"/>
-      <c r="G527" s="51"/>
-      <c r="H527" s="51"/>
+      <c r="F527" s="49"/>
+      <c r="G527" s="49"/>
+      <c r="H527" s="49"/>
     </row>
     <row r="528" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F528" s="51"/>
-      <c r="G528" s="51"/>
-      <c r="H528" s="51"/>
+      <c r="F528" s="49"/>
+      <c r="G528" s="49"/>
+      <c r="H528" s="49"/>
     </row>
     <row r="529" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F529" s="51"/>
-      <c r="G529" s="51"/>
-      <c r="H529" s="51"/>
+      <c r="F529" s="49"/>
+      <c r="G529" s="49"/>
+      <c r="H529" s="49"/>
     </row>
     <row r="530" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F530" s="51"/>
-      <c r="G530" s="51"/>
-      <c r="H530" s="51"/>
+      <c r="F530" s="49"/>
+      <c r="G530" s="49"/>
+      <c r="H530" s="49"/>
     </row>
     <row r="531" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F531" s="51"/>
-      <c r="G531" s="51"/>
-      <c r="H531" s="51"/>
+      <c r="F531" s="49"/>
+      <c r="G531" s="49"/>
+      <c r="H531" s="49"/>
     </row>
     <row r="532" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F532" s="51"/>
-      <c r="G532" s="51"/>
-      <c r="H532" s="51"/>
+      <c r="F532" s="49"/>
+      <c r="G532" s="49"/>
+      <c r="H532" s="49"/>
     </row>
     <row r="533" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F533" s="51"/>
-      <c r="G533" s="51"/>
-      <c r="H533" s="51"/>
+      <c r="F533" s="49"/>
+      <c r="G533" s="49"/>
+      <c r="H533" s="49"/>
     </row>
     <row r="534" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F534" s="51"/>
-      <c r="G534" s="51"/>
-      <c r="H534" s="51"/>
+      <c r="F534" s="49"/>
+      <c r="G534" s="49"/>
+      <c r="H534" s="49"/>
     </row>
     <row r="535" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F535" s="51"/>
-      <c r="G535" s="51"/>
-      <c r="H535" s="51"/>
+      <c r="F535" s="49"/>
+      <c r="G535" s="49"/>
+      <c r="H535" s="49"/>
     </row>
     <row r="536" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F536" s="51"/>
-      <c r="G536" s="51"/>
-      <c r="H536" s="51"/>
+      <c r="F536" s="49"/>
+      <c r="G536" s="49"/>
+      <c r="H536" s="49"/>
     </row>
     <row r="537" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F537" s="51"/>
-      <c r="G537" s="51"/>
-      <c r="H537" s="51"/>
+      <c r="F537" s="49"/>
+      <c r="G537" s="49"/>
+      <c r="H537" s="49"/>
     </row>
     <row r="538" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F538" s="51"/>
-      <c r="G538" s="51"/>
-      <c r="H538" s="51"/>
+      <c r="F538" s="49"/>
+      <c r="G538" s="49"/>
+      <c r="H538" s="49"/>
     </row>
     <row r="539" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F539" s="51"/>
-      <c r="G539" s="51"/>
-      <c r="H539" s="51"/>
+      <c r="F539" s="49"/>
+      <c r="G539" s="49"/>
+      <c r="H539" s="49"/>
     </row>
     <row r="540" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F540" s="51"/>
-      <c r="G540" s="51"/>
-      <c r="H540" s="51"/>
+      <c r="F540" s="49"/>
+      <c r="G540" s="49"/>
+      <c r="H540" s="49"/>
     </row>
     <row r="541" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F541" s="51"/>
-      <c r="G541" s="51"/>
-      <c r="H541" s="51"/>
+      <c r="F541" s="49"/>
+      <c r="G541" s="49"/>
+      <c r="H541" s="49"/>
     </row>
     <row r="542" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F542" s="51"/>
-      <c r="G542" s="51"/>
-      <c r="H542" s="51"/>
+      <c r="F542" s="49"/>
+      <c r="G542" s="49"/>
+      <c r="H542" s="49"/>
     </row>
     <row r="543" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F543" s="51"/>
-      <c r="G543" s="51"/>
-      <c r="H543" s="51"/>
+      <c r="F543" s="49"/>
+      <c r="G543" s="49"/>
+      <c r="H543" s="49"/>
     </row>
     <row r="544" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F544" s="51"/>
-      <c r="G544" s="51"/>
-      <c r="H544" s="51"/>
+      <c r="F544" s="49"/>
+      <c r="G544" s="49"/>
+      <c r="H544" s="49"/>
     </row>
     <row r="545" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F545" s="51"/>
-      <c r="G545" s="51"/>
-      <c r="H545" s="51"/>
+      <c r="F545" s="49"/>
+      <c r="G545" s="49"/>
+      <c r="H545" s="49"/>
     </row>
     <row r="546" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F546" s="51"/>
-      <c r="G546" s="51"/>
-      <c r="H546" s="51"/>
+      <c r="F546" s="49"/>
+      <c r="G546" s="49"/>
+      <c r="H546" s="49"/>
     </row>
     <row r="547" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F547" s="51"/>
-      <c r="G547" s="51"/>
-      <c r="H547" s="51"/>
+      <c r="F547" s="49"/>
+      <c r="G547" s="49"/>
+      <c r="H547" s="49"/>
     </row>
     <row r="548" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F548" s="51"/>
-      <c r="G548" s="51"/>
-      <c r="H548" s="51"/>
+      <c r="F548" s="49"/>
+      <c r="G548" s="49"/>
+      <c r="H548" s="49"/>
     </row>
     <row r="549" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F549" s="51"/>
-      <c r="G549" s="51"/>
-      <c r="H549" s="51"/>
+      <c r="F549" s="49"/>
+      <c r="G549" s="49"/>
+      <c r="H549" s="49"/>
     </row>
     <row r="550" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F550" s="51"/>
-      <c r="G550" s="51"/>
-      <c r="H550" s="51"/>
+      <c r="F550" s="49"/>
+      <c r="G550" s="49"/>
+      <c r="H550" s="49"/>
     </row>
     <row r="551" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F551" s="51"/>
-      <c r="G551" s="51"/>
-      <c r="H551" s="51"/>
+      <c r="F551" s="49"/>
+      <c r="G551" s="49"/>
+      <c r="H551" s="49"/>
     </row>
     <row r="552" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F552" s="51"/>
-      <c r="G552" s="51"/>
-      <c r="H552" s="51"/>
+      <c r="F552" s="49"/>
+      <c r="G552" s="49"/>
+      <c r="H552" s="49"/>
     </row>
     <row r="553" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F553" s="51"/>
-      <c r="G553" s="51"/>
-      <c r="H553" s="51"/>
+      <c r="F553" s="49"/>
+      <c r="G553" s="49"/>
+      <c r="H553" s="49"/>
     </row>
     <row r="554" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F554" s="51"/>
-      <c r="G554" s="51"/>
-      <c r="H554" s="51"/>
+      <c r="F554" s="49"/>
+      <c r="G554" s="49"/>
+      <c r="H554" s="49"/>
     </row>
     <row r="555" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F555" s="51"/>
-      <c r="G555" s="51"/>
-      <c r="H555" s="51"/>
+      <c r="F555" s="49"/>
+      <c r="G555" s="49"/>
+      <c r="H555" s="49"/>
     </row>
     <row r="556" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F556" s="51"/>
-      <c r="G556" s="51"/>
-      <c r="H556" s="51"/>
+      <c r="F556" s="49"/>
+      <c r="G556" s="49"/>
+      <c r="H556" s="49"/>
     </row>
     <row r="557" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F557" s="51"/>
-      <c r="G557" s="51"/>
-      <c r="H557" s="51"/>
+      <c r="F557" s="49"/>
+      <c r="G557" s="49"/>
+      <c r="H557" s="49"/>
     </row>
     <row r="558" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F558" s="51"/>
-      <c r="G558" s="51"/>
-      <c r="H558" s="51"/>
+      <c r="F558" s="49"/>
+      <c r="G558" s="49"/>
+      <c r="H558" s="49"/>
     </row>
     <row r="559" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F559" s="51"/>
-      <c r="G559" s="51"/>
-      <c r="H559" s="51"/>
+      <c r="F559" s="49"/>
+      <c r="G559" s="49"/>
+      <c r="H559" s="49"/>
     </row>
     <row r="560" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F560" s="51"/>
-      <c r="G560" s="51"/>
-      <c r="H560" s="51"/>
+      <c r="F560" s="49"/>
+      <c r="G560" s="49"/>
+      <c r="H560" s="49"/>
     </row>
     <row r="561" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F561" s="51"/>
-      <c r="G561" s="51"/>
-      <c r="H561" s="51"/>
+      <c r="F561" s="49"/>
+      <c r="G561" s="49"/>
+      <c r="H561" s="49"/>
     </row>
     <row r="562" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F562" s="51"/>
-      <c r="G562" s="51"/>
-      <c r="H562" s="51"/>
+      <c r="F562" s="49"/>
+      <c r="G562" s="49"/>
+      <c r="H562" s="49"/>
     </row>
     <row r="563" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F563" s="51"/>
-      <c r="G563" s="51"/>
-      <c r="H563" s="51"/>
+      <c r="F563" s="49"/>
+      <c r="G563" s="49"/>
+      <c r="H563" s="49"/>
     </row>
     <row r="564" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F564" s="51"/>
-      <c r="G564" s="51"/>
-      <c r="H564" s="51"/>
+      <c r="F564" s="49"/>
+      <c r="G564" s="49"/>
+      <c r="H564" s="49"/>
     </row>
     <row r="565" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F565" s="51"/>
-      <c r="G565" s="51"/>
-      <c r="H565" s="51"/>
+      <c r="F565" s="49"/>
+      <c r="G565" s="49"/>
+      <c r="H565" s="49"/>
     </row>
     <row r="566" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F566" s="51"/>
-      <c r="G566" s="51"/>
-      <c r="H566" s="51"/>
+      <c r="F566" s="49"/>
+      <c r="G566" s="49"/>
+      <c r="H566" s="49"/>
     </row>
     <row r="567" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F567" s="51"/>
-      <c r="G567" s="51"/>
-      <c r="H567" s="51"/>
+      <c r="F567" s="49"/>
+      <c r="G567" s="49"/>
+      <c r="H567" s="49"/>
     </row>
     <row r="568" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F568" s="51"/>
-      <c r="G568" s="51"/>
-      <c r="H568" s="51"/>
+      <c r="F568" s="49"/>
+      <c r="G568" s="49"/>
+      <c r="H568" s="49"/>
     </row>
     <row r="569" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F569" s="51"/>
-      <c r="G569" s="51"/>
-      <c r="H569" s="51"/>
+      <c r="F569" s="49"/>
+      <c r="G569" s="49"/>
+      <c r="H569" s="49"/>
     </row>
     <row r="570" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F570" s="51"/>
-      <c r="G570" s="51"/>
-      <c r="H570" s="51"/>
+      <c r="F570" s="49"/>
+      <c r="G570" s="49"/>
+      <c r="H570" s="49"/>
     </row>
     <row r="571" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F571" s="51"/>
-      <c r="G571" s="51"/>
-      <c r="H571" s="51"/>
+      <c r="F571" s="49"/>
+      <c r="G571" s="49"/>
+      <c r="H571" s="49"/>
     </row>
     <row r="572" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F572" s="51"/>
-      <c r="G572" s="51"/>
-      <c r="H572" s="51"/>
+      <c r="F572" s="49"/>
+      <c r="G572" s="49"/>
+      <c r="H572" s="49"/>
     </row>
     <row r="573" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F573" s="51"/>
-      <c r="G573" s="51"/>
-      <c r="H573" s="51"/>
+      <c r="F573" s="49"/>
+      <c r="G573" s="49"/>
+      <c r="H573" s="49"/>
     </row>
     <row r="574" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F574" s="51"/>
-      <c r="G574" s="51"/>
-      <c r="H574" s="51"/>
+      <c r="F574" s="49"/>
+      <c r="G574" s="49"/>
+      <c r="H574" s="49"/>
     </row>
     <row r="575" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F575" s="51"/>
-      <c r="G575" s="51"/>
-      <c r="H575" s="51"/>
+      <c r="F575" s="49"/>
+      <c r="G575" s="49"/>
+      <c r="H575" s="49"/>
     </row>
     <row r="576" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F576" s="51"/>
-      <c r="G576" s="51"/>
-      <c r="H576" s="51"/>
+      <c r="F576" s="49"/>
+      <c r="G576" s="49"/>
+      <c r="H576" s="49"/>
     </row>
     <row r="577" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F577" s="51"/>
-      <c r="G577" s="51"/>
-      <c r="H577" s="51"/>
+      <c r="F577" s="49"/>
+      <c r="G577" s="49"/>
+      <c r="H577" s="49"/>
     </row>
     <row r="578" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F578" s="51"/>
-      <c r="G578" s="51"/>
-      <c r="H578" s="51"/>
+      <c r="F578" s="49"/>
+      <c r="G578" s="49"/>
+      <c r="H578" s="49"/>
     </row>
     <row r="579" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F579" s="51"/>
-      <c r="G579" s="51"/>
-      <c r="H579" s="51"/>
+      <c r="F579" s="49"/>
+      <c r="G579" s="49"/>
+      <c r="H579" s="49"/>
     </row>
     <row r="580" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F580" s="51"/>
-      <c r="G580" s="51"/>
-      <c r="H580" s="51"/>
+      <c r="F580" s="49"/>
+      <c r="G580" s="49"/>
+      <c r="H580" s="49"/>
     </row>
     <row r="581" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F581" s="51"/>
-      <c r="G581" s="51"/>
-      <c r="H581" s="51"/>
+      <c r="F581" s="49"/>
+      <c r="G581" s="49"/>
+      <c r="H581" s="49"/>
     </row>
     <row r="582" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F582" s="51"/>
-      <c r="G582" s="51"/>
-      <c r="H582" s="51"/>
+      <c r="F582" s="49"/>
+      <c r="G582" s="49"/>
+      <c r="H582" s="49"/>
     </row>
     <row r="583" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F583" s="51"/>
-      <c r="G583" s="51"/>
-      <c r="H583" s="51"/>
+      <c r="F583" s="49"/>
+      <c r="G583" s="49"/>
+      <c r="H583" s="49"/>
     </row>
     <row r="584" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F584" s="51"/>
-      <c r="G584" s="51"/>
-      <c r="H584" s="51"/>
+      <c r="F584" s="49"/>
+      <c r="G584" s="49"/>
+      <c r="H584" s="49"/>
     </row>
     <row r="585" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F585" s="51"/>
-      <c r="G585" s="51"/>
-      <c r="H585" s="51"/>
+      <c r="F585" s="49"/>
+      <c r="G585" s="49"/>
+      <c r="H585" s="49"/>
     </row>
     <row r="586" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F586" s="51"/>
-      <c r="G586" s="51"/>
-      <c r="H586" s="51"/>
+      <c r="F586" s="49"/>
+      <c r="G586" s="49"/>
+      <c r="H586" s="49"/>
     </row>
     <row r="587" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F587" s="51"/>
-      <c r="G587" s="51"/>
-      <c r="H587" s="51"/>
+      <c r="F587" s="49"/>
+      <c r="G587" s="49"/>
+      <c r="H587" s="49"/>
     </row>
     <row r="588" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F588" s="51"/>
-      <c r="G588" s="51"/>
-      <c r="H588" s="51"/>
+      <c r="F588" s="49"/>
+      <c r="G588" s="49"/>
+      <c r="H588" s="49"/>
     </row>
     <row r="589" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F589" s="51"/>
-      <c r="G589" s="51"/>
-      <c r="H589" s="51"/>
+      <c r="F589" s="49"/>
+      <c r="G589" s="49"/>
+      <c r="H589" s="49"/>
     </row>
     <row r="590" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F590" s="51"/>
-      <c r="G590" s="51"/>
-      <c r="H590" s="51"/>
+      <c r="F590" s="49"/>
+      <c r="G590" s="49"/>
+      <c r="H590" s="49"/>
     </row>
     <row r="591" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F591" s="51"/>
-      <c r="G591" s="51"/>
-      <c r="H591" s="51"/>
+      <c r="F591" s="49"/>
+      <c r="G591" s="49"/>
+      <c r="H591" s="49"/>
     </row>
     <row r="592" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F592" s="51"/>
-      <c r="G592" s="51"/>
-      <c r="H592" s="51"/>
+      <c r="F592" s="49"/>
+      <c r="G592" s="49"/>
+      <c r="H592" s="49"/>
     </row>
     <row r="593" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F593" s="51"/>
-      <c r="G593" s="51"/>
-      <c r="H593" s="51"/>
+      <c r="F593" s="49"/>
+      <c r="G593" s="49"/>
+      <c r="H593" s="49"/>
     </row>
     <row r="594" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F594" s="51"/>
-      <c r="G594" s="51"/>
-      <c r="H594" s="51"/>
+      <c r="F594" s="49"/>
+      <c r="G594" s="49"/>
+      <c r="H594" s="49"/>
     </row>
     <row r="595" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F595" s="51"/>
-      <c r="G595" s="51"/>
-      <c r="H595" s="51"/>
+      <c r="F595" s="49"/>
+      <c r="G595" s="49"/>
+      <c r="H595" s="49"/>
     </row>
     <row r="596" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F596" s="51"/>
-      <c r="G596" s="51"/>
-      <c r="H596" s="51"/>
+      <c r="F596" s="49"/>
+      <c r="G596" s="49"/>
+      <c r="H596" s="49"/>
     </row>
     <row r="597" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F597" s="51"/>
-      <c r="G597" s="51"/>
-      <c r="H597" s="51"/>
+      <c r="F597" s="49"/>
+      <c r="G597" s="49"/>
+      <c r="H597" s="49"/>
     </row>
     <row r="598" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F598" s="51"/>
-      <c r="G598" s="51"/>
-      <c r="H598" s="51"/>
+      <c r="F598" s="49"/>
+      <c r="G598" s="49"/>
+      <c r="H598" s="49"/>
     </row>
     <row r="599" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F599" s="51"/>
-      <c r="G599" s="51"/>
-      <c r="H599" s="51"/>
+      <c r="F599" s="49"/>
+      <c r="G599" s="49"/>
+      <c r="H599" s="49"/>
     </row>
     <row r="600" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F600" s="51"/>
-      <c r="G600" s="51"/>
-      <c r="H600" s="51"/>
+      <c r="F600" s="49"/>
+      <c r="G600" s="49"/>
+      <c r="H600" s="49"/>
     </row>
     <row r="601" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F601" s="51"/>
-      <c r="G601" s="51"/>
-      <c r="H601" s="51"/>
+      <c r="F601" s="49"/>
+      <c r="G601" s="49"/>
+      <c r="H601" s="49"/>
     </row>
     <row r="602" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F602" s="51"/>
-      <c r="G602" s="51"/>
-      <c r="H602" s="51"/>
+      <c r="F602" s="49"/>
+      <c r="G602" s="49"/>
+      <c r="H602" s="49"/>
     </row>
     <row r="603" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F603" s="51"/>
-      <c r="G603" s="51"/>
-      <c r="H603" s="51"/>
+      <c r="F603" s="49"/>
+      <c r="G603" s="49"/>
+      <c r="H603" s="49"/>
     </row>
     <row r="604" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F604" s="51"/>
-      <c r="G604" s="51"/>
-      <c r="H604" s="51"/>
+      <c r="F604" s="49"/>
+      <c r="G604" s="49"/>
+      <c r="H604" s="49"/>
     </row>
     <row r="605" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F605" s="51"/>
-      <c r="G605" s="51"/>
-      <c r="H605" s="51"/>
+      <c r="F605" s="49"/>
+      <c r="G605" s="49"/>
+      <c r="H605" s="49"/>
     </row>
     <row r="606" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F606" s="51"/>
-      <c r="G606" s="51"/>
-      <c r="H606" s="51"/>
+      <c r="F606" s="49"/>
+      <c r="G606" s="49"/>
+      <c r="H606" s="49"/>
     </row>
     <row r="607" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F607" s="51"/>
-      <c r="G607" s="51"/>
-      <c r="H607" s="51"/>
+      <c r="F607" s="49"/>
+      <c r="G607" s="49"/>
+      <c r="H607" s="49"/>
     </row>
     <row r="608" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F608" s="51"/>
-      <c r="G608" s="51"/>
-      <c r="H608" s="51"/>
+      <c r="F608" s="49"/>
+      <c r="G608" s="49"/>
+      <c r="H608" s="49"/>
     </row>
     <row r="609" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F609" s="51"/>
-      <c r="G609" s="51"/>
-      <c r="H609" s="51"/>
+      <c r="F609" s="49"/>
+      <c r="G609" s="49"/>
+      <c r="H609" s="49"/>
     </row>
     <row r="610" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F610" s="51"/>
-      <c r="G610" s="51"/>
-      <c r="H610" s="51"/>
+      <c r="F610" s="49"/>
+      <c r="G610" s="49"/>
+      <c r="H610" s="49"/>
     </row>
     <row r="611" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F611" s="51"/>
-      <c r="G611" s="51"/>
-      <c r="H611" s="51"/>
+      <c r="F611" s="49"/>
+      <c r="G611" s="49"/>
+      <c r="H611" s="49"/>
     </row>
     <row r="612" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F612" s="51"/>
-      <c r="G612" s="51"/>
-      <c r="H612" s="51"/>
+      <c r="F612" s="49"/>
+      <c r="G612" s="49"/>
+      <c r="H612" s="49"/>
     </row>
     <row r="613" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F613" s="51"/>
-      <c r="G613" s="51"/>
-      <c r="H613" s="51"/>
+      <c r="F613" s="49"/>
+      <c r="G613" s="49"/>
+      <c r="H613" s="49"/>
     </row>
     <row r="614" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F614" s="51"/>
-      <c r="G614" s="51"/>
-      <c r="H614" s="51"/>
+      <c r="F614" s="49"/>
+      <c r="G614" s="49"/>
+      <c r="H614" s="49"/>
     </row>
     <row r="615" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F615" s="51"/>
-      <c r="G615" s="51"/>
-      <c r="H615" s="51"/>
+      <c r="F615" s="49"/>
+      <c r="G615" s="49"/>
+      <c r="H615" s="49"/>
     </row>
     <row r="616" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F616" s="51"/>
-      <c r="G616" s="51"/>
-      <c r="H616" s="51"/>
+      <c r="F616" s="49"/>
+      <c r="G616" s="49"/>
+      <c r="H616" s="49"/>
     </row>
     <row r="617" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F617" s="51"/>
-      <c r="G617" s="51"/>
-      <c r="H617" s="51"/>
+      <c r="F617" s="49"/>
+      <c r="G617" s="49"/>
+      <c r="H617" s="49"/>
     </row>
     <row r="618" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F618" s="51"/>
-      <c r="G618" s="51"/>
-      <c r="H618" s="51"/>
+      <c r="F618" s="49"/>
+      <c r="G618" s="49"/>
+      <c r="H618" s="49"/>
     </row>
     <row r="619" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F619" s="51"/>
-      <c r="G619" s="51"/>
-      <c r="H619" s="51"/>
+      <c r="F619" s="49"/>
+      <c r="G619" s="49"/>
+      <c r="H619" s="49"/>
     </row>
     <row r="620" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F620" s="51"/>
-      <c r="G620" s="51"/>
-      <c r="H620" s="51"/>
+      <c r="F620" s="49"/>
+      <c r="G620" s="49"/>
+      <c r="H620" s="49"/>
     </row>
     <row r="621" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F621" s="51"/>
-      <c r="G621" s="51"/>
-      <c r="H621" s="51"/>
+      <c r="F621" s="49"/>
+      <c r="G621" s="49"/>
+      <c r="H621" s="49"/>
     </row>
     <row r="622" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F622" s="51"/>
-      <c r="G622" s="51"/>
-      <c r="H622" s="51"/>
+      <c r="F622" s="49"/>
+      <c r="G622" s="49"/>
+      <c r="H622" s="49"/>
     </row>
     <row r="623" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F623" s="51"/>
-      <c r="G623" s="51"/>
-      <c r="H623" s="51"/>
+      <c r="F623" s="49"/>
+      <c r="G623" s="49"/>
+      <c r="H623" s="49"/>
     </row>
     <row r="624" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F624" s="51"/>
-      <c r="G624" s="51"/>
-      <c r="H624" s="51"/>
+      <c r="F624" s="49"/>
+      <c r="G624" s="49"/>
+      <c r="H624" s="49"/>
     </row>
     <row r="625" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F625" s="51"/>
-      <c r="G625" s="51"/>
-      <c r="H625" s="51"/>
+      <c r="F625" s="49"/>
+      <c r="G625" s="49"/>
+      <c r="H625" s="49"/>
     </row>
     <row r="626" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F626" s="51"/>
-      <c r="G626" s="51"/>
-      <c r="H626" s="51"/>
+      <c r="F626" s="49"/>
+      <c r="G626" s="49"/>
+      <c r="H626" s="49"/>
     </row>
     <row r="627" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F627" s="51"/>
-      <c r="G627" s="51"/>
-      <c r="H627" s="51"/>
+      <c r="F627" s="49"/>
+      <c r="G627" s="49"/>
+      <c r="H627" s="49"/>
     </row>
     <row r="628" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F628" s="51"/>
-      <c r="G628" s="51"/>
-      <c r="H628" s="51"/>
+      <c r="F628" s="49"/>
+      <c r="G628" s="49"/>
+      <c r="H628" s="49"/>
     </row>
     <row r="629" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F629" s="51"/>
-      <c r="G629" s="51"/>
-      <c r="H629" s="51"/>
+      <c r="F629" s="49"/>
+      <c r="G629" s="49"/>
+      <c r="H629" s="49"/>
     </row>
     <row r="630" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F630" s="51"/>
-      <c r="G630" s="51"/>
-      <c r="H630" s="51"/>
+      <c r="F630" s="49"/>
+      <c r="G630" s="49"/>
+      <c r="H630" s="49"/>
     </row>
     <row r="631" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F631" s="51"/>
-      <c r="G631" s="51"/>
-      <c r="H631" s="51"/>
+      <c r="F631" s="49"/>
+      <c r="G631" s="49"/>
+      <c r="H631" s="49"/>
     </row>
     <row r="632" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F632" s="51"/>
-      <c r="G632" s="51"/>
-      <c r="H632" s="51"/>
+      <c r="F632" s="49"/>
+      <c r="G632" s="49"/>
+      <c r="H632" s="49"/>
     </row>
     <row r="633" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F633" s="51"/>
-      <c r="G633" s="51"/>
-      <c r="H633" s="51"/>
+      <c r="F633" s="49"/>
+      <c r="G633" s="49"/>
+      <c r="H633" s="49"/>
     </row>
     <row r="634" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F634" s="51"/>
-      <c r="G634" s="51"/>
-      <c r="H634" s="51"/>
+      <c r="F634" s="49"/>
+      <c r="G634" s="49"/>
+      <c r="H634" s="49"/>
     </row>
     <row r="635" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F635" s="51"/>
-      <c r="G635" s="51"/>
-      <c r="H635" s="51"/>
+      <c r="F635" s="49"/>
+      <c r="G635" s="49"/>
+      <c r="H635" s="49"/>
     </row>
     <row r="636" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F636" s="51"/>
-      <c r="G636" s="51"/>
-      <c r="H636" s="51"/>
+      <c r="F636" s="49"/>
+      <c r="G636" s="49"/>
+      <c r="H636" s="49"/>
     </row>
     <row r="637" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F637" s="51"/>
-      <c r="G637" s="51"/>
-      <c r="H637" s="51"/>
+      <c r="F637" s="49"/>
+      <c r="G637" s="49"/>
+      <c r="H637" s="49"/>
     </row>
     <row r="638" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F638" s="51"/>
-      <c r="G638" s="51"/>
-      <c r="H638" s="51"/>
+      <c r="F638" s="49"/>
+      <c r="G638" s="49"/>
+      <c r="H638" s="49"/>
     </row>
     <row r="639" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F639" s="51"/>
-      <c r="G639" s="51"/>
-      <c r="H639" s="51"/>
+      <c r="F639" s="49"/>
+      <c r="G639" s="49"/>
+      <c r="H639" s="49"/>
     </row>
     <row r="640" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F640" s="51"/>
-      <c r="G640" s="51"/>
-      <c r="H640" s="51"/>
+      <c r="F640" s="49"/>
+      <c r="G640" s="49"/>
+      <c r="H640" s="49"/>
     </row>
     <row r="641" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F641" s="51"/>
-      <c r="G641" s="51"/>
-      <c r="H641" s="51"/>
+      <c r="F641" s="49"/>
+      <c r="G641" s="49"/>
+      <c r="H641" s="49"/>
     </row>
     <row r="642" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F642" s="51"/>
-      <c r="G642" s="51"/>
-      <c r="H642" s="51"/>
+      <c r="F642" s="49"/>
+      <c r="G642" s="49"/>
+      <c r="H642" s="49"/>
     </row>
     <row r="643" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F643" s="51"/>
-      <c r="G643" s="51"/>
-      <c r="H643" s="51"/>
+      <c r="F643" s="49"/>
+      <c r="G643" s="49"/>
+      <c r="H643" s="49"/>
     </row>
     <row r="644" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F644" s="51"/>
-      <c r="G644" s="51"/>
-      <c r="H644" s="51"/>
+      <c r="F644" s="49"/>
+      <c r="G644" s="49"/>
+      <c r="H644" s="49"/>
     </row>
     <row r="645" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F645" s="51"/>
-      <c r="G645" s="51"/>
-      <c r="H645" s="51"/>
+      <c r="F645" s="49"/>
+      <c r="G645" s="49"/>
+      <c r="H645" s="49"/>
     </row>
     <row r="646" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F646" s="51"/>
-      <c r="G646" s="51"/>
-      <c r="H646" s="51"/>
+      <c r="F646" s="49"/>
+      <c r="G646" s="49"/>
+      <c r="H646" s="49"/>
     </row>
     <row r="647" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F647" s="51"/>
-      <c r="G647" s="51"/>
-      <c r="H647" s="51"/>
+      <c r="F647" s="49"/>
+      <c r="G647" s="49"/>
+      <c r="H647" s="49"/>
     </row>
     <row r="648" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F648" s="51"/>
-      <c r="G648" s="51"/>
-      <c r="H648" s="51"/>
+      <c r="F648" s="49"/>
+      <c r="G648" s="49"/>
+      <c r="H648" s="49"/>
     </row>
     <row r="649" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F649" s="51"/>
-      <c r="G649" s="51"/>
-      <c r="H649" s="51"/>
+      <c r="F649" s="49"/>
+      <c r="G649" s="49"/>
+      <c r="H649" s="49"/>
     </row>
     <row r="650" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F650" s="51"/>
-      <c r="G650" s="51"/>
-      <c r="H650" s="51"/>
+      <c r="F650" s="49"/>
+      <c r="G650" s="49"/>
+      <c r="H650" s="49"/>
     </row>
     <row r="651" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F651" s="51"/>
-      <c r="G651" s="51"/>
-      <c r="H651" s="51"/>
+      <c r="F651" s="49"/>
+      <c r="G651" s="49"/>
+      <c r="H651" s="49"/>
     </row>
     <row r="652" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F652" s="51"/>
-      <c r="G652" s="51"/>
-      <c r="H652" s="51"/>
+      <c r="F652" s="49"/>
+      <c r="G652" s="49"/>
+      <c r="H652" s="49"/>
     </row>
     <row r="653" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F653" s="51"/>
-      <c r="G653" s="51"/>
-      <c r="H653" s="51"/>
+      <c r="F653" s="49"/>
+      <c r="G653" s="49"/>
+      <c r="H653" s="49"/>
     </row>
     <row r="654" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F654" s="51"/>
-      <c r="G654" s="51"/>
-      <c r="H654" s="51"/>
+      <c r="F654" s="49"/>
+      <c r="G654" s="49"/>
+      <c r="H654" s="49"/>
     </row>
     <row r="655" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F655" s="51"/>
-      <c r="G655" s="51"/>
-      <c r="H655" s="51"/>
+      <c r="F655" s="49"/>
+      <c r="G655" s="49"/>
+      <c r="H655" s="49"/>
     </row>
     <row r="656" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F656" s="51"/>
-      <c r="G656" s="51"/>
-      <c r="H656" s="51"/>
+      <c r="F656" s="49"/>
+      <c r="G656" s="49"/>
+      <c r="H656" s="49"/>
     </row>
     <row r="657" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F657" s="51"/>
-      <c r="G657" s="51"/>
-      <c r="H657" s="51"/>
+      <c r="F657" s="49"/>
+      <c r="G657" s="49"/>
+      <c r="H657" s="49"/>
     </row>
     <row r="658" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F658" s="51"/>
-      <c r="G658" s="51"/>
-      <c r="H658" s="51"/>
+      <c r="F658" s="49"/>
+      <c r="G658" s="49"/>
+      <c r="H658" s="49"/>
     </row>
     <row r="659" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F659" s="51"/>
-      <c r="G659" s="51"/>
-      <c r="H659" s="51"/>
+      <c r="F659" s="49"/>
+      <c r="G659" s="49"/>
+      <c r="H659" s="49"/>
     </row>
     <row r="660" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F660" s="51"/>
-      <c r="G660" s="51"/>
-      <c r="H660" s="51"/>
+      <c r="F660" s="49"/>
+      <c r="G660" s="49"/>
+      <c r="H660" s="49"/>
     </row>
     <row r="661" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F661" s="51"/>
-      <c r="G661" s="51"/>
-      <c r="H661" s="51"/>
+      <c r="F661" s="49"/>
+      <c r="G661" s="49"/>
+      <c r="H661" s="49"/>
     </row>
     <row r="662" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F662" s="51"/>
-      <c r="G662" s="51"/>
-      <c r="H662" s="51"/>
+      <c r="F662" s="49"/>
+      <c r="G662" s="49"/>
+      <c r="H662" s="49"/>
     </row>
     <row r="663" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F663" s="51"/>
-      <c r="G663" s="51"/>
-      <c r="H663" s="51"/>
+      <c r="F663" s="49"/>
+      <c r="G663" s="49"/>
+      <c r="H663" s="49"/>
     </row>
     <row r="664" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F664" s="51"/>
-      <c r="G664" s="51"/>
-      <c r="H664" s="51"/>
+      <c r="F664" s="49"/>
+      <c r="G664" s="49"/>
+      <c r="H664" s="49"/>
     </row>
     <row r="665" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F665" s="51"/>
-      <c r="G665" s="51"/>
-      <c r="H665" s="51"/>
+      <c r="F665" s="49"/>
+      <c r="G665" s="49"/>
+      <c r="H665" s="49"/>
     </row>
     <row r="666" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F666" s="51"/>
-      <c r="G666" s="51"/>
-      <c r="H666" s="51"/>
+      <c r="F666" s="49"/>
+      <c r="G666" s="49"/>
+      <c r="H666" s="49"/>
     </row>
     <row r="667" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F667" s="51"/>
-      <c r="G667" s="51"/>
-      <c r="H667" s="51"/>
+      <c r="F667" s="49"/>
+      <c r="G667" s="49"/>
+      <c r="H667" s="49"/>
     </row>
     <row r="668" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F668" s="51"/>
-      <c r="G668" s="51"/>
-      <c r="H668" s="51"/>
+      <c r="F668" s="49"/>
+      <c r="G668" s="49"/>
+      <c r="H668" s="49"/>
     </row>
     <row r="669" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F669" s="51"/>
-      <c r="G669" s="51"/>
-      <c r="H669" s="51"/>
+      <c r="F669" s="49"/>
+      <c r="G669" s="49"/>
+      <c r="H669" s="49"/>
     </row>
     <row r="670" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F670" s="51"/>
-      <c r="G670" s="51"/>
-      <c r="H670" s="51"/>
+      <c r="F670" s="49"/>
+      <c r="G670" s="49"/>
+      <c r="H670" s="49"/>
     </row>
     <row r="671" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F671" s="51"/>
-      <c r="G671" s="51"/>
-      <c r="H671" s="51"/>
+      <c r="F671" s="49"/>
+      <c r="G671" s="49"/>
+      <c r="H671" s="49"/>
     </row>
     <row r="672" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F672" s="51"/>
-      <c r="G672" s="51"/>
-      <c r="H672" s="51"/>
+      <c r="F672" s="49"/>
+      <c r="G672" s="49"/>
+      <c r="H672" s="49"/>
     </row>
     <row r="673" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F673" s="51"/>
-      <c r="G673" s="51"/>
-      <c r="H673" s="51"/>
+      <c r="F673" s="49"/>
+      <c r="G673" s="49"/>
+      <c r="H673" s="49"/>
     </row>
     <row r="674" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F674" s="51"/>
-      <c r="G674" s="51"/>
-      <c r="H674" s="51"/>
+      <c r="F674" s="49"/>
+      <c r="G674" s="49"/>
+      <c r="H674" s="49"/>
     </row>
     <row r="675" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F675" s="51"/>
-      <c r="G675" s="51"/>
-      <c r="H675" s="51"/>
+      <c r="F675" s="49"/>
+      <c r="G675" s="49"/>
+      <c r="H675" s="49"/>
     </row>
     <row r="676" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F676" s="51"/>
-      <c r="G676" s="51"/>
-      <c r="H676" s="51"/>
+      <c r="F676" s="49"/>
+      <c r="G676" s="49"/>
+      <c r="H676" s="49"/>
     </row>
     <row r="677" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F677" s="51"/>
-      <c r="G677" s="51"/>
-      <c r="H677" s="51"/>
+      <c r="F677" s="49"/>
+      <c r="G677" s="49"/>
+      <c r="H677" s="49"/>
     </row>
     <row r="678" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F678" s="51"/>
-      <c r="G678" s="51"/>
-      <c r="H678" s="51"/>
+      <c r="F678" s="49"/>
+      <c r="G678" s="49"/>
+      <c r="H678" s="49"/>
     </row>
     <row r="679" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F679" s="51"/>
-      <c r="G679" s="51"/>
-      <c r="H679" s="51"/>
+      <c r="F679" s="49"/>
+      <c r="G679" s="49"/>
+      <c r="H679" s="49"/>
     </row>
     <row r="680" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F680" s="51"/>
-      <c r="G680" s="51"/>
-      <c r="H680" s="51"/>
+      <c r="F680" s="49"/>
+      <c r="G680" s="49"/>
+      <c r="H680" s="49"/>
     </row>
     <row r="681" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F681" s="51"/>
-      <c r="G681" s="51"/>
-      <c r="H681" s="51"/>
+      <c r="F681" s="49"/>
+      <c r="G681" s="49"/>
+      <c r="H681" s="49"/>
     </row>
     <row r="682" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F682" s="51"/>
-      <c r="G682" s="51"/>
-      <c r="H682" s="51"/>
+      <c r="F682" s="49"/>
+      <c r="G682" s="49"/>
+      <c r="H682" s="49"/>
     </row>
     <row r="683" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F683" s="51"/>
-      <c r="G683" s="51"/>
-      <c r="H683" s="51"/>
+      <c r="F683" s="49"/>
+      <c r="G683" s="49"/>
+      <c r="H683" s="49"/>
     </row>
     <row r="684" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F684" s="51"/>
-      <c r="G684" s="51"/>
-      <c r="H684" s="51"/>
+      <c r="F684" s="49"/>
+      <c r="G684" s="49"/>
+      <c r="H684" s="49"/>
     </row>
     <row r="685" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F685" s="51"/>
-      <c r="G685" s="51"/>
-      <c r="H685" s="51"/>
+      <c r="F685" s="49"/>
+      <c r="G685" s="49"/>
+      <c r="H685" s="49"/>
     </row>
     <row r="686" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F686" s="51"/>
-      <c r="G686" s="51"/>
-      <c r="H686" s="51"/>
+      <c r="F686" s="49"/>
+      <c r="G686" s="49"/>
+      <c r="H686" s="49"/>
     </row>
     <row r="687" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F687" s="51"/>
-      <c r="G687" s="51"/>
-      <c r="H687" s="51"/>
+      <c r="F687" s="49"/>
+      <c r="G687" s="49"/>
+      <c r="H687" s="49"/>
     </row>
     <row r="688" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F688" s="51"/>
-      <c r="G688" s="51"/>
-      <c r="H688" s="51"/>
+      <c r="F688" s="49"/>
+      <c r="G688" s="49"/>
+      <c r="H688" s="49"/>
     </row>
     <row r="689" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F689" s="51"/>
-      <c r="G689" s="51"/>
-      <c r="H689" s="51"/>
+      <c r="F689" s="49"/>
+      <c r="G689" s="49"/>
+      <c r="H689" s="49"/>
     </row>
     <row r="690" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F690" s="51"/>
-      <c r="G690" s="51"/>
-      <c r="H690" s="51"/>
+      <c r="F690" s="49"/>
+      <c r="G690" s="49"/>
+      <c r="H690" s="49"/>
     </row>
     <row r="691" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F691" s="51"/>
-      <c r="G691" s="51"/>
-      <c r="H691" s="51"/>
+      <c r="F691" s="49"/>
+      <c r="G691" s="49"/>
+      <c r="H691" s="49"/>
     </row>
     <row r="692" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F692" s="51"/>
-      <c r="G692" s="51"/>
-      <c r="H692" s="51"/>
+      <c r="F692" s="49"/>
+      <c r="G692" s="49"/>
+      <c r="H692" s="49"/>
     </row>
     <row r="693" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F693" s="51"/>
-      <c r="G693" s="51"/>
-      <c r="H693" s="51"/>
+      <c r="F693" s="49"/>
+      <c r="G693" s="49"/>
+      <c r="H693" s="49"/>
     </row>
     <row r="694" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F694" s="51"/>
-      <c r="G694" s="51"/>
-      <c r="H694" s="51"/>
+      <c r="F694" s="49"/>
+      <c r="G694" s="49"/>
+      <c r="H694" s="49"/>
     </row>
     <row r="695" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F695" s="51"/>
-      <c r="G695" s="51"/>
-      <c r="H695" s="51"/>
+      <c r="F695" s="49"/>
+      <c r="G695" s="49"/>
+      <c r="H695" s="49"/>
     </row>
     <row r="696" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F696" s="51"/>
-      <c r="G696" s="51"/>
-      <c r="H696" s="51"/>
+      <c r="F696" s="49"/>
+      <c r="G696" s="49"/>
+      <c r="H696" s="49"/>
     </row>
     <row r="697" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F697" s="51"/>
-      <c r="G697" s="51"/>
-      <c r="H697" s="51"/>
+      <c r="F697" s="49"/>
+      <c r="G697" s="49"/>
+      <c r="H697" s="49"/>
     </row>
     <row r="698" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F698" s="51"/>
-      <c r="G698" s="51"/>
-      <c r="H698" s="51"/>
+      <c r="F698" s="49"/>
+      <c r="G698" s="49"/>
+      <c r="H698" s="49"/>
     </row>
     <row r="699" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F699" s="51"/>
-      <c r="G699" s="51"/>
-      <c r="H699" s="51"/>
+      <c r="F699" s="49"/>
+      <c r="G699" s="49"/>
+      <c r="H699" s="49"/>
     </row>
     <row r="700" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F700" s="51"/>
-      <c r="G700" s="51"/>
-      <c r="H700" s="51"/>
+      <c r="F700" s="49"/>
+      <c r="G700" s="49"/>
+      <c r="H700" s="49"/>
     </row>
     <row r="701" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F701" s="51"/>
-      <c r="G701" s="51"/>
-      <c r="H701" s="51"/>
+      <c r="F701" s="49"/>
+      <c r="G701" s="49"/>
+      <c r="H701" s="49"/>
     </row>
     <row r="702" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F702" s="51"/>
-      <c r="G702" s="51"/>
-      <c r="H702" s="51"/>
+      <c r="F702" s="49"/>
+      <c r="G702" s="49"/>
+      <c r="H702" s="49"/>
     </row>
     <row r="703" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F703" s="51"/>
-      <c r="G703" s="51"/>
-      <c r="H703" s="51"/>
+      <c r="F703" s="49"/>
+      <c r="G703" s="49"/>
+      <c r="H703" s="49"/>
     </row>
     <row r="704" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F704" s="51"/>
-      <c r="G704" s="51"/>
-      <c r="H704" s="51"/>
+      <c r="F704" s="49"/>
+      <c r="G704" s="49"/>
+      <c r="H704" s="49"/>
     </row>
     <row r="705" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F705" s="51"/>
-      <c r="G705" s="51"/>
-      <c r="H705" s="51"/>
+      <c r="F705" s="49"/>
+      <c r="G705" s="49"/>
+      <c r="H705" s="49"/>
     </row>
     <row r="706" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F706" s="51"/>
-      <c r="G706" s="51"/>
-      <c r="H706" s="51"/>
+      <c r="F706" s="49"/>
+      <c r="G706" s="49"/>
+      <c r="H706" s="49"/>
     </row>
     <row r="707" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F707" s="51"/>
-      <c r="G707" s="51"/>
-      <c r="H707" s="51"/>
+      <c r="F707" s="49"/>
+      <c r="G707" s="49"/>
+      <c r="H707" s="49"/>
     </row>
     <row r="708" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F708" s="51"/>
-      <c r="G708" s="51"/>
-      <c r="H708" s="51"/>
+      <c r="F708" s="49"/>
+      <c r="G708" s="49"/>
+      <c r="H708" s="49"/>
     </row>
     <row r="709" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F709" s="51"/>
-      <c r="G709" s="51"/>
-      <c r="H709" s="51"/>
+      <c r="F709" s="49"/>
+      <c r="G709" s="49"/>
+      <c r="H709" s="49"/>
     </row>
     <row r="710" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F710" s="51"/>
-      <c r="G710" s="51"/>
-      <c r="H710" s="51"/>
+      <c r="F710" s="49"/>
+      <c r="G710" s="49"/>
+      <c r="H710" s="49"/>
     </row>
     <row r="711" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F711" s="51"/>
-      <c r="G711" s="51"/>
-      <c r="H711" s="51"/>
+      <c r="F711" s="49"/>
+      <c r="G711" s="49"/>
+      <c r="H711" s="49"/>
     </row>
     <row r="712" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F712" s="51"/>
-      <c r="G712" s="51"/>
-      <c r="H712" s="51"/>
+      <c r="F712" s="49"/>
+      <c r="G712" s="49"/>
+      <c r="H712" s="49"/>
     </row>
     <row r="713" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F713" s="51"/>
-      <c r="G713" s="51"/>
-      <c r="H713" s="51"/>
+      <c r="F713" s="49"/>
+      <c r="G713" s="49"/>
+      <c r="H713" s="49"/>
     </row>
     <row r="714" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F714" s="51"/>
-      <c r="G714" s="51"/>
-      <c r="H714" s="51"/>
+      <c r="F714" s="49"/>
+      <c r="G714" s="49"/>
+      <c r="H714" s="49"/>
     </row>
     <row r="715" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F715" s="51"/>
-      <c r="G715" s="51"/>
-      <c r="H715" s="51"/>
+      <c r="F715" s="49"/>
+      <c r="G715" s="49"/>
+      <c r="H715" s="49"/>
     </row>
     <row r="716" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F716" s="51"/>
-      <c r="G716" s="51"/>
-      <c r="H716" s="51"/>
+      <c r="F716" s="49"/>
+      <c r="G716" s="49"/>
+      <c r="H716" s="49"/>
     </row>
     <row r="717" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F717" s="51"/>
-      <c r="G717" s="51"/>
-      <c r="H717" s="51"/>
+      <c r="F717" s="49"/>
+      <c r="G717" s="49"/>
+      <c r="H717" s="49"/>
     </row>
     <row r="718" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F718" s="51"/>
-      <c r="G718" s="51"/>
-      <c r="H718" s="51"/>
+      <c r="F718" s="49"/>
+      <c r="G718" s="49"/>
+      <c r="H718" s="49"/>
     </row>
     <row r="719" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F719" s="51"/>
-      <c r="G719" s="51"/>
-      <c r="H719" s="51"/>
+      <c r="F719" s="49"/>
+      <c r="G719" s="49"/>
+      <c r="H719" s="49"/>
     </row>
     <row r="720" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F720" s="51"/>
-      <c r="G720" s="51"/>
-      <c r="H720" s="51"/>
+      <c r="F720" s="49"/>
+      <c r="G720" s="49"/>
+      <c r="H720" s="49"/>
     </row>
     <row r="721" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F721" s="51"/>
-      <c r="G721" s="51"/>
-      <c r="H721" s="51"/>
+      <c r="F721" s="49"/>
+      <c r="G721" s="49"/>
+      <c r="H721" s="49"/>
     </row>
     <row r="722" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F722" s="51"/>
-      <c r="G722" s="51"/>
-      <c r="H722" s="51"/>
+      <c r="F722" s="49"/>
+      <c r="G722" s="49"/>
+      <c r="H722" s="49"/>
     </row>
     <row r="723" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F723" s="51"/>
-      <c r="G723" s="51"/>
-      <c r="H723" s="51"/>
+      <c r="F723" s="49"/>
+      <c r="G723" s="49"/>
+      <c r="H723" s="49"/>
     </row>
     <row r="724" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F724" s="51"/>
-      <c r="G724" s="51"/>
-      <c r="H724" s="51"/>
+      <c r="F724" s="49"/>
+      <c r="G724" s="49"/>
+      <c r="H724" s="49"/>
     </row>
     <row r="725" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F725" s="51"/>
-      <c r="G725" s="51"/>
-      <c r="H725" s="51"/>
+      <c r="F725" s="49"/>
+      <c r="G725" s="49"/>
+      <c r="H725" s="49"/>
     </row>
     <row r="726" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F726" s="51"/>
-      <c r="G726" s="51"/>
-      <c r="H726" s="51"/>
+      <c r="F726" s="49"/>
+      <c r="G726" s="49"/>
+      <c r="H726" s="49"/>
     </row>
     <row r="727" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F727" s="51"/>
-      <c r="G727" s="51"/>
-      <c r="H727" s="51"/>
+      <c r="F727" s="49"/>
+      <c r="G727" s="49"/>
+      <c r="H727" s="49"/>
     </row>
     <row r="728" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F728" s="51"/>
-      <c r="G728" s="51"/>
-      <c r="H728" s="51"/>
+      <c r="F728" s="49"/>
+      <c r="G728" s="49"/>
+      <c r="H728" s="49"/>
     </row>
     <row r="729" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F729" s="51"/>
-      <c r="G729" s="51"/>
-      <c r="H729" s="51"/>
+      <c r="F729" s="49"/>
+      <c r="G729" s="49"/>
+      <c r="H729" s="49"/>
     </row>
     <row r="730" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F730" s="51"/>
-      <c r="G730" s="51"/>
-      <c r="H730" s="51"/>
+      <c r="F730" s="49"/>
+      <c r="G730" s="49"/>
+      <c r="H730" s="49"/>
     </row>
     <row r="731" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F731" s="51"/>
-      <c r="G731" s="51"/>
-      <c r="H731" s="51"/>
+      <c r="F731" s="49"/>
+      <c r="G731" s="49"/>
+      <c r="H731" s="49"/>
     </row>
     <row r="732" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F732" s="51"/>
-      <c r="G732" s="51"/>
-      <c r="H732" s="51"/>
+      <c r="F732" s="49"/>
+      <c r="G732" s="49"/>
+      <c r="H732" s="49"/>
     </row>
     <row r="733" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F733" s="51"/>
-      <c r="G733" s="51"/>
-      <c r="H733" s="51"/>
+      <c r="F733" s="49"/>
+      <c r="G733" s="49"/>
+      <c r="H733" s="49"/>
     </row>
     <row r="734" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F734" s="51"/>
-      <c r="G734" s="51"/>
-      <c r="H734" s="51"/>
+      <c r="F734" s="49"/>
+      <c r="G734" s="49"/>
+      <c r="H734" s="49"/>
     </row>
     <row r="735" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F735" s="51"/>
-      <c r="G735" s="51"/>
-      <c r="H735" s="51"/>
+      <c r="F735" s="49"/>
+      <c r="G735" s="49"/>
+      <c r="H735" s="49"/>
     </row>
     <row r="736" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F736" s="51"/>
-      <c r="G736" s="51"/>
-      <c r="H736" s="51"/>
+      <c r="F736" s="49"/>
+      <c r="G736" s="49"/>
+      <c r="H736" s="49"/>
     </row>
     <row r="737" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F737" s="51"/>
-      <c r="G737" s="51"/>
-      <c r="H737" s="51"/>
+      <c r="F737" s="49"/>
+      <c r="G737" s="49"/>
+      <c r="H737" s="49"/>
     </row>
     <row r="738" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F738" s="51"/>
-      <c r="G738" s="51"/>
-      <c r="H738" s="51"/>
+      <c r="F738" s="49"/>
+      <c r="G738" s="49"/>
+      <c r="H738" s="49"/>
     </row>
     <row r="739" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F739" s="51"/>
-      <c r="G739" s="51"/>
-      <c r="H739" s="51"/>
+      <c r="F739" s="49"/>
+      <c r="G739" s="49"/>
+      <c r="H739" s="49"/>
     </row>
     <row r="740" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F740" s="51"/>
-      <c r="G740" s="51"/>
-      <c r="H740" s="51"/>
+      <c r="F740" s="49"/>
+      <c r="G740" s="49"/>
+      <c r="H740" s="49"/>
     </row>
     <row r="741" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F741" s="51"/>
-      <c r="G741" s="51"/>
-      <c r="H741" s="51"/>
+      <c r="F741" s="49"/>
+      <c r="G741" s="49"/>
+      <c r="H741" s="49"/>
     </row>
     <row r="742" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F742" s="51"/>
-      <c r="G742" s="51"/>
-      <c r="H742" s="51"/>
+      <c r="F742" s="49"/>
+      <c r="G742" s="49"/>
+      <c r="H742" s="49"/>
     </row>
     <row r="743" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F743" s="51"/>
-      <c r="G743" s="51"/>
-      <c r="H743" s="51"/>
+      <c r="F743" s="49"/>
+      <c r="G743" s="49"/>
+      <c r="H743" s="49"/>
     </row>
     <row r="744" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F744" s="51"/>
-      <c r="G744" s="51"/>
-      <c r="H744" s="51"/>
+      <c r="F744" s="49"/>
+      <c r="G744" s="49"/>
+      <c r="H744" s="49"/>
     </row>
     <row r="745" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F745" s="51"/>
-      <c r="G745" s="51"/>
-      <c r="H745" s="51"/>
+      <c r="F745" s="49"/>
+      <c r="G745" s="49"/>
+      <c r="H745" s="49"/>
     </row>
     <row r="746" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F746" s="51"/>
-      <c r="G746" s="51"/>
-      <c r="H746" s="51"/>
+      <c r="F746" s="49"/>
+      <c r="G746" s="49"/>
+      <c r="H746" s="49"/>
     </row>
     <row r="747" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F747" s="51"/>
-      <c r="G747" s="51"/>
-      <c r="H747" s="51"/>
+      <c r="F747" s="49"/>
+      <c r="G747" s="49"/>
+      <c r="H747" s="49"/>
     </row>
     <row r="748" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F748" s="51"/>
-      <c r="G748" s="51"/>
-      <c r="H748" s="51"/>
+      <c r="F748" s="49"/>
+      <c r="G748" s="49"/>
+      <c r="H748" s="49"/>
     </row>
     <row r="749" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F749" s="51"/>
-      <c r="G749" s="51"/>
-      <c r="H749" s="51"/>
+      <c r="F749" s="49"/>
+      <c r="G749" s="49"/>
+      <c r="H749" s="49"/>
     </row>
     <row r="750" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F750" s="51"/>
-      <c r="G750" s="51"/>
-      <c r="H750" s="51"/>
+      <c r="F750" s="49"/>
+      <c r="G750" s="49"/>
+      <c r="H750" s="49"/>
     </row>
     <row r="751" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F751" s="51"/>
-      <c r="G751" s="51"/>
-      <c r="H751" s="51"/>
+      <c r="F751" s="49"/>
+      <c r="G751" s="49"/>
+      <c r="H751" s="49"/>
     </row>
     <row r="752" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F752" s="51"/>
-      <c r="G752" s="51"/>
-      <c r="H752" s="51"/>
+      <c r="F752" s="49"/>
+      <c r="G752" s="49"/>
+      <c r="H752" s="49"/>
     </row>
     <row r="753" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F753" s="51"/>
-      <c r="G753" s="51"/>
-      <c r="H753" s="51"/>
+      <c r="F753" s="49"/>
+      <c r="G753" s="49"/>
+      <c r="H753" s="49"/>
     </row>
     <row r="754" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F754" s="51"/>
-      <c r="G754" s="51"/>
-      <c r="H754" s="51"/>
+      <c r="F754" s="49"/>
+      <c r="G754" s="49"/>
+      <c r="H754" s="49"/>
     </row>
     <row r="755" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F755" s="51"/>
-      <c r="G755" s="51"/>
-      <c r="H755" s="51"/>
+      <c r="F755" s="49"/>
+      <c r="G755" s="49"/>
+      <c r="H755" s="49"/>
     </row>
     <row r="756" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F756" s="51"/>
-      <c r="G756" s="51"/>
-      <c r="H756" s="51"/>
+      <c r="F756" s="49"/>
+      <c r="G756" s="49"/>
+      <c r="H756" s="49"/>
     </row>
     <row r="757" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F757" s="51"/>
-      <c r="G757" s="51"/>
-      <c r="H757" s="51"/>
+      <c r="F757" s="49"/>
+      <c r="G757" s="49"/>
+      <c r="H757" s="49"/>
     </row>
     <row r="758" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F758" s="51"/>
-      <c r="G758" s="51"/>
-      <c r="H758" s="51"/>
+      <c r="F758" s="49"/>
+      <c r="G758" s="49"/>
+      <c r="H758" s="49"/>
     </row>
     <row r="759" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F759" s="51"/>
-      <c r="G759" s="51"/>
-      <c r="H759" s="51"/>
+      <c r="F759" s="49"/>
+      <c r="G759" s="49"/>
+      <c r="H759" s="49"/>
     </row>
     <row r="760" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F760" s="51"/>
-      <c r="G760" s="51"/>
-      <c r="H760" s="51"/>
+      <c r="F760" s="49"/>
+      <c r="G760" s="49"/>
+      <c r="H760" s="49"/>
     </row>
     <row r="761" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F761" s="51"/>
-      <c r="G761" s="51"/>
-      <c r="H761" s="51"/>
+      <c r="F761" s="49"/>
+      <c r="G761" s="49"/>
+      <c r="H761" s="49"/>
     </row>
     <row r="762" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F762" s="51"/>
-      <c r="G762" s="51"/>
-      <c r="H762" s="51"/>
+      <c r="F762" s="49"/>
+      <c r="G762" s="49"/>
+      <c r="H762" s="49"/>
     </row>
     <row r="763" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F763" s="51"/>
-      <c r="G763" s="51"/>
-      <c r="H763" s="51"/>
+      <c r="F763" s="49"/>
+      <c r="G763" s="49"/>
+      <c r="H763" s="49"/>
     </row>
     <row r="764" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F764" s="51"/>
-      <c r="G764" s="51"/>
-      <c r="H764" s="51"/>
+      <c r="F764" s="49"/>
+      <c r="G764" s="49"/>
+      <c r="H764" s="49"/>
     </row>
     <row r="765" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F765" s="51"/>
-      <c r="G765" s="51"/>
-      <c r="H765" s="51"/>
+      <c r="F765" s="49"/>
+      <c r="G765" s="49"/>
+      <c r="H765" s="49"/>
     </row>
     <row r="766" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F766" s="51"/>
-      <c r="G766" s="51"/>
-      <c r="H766" s="51"/>
+      <c r="F766" s="49"/>
+      <c r="G766" s="49"/>
+      <c r="H766" s="49"/>
     </row>
     <row r="767" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F767" s="51"/>
-      <c r="G767" s="51"/>
-      <c r="H767" s="51"/>
+      <c r="F767" s="49"/>
+      <c r="G767" s="49"/>
+      <c r="H767" s="49"/>
     </row>
     <row r="768" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F768" s="51"/>
-      <c r="G768" s="51"/>
-      <c r="H768" s="51"/>
+      <c r="F768" s="49"/>
+      <c r="G768" s="49"/>
+      <c r="H768" s="49"/>
     </row>
     <row r="769" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F769" s="51"/>
-      <c r="G769" s="51"/>
-      <c r="H769" s="51"/>
+      <c r="F769" s="49"/>
+      <c r="G769" s="49"/>
+      <c r="H769" s="49"/>
     </row>
     <row r="770" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F770" s="51"/>
-      <c r="G770" s="51"/>
-      <c r="H770" s="51"/>
+      <c r="F770" s="49"/>
+      <c r="G770" s="49"/>
+      <c r="H770" s="49"/>
     </row>
     <row r="771" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F771" s="51"/>
-      <c r="G771" s="51"/>
-      <c r="H771" s="51"/>
+      <c r="F771" s="49"/>
+      <c r="G771" s="49"/>
+      <c r="H771" s="49"/>
     </row>
     <row r="772" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F772" s="51"/>
-      <c r="G772" s="51"/>
-      <c r="H772" s="51"/>
+      <c r="F772" s="49"/>
+      <c r="G772" s="49"/>
+      <c r="H772" s="49"/>
     </row>
     <row r="773" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F773" s="51"/>
-      <c r="G773" s="51"/>
-      <c r="H773" s="51"/>
+      <c r="F773" s="49"/>
+      <c r="G773" s="49"/>
+      <c r="H773" s="49"/>
     </row>
     <row r="774" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F774" s="51"/>
-      <c r="G774" s="51"/>
-      <c r="H774" s="51"/>
+      <c r="F774" s="49"/>
+      <c r="G774" s="49"/>
+      <c r="H774" s="49"/>
     </row>
     <row r="775" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F775" s="51"/>
-      <c r="G775" s="51"/>
-      <c r="H775" s="51"/>
+      <c r="F775" s="49"/>
+      <c r="G775" s="49"/>
+      <c r="H775" s="49"/>
     </row>
     <row r="776" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F776" s="51"/>
-      <c r="G776" s="51"/>
-      <c r="H776" s="51"/>
+      <c r="F776" s="49"/>
+      <c r="G776" s="49"/>
+      <c r="H776" s="49"/>
     </row>
     <row r="777" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F777" s="51"/>
-      <c r="G777" s="51"/>
-      <c r="H777" s="51"/>
+      <c r="F777" s="49"/>
+      <c r="G777" s="49"/>
+      <c r="H777" s="49"/>
     </row>
     <row r="778" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F778" s="51"/>
-      <c r="G778" s="51"/>
-      <c r="H778" s="51"/>
+      <c r="F778" s="49"/>
+      <c r="G778" s="49"/>
+      <c r="H778" s="49"/>
     </row>
     <row r="779" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F779" s="51"/>
-      <c r="G779" s="51"/>
-      <c r="H779" s="51"/>
+      <c r="F779" s="49"/>
+      <c r="G779" s="49"/>
+      <c r="H779" s="49"/>
     </row>
     <row r="780" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F780" s="51"/>
-      <c r="G780" s="51"/>
-      <c r="H780" s="51"/>
+      <c r="F780" s="49"/>
+      <c r="G780" s="49"/>
+      <c r="H780" s="49"/>
     </row>
     <row r="781" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F781" s="51"/>
-      <c r="G781" s="51"/>
-      <c r="H781" s="51"/>
+      <c r="F781" s="49"/>
+      <c r="G781" s="49"/>
+      <c r="H781" s="49"/>
     </row>
     <row r="782" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F782" s="51"/>
-      <c r="G782" s="51"/>
-      <c r="H782" s="51"/>
+      <c r="F782" s="49"/>
+      <c r="G782" s="49"/>
+      <c r="H782" s="49"/>
     </row>
     <row r="783" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F783" s="51"/>
-      <c r="G783" s="51"/>
-      <c r="H783" s="51"/>
+      <c r="F783" s="49"/>
+      <c r="G783" s="49"/>
+      <c r="H783" s="49"/>
     </row>
     <row r="784" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F784" s="51"/>
-      <c r="G784" s="51"/>
-      <c r="H784" s="51"/>
+      <c r="F784" s="49"/>
+      <c r="G784" s="49"/>
+      <c r="H784" s="49"/>
     </row>
     <row r="785" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F785" s="51"/>
-      <c r="G785" s="51"/>
-      <c r="H785" s="51"/>
+      <c r="F785" s="49"/>
+      <c r="G785" s="49"/>
+      <c r="H785" s="49"/>
     </row>
     <row r="786" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F786" s="51"/>
-      <c r="G786" s="51"/>
-      <c r="H786" s="51"/>
+      <c r="F786" s="49"/>
+      <c r="G786" s="49"/>
+      <c r="H786" s="49"/>
     </row>
     <row r="787" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F787" s="51"/>
-      <c r="G787" s="51"/>
-      <c r="H787" s="51"/>
+      <c r="F787" s="49"/>
+      <c r="G787" s="49"/>
+      <c r="H787" s="49"/>
     </row>
     <row r="788" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F788" s="51"/>
-      <c r="G788" s="51"/>
-      <c r="H788" s="51"/>
+      <c r="F788" s="49"/>
+      <c r="G788" s="49"/>
+      <c r="H788" s="49"/>
     </row>
     <row r="789" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F789" s="51"/>
-      <c r="G789" s="51"/>
-      <c r="H789" s="51"/>
+      <c r="F789" s="49"/>
+      <c r="G789" s="49"/>
+      <c r="H789" s="49"/>
     </row>
     <row r="790" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F790" s="51"/>
-      <c r="G790" s="51"/>
-      <c r="H790" s="51"/>
+      <c r="F790" s="49"/>
+      <c r="G790" s="49"/>
+      <c r="H790" s="49"/>
     </row>
     <row r="791" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F791" s="51"/>
-      <c r="G791" s="51"/>
-      <c r="H791" s="51"/>
+      <c r="F791" s="49"/>
+      <c r="G791" s="49"/>
+      <c r="H791" s="49"/>
     </row>
     <row r="792" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F792" s="51"/>
-      <c r="G792" s="51"/>
-      <c r="H792" s="51"/>
+      <c r="F792" s="49"/>
+      <c r="G792" s="49"/>
+      <c r="H792" s="49"/>
     </row>
     <row r="793" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F793" s="51"/>
-      <c r="G793" s="51"/>
-      <c r="H793" s="51"/>
+      <c r="F793" s="49"/>
+      <c r="G793" s="49"/>
+      <c r="H793" s="49"/>
     </row>
     <row r="794" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F794" s="51"/>
-      <c r="G794" s="51"/>
-      <c r="H794" s="51"/>
+      <c r="F794" s="49"/>
+      <c r="G794" s="49"/>
+      <c r="H794" s="49"/>
     </row>
     <row r="795" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F795" s="51"/>
-      <c r="G795" s="51"/>
-      <c r="H795" s="51"/>
+      <c r="F795" s="49"/>
+      <c r="G795" s="49"/>
+      <c r="H795" s="49"/>
     </row>
     <row r="796" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F796" s="51"/>
-      <c r="G796" s="51"/>
-      <c r="H796" s="51"/>
+      <c r="F796" s="49"/>
+      <c r="G796" s="49"/>
+      <c r="H796" s="49"/>
     </row>
     <row r="797" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F797" s="51"/>
-      <c r="G797" s="51"/>
-      <c r="H797" s="51"/>
+      <c r="F797" s="49"/>
+      <c r="G797" s="49"/>
+      <c r="H797" s="49"/>
     </row>
     <row r="798" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F798" s="51"/>
-      <c r="G798" s="51"/>
-      <c r="H798" s="51"/>
+      <c r="F798" s="49"/>
+      <c r="G798" s="49"/>
+      <c r="H798" s="49"/>
     </row>
     <row r="799" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F799" s="51"/>
-      <c r="G799" s="51"/>
-      <c r="H799" s="51"/>
+      <c r="F799" s="49"/>
+      <c r="G799" s="49"/>
+      <c r="H799" s="49"/>
     </row>
     <row r="800" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F800" s="51"/>
-      <c r="G800" s="51"/>
-      <c r="H800" s="51"/>
+      <c r="F800" s="49"/>
+      <c r="G800" s="49"/>
+      <c r="H800" s="49"/>
     </row>
     <row r="801" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F801" s="51"/>
-      <c r="G801" s="51"/>
-      <c r="H801" s="51"/>
+      <c r="F801" s="49"/>
+      <c r="G801" s="49"/>
+      <c r="H801" s="49"/>
     </row>
     <row r="802" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F802" s="51"/>
-      <c r="G802" s="51"/>
-      <c r="H802" s="51"/>
+      <c r="F802" s="49"/>
+      <c r="G802" s="49"/>
+      <c r="H802" s="49"/>
     </row>
     <row r="803" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F803" s="51"/>
-      <c r="G803" s="51"/>
-      <c r="H803" s="51"/>
+      <c r="F803" s="49"/>
+      <c r="G803" s="49"/>
+      <c r="H803" s="49"/>
     </row>
     <row r="804" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F804" s="51"/>
-      <c r="G804" s="51"/>
-      <c r="H804" s="51"/>
+      <c r="F804" s="49"/>
+      <c r="G804" s="49"/>
+      <c r="H804" s="49"/>
     </row>
     <row r="805" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F805" s="51"/>
-      <c r="G805" s="51"/>
-      <c r="H805" s="51"/>
+      <c r="F805" s="49"/>
+      <c r="G805" s="49"/>
+      <c r="H805" s="49"/>
     </row>
     <row r="806" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F806" s="51"/>
-      <c r="G806" s="51"/>
-      <c r="H806" s="51"/>
+      <c r="F806" s="49"/>
+      <c r="G806" s="49"/>
+      <c r="H806" s="49"/>
     </row>
     <row r="807" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F807" s="51"/>
-      <c r="G807" s="51"/>
-      <c r="H807" s="51"/>
+      <c r="F807" s="49"/>
+      <c r="G807" s="49"/>
+      <c r="H807" s="49"/>
     </row>
     <row r="808" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F808" s="51"/>
-      <c r="G808" s="51"/>
-      <c r="H808" s="51"/>
+      <c r="F808" s="49"/>
+      <c r="G808" s="49"/>
+      <c r="H808" s="49"/>
     </row>
     <row r="809" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F809" s="51"/>
-      <c r="G809" s="51"/>
-      <c r="H809" s="51"/>
+      <c r="F809" s="49"/>
+      <c r="G809" s="49"/>
+      <c r="H809" s="49"/>
     </row>
     <row r="810" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F810" s="51"/>
-      <c r="G810" s="51"/>
-      <c r="H810" s="51"/>
+      <c r="F810" s="49"/>
+      <c r="G810" s="49"/>
+      <c r="H810" s="49"/>
     </row>
     <row r="811" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F811" s="51"/>
-      <c r="G811" s="51"/>
-      <c r="H811" s="51"/>
+      <c r="F811" s="49"/>
+      <c r="G811" s="49"/>
+      <c r="H811" s="49"/>
     </row>
     <row r="812" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F812" s="51"/>
-      <c r="G812" s="51"/>
-      <c r="H812" s="51"/>
+      <c r="F812" s="49"/>
+      <c r="G812" s="49"/>
+      <c r="H812" s="49"/>
     </row>
     <row r="813" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F813" s="51"/>
-      <c r="G813" s="51"/>
-      <c r="H813" s="51"/>
+      <c r="F813" s="49"/>
+      <c r="G813" s="49"/>
+      <c r="H813" s="49"/>
     </row>
     <row r="814" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F814" s="51"/>
-      <c r="G814" s="51"/>
-      <c r="H814" s="51"/>
+      <c r="F814" s="49"/>
+      <c r="G814" s="49"/>
+      <c r="H814" s="49"/>
     </row>
     <row r="815" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F815" s="51"/>
-      <c r="G815" s="51"/>
-      <c r="H815" s="51"/>
+      <c r="F815" s="49"/>
+      <c r="G815" s="49"/>
+      <c r="H815" s="49"/>
     </row>
     <row r="816" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F816" s="51"/>
-      <c r="G816" s="51"/>
-      <c r="H816" s="51"/>
+      <c r="F816" s="49"/>
+      <c r="G816" s="49"/>
+      <c r="H816" s="49"/>
     </row>
     <row r="817" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F817" s="51"/>
-      <c r="G817" s="51"/>
-      <c r="H817" s="51"/>
+      <c r="F817" s="49"/>
+      <c r="G817" s="49"/>
+      <c r="H817" s="49"/>
     </row>
     <row r="818" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F818" s="51"/>
-      <c r="G818" s="51"/>
-      <c r="H818" s="51"/>
+      <c r="F818" s="49"/>
+      <c r="G818" s="49"/>
+      <c r="H818" s="49"/>
     </row>
     <row r="819" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F819" s="51"/>
-      <c r="G819" s="51"/>
-      <c r="H819" s="51"/>
+      <c r="F819" s="49"/>
+      <c r="G819" s="49"/>
+      <c r="H819" s="49"/>
     </row>
     <row r="820" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F820" s="51"/>
-      <c r="G820" s="51"/>
-      <c r="H820" s="51"/>
+      <c r="F820" s="49"/>
+      <c r="G820" s="49"/>
+      <c r="H820" s="49"/>
     </row>
     <row r="821" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F821" s="51"/>
-      <c r="G821" s="51"/>
-      <c r="H821" s="51"/>
+      <c r="F821" s="49"/>
+      <c r="G821" s="49"/>
+      <c r="H821" s="49"/>
     </row>
     <row r="822" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F822" s="51"/>
-      <c r="G822" s="51"/>
-      <c r="H822" s="51"/>
+      <c r="F822" s="49"/>
+      <c r="G822" s="49"/>
+      <c r="H822" s="49"/>
     </row>
     <row r="823" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F823" s="51"/>
-      <c r="G823" s="51"/>
-      <c r="H823" s="51"/>
+      <c r="F823" s="49"/>
+      <c r="G823" s="49"/>
+      <c r="H823" s="49"/>
     </row>
     <row r="824" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F824" s="51"/>
-      <c r="G824" s="51"/>
-      <c r="H824" s="51"/>
+      <c r="F824" s="49"/>
+      <c r="G824" s="49"/>
+      <c r="H824" s="49"/>
     </row>
     <row r="825" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F825" s="51"/>
-      <c r="G825" s="51"/>
-      <c r="H825" s="51"/>
+      <c r="F825" s="49"/>
+      <c r="G825" s="49"/>
+      <c r="H825" s="49"/>
     </row>
     <row r="826" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F826" s="51"/>
-      <c r="G826" s="51"/>
-      <c r="H826" s="51"/>
+      <c r="F826" s="49"/>
+      <c r="G826" s="49"/>
+      <c r="H826" s="49"/>
     </row>
     <row r="827" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F827" s="51"/>
-      <c r="G827" s="51"/>
-      <c r="H827" s="51"/>
+      <c r="F827" s="49"/>
+      <c r="G827" s="49"/>
+      <c r="H827" s="49"/>
     </row>
     <row r="828" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F828" s="51"/>
-      <c r="G828" s="51"/>
-      <c r="H828" s="51"/>
+      <c r="F828" s="49"/>
+      <c r="G828" s="49"/>
+      <c r="H828" s="49"/>
     </row>
     <row r="829" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F829" s="51"/>
-      <c r="G829" s="51"/>
-      <c r="H829" s="51"/>
+      <c r="F829" s="49"/>
+      <c r="G829" s="49"/>
+      <c r="H829" s="49"/>
     </row>
     <row r="830" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F830" s="51"/>
-      <c r="G830" s="51"/>
-      <c r="H830" s="51"/>
+      <c r="F830" s="49"/>
+      <c r="G830" s="49"/>
+      <c r="H830" s="49"/>
     </row>
     <row r="831" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F831" s="51"/>
-      <c r="G831" s="51"/>
-      <c r="H831" s="51"/>
+      <c r="F831" s="49"/>
+      <c r="G831" s="49"/>
+      <c r="H831" s="49"/>
     </row>
     <row r="832" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F832" s="51"/>
-      <c r="G832" s="51"/>
-      <c r="H832" s="51"/>
+      <c r="F832" s="49"/>
+      <c r="G832" s="49"/>
+      <c r="H832" s="49"/>
     </row>
     <row r="833" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F833" s="51"/>
-      <c r="G833" s="51"/>
-      <c r="H833" s="51"/>
+      <c r="F833" s="49"/>
+      <c r="G833" s="49"/>
+      <c r="H833" s="49"/>
     </row>
     <row r="834" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F834" s="51"/>
-      <c r="G834" s="51"/>
-      <c r="H834" s="51"/>
+      <c r="F834" s="49"/>
+      <c r="G834" s="49"/>
+      <c r="H834" s="49"/>
     </row>
     <row r="835" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F835" s="51"/>
-      <c r="G835" s="51"/>
-      <c r="H835" s="51"/>
+      <c r="F835" s="49"/>
+      <c r="G835" s="49"/>
+      <c r="H835" s="49"/>
     </row>
     <row r="836" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F836" s="51"/>
-      <c r="G836" s="51"/>
-      <c r="H836" s="51"/>
+      <c r="F836" s="49"/>
+      <c r="G836" s="49"/>
+      <c r="H836" s="49"/>
     </row>
     <row r="837" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F837" s="51"/>
-      <c r="G837" s="51"/>
-      <c r="H837" s="51"/>
+      <c r="F837" s="49"/>
+      <c r="G837" s="49"/>
+      <c r="H837" s="49"/>
     </row>
     <row r="838" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F838" s="51"/>
-      <c r="G838" s="51"/>
-      <c r="H838" s="51"/>
+      <c r="F838" s="49"/>
+      <c r="G838" s="49"/>
+      <c r="H838" s="49"/>
     </row>
     <row r="839" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F839" s="51"/>
-      <c r="G839" s="51"/>
-      <c r="H839" s="51"/>
+      <c r="F839" s="49"/>
+      <c r="G839" s="49"/>
+      <c r="H839" s="49"/>
     </row>
     <row r="840" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F840" s="51"/>
-      <c r="G840" s="51"/>
-      <c r="H840" s="51"/>
+      <c r="F840" s="49"/>
+      <c r="G840" s="49"/>
+      <c r="H840" s="49"/>
     </row>
     <row r="841" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F841" s="51"/>
-      <c r="G841" s="51"/>
-      <c r="H841" s="51"/>
+      <c r="F841" s="49"/>
+      <c r="G841" s="49"/>
+      <c r="H841" s="49"/>
     </row>
     <row r="842" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F842" s="51"/>
-      <c r="G842" s="51"/>
-      <c r="H842" s="51"/>
+      <c r="F842" s="49"/>
+      <c r="G842" s="49"/>
+      <c r="H842" s="49"/>
     </row>
     <row r="843" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F843" s="51"/>
-      <c r="G843" s="51"/>
-      <c r="H843" s="51"/>
+      <c r="F843" s="49"/>
+      <c r="G843" s="49"/>
+      <c r="H843" s="49"/>
     </row>
     <row r="844" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F844" s="51"/>
-      <c r="G844" s="51"/>
-      <c r="H844" s="51"/>
+      <c r="F844" s="49"/>
+      <c r="G844" s="49"/>
+      <c r="H844" s="49"/>
     </row>
     <row r="845" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F845" s="51"/>
-      <c r="G845" s="51"/>
-      <c r="H845" s="51"/>
+      <c r="F845" s="49"/>
+      <c r="G845" s="49"/>
+      <c r="H845" s="49"/>
     </row>
     <row r="846" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F846" s="51"/>
-      <c r="G846" s="51"/>
-      <c r="H846" s="51"/>
+      <c r="F846" s="49"/>
+      <c r="G846" s="49"/>
+      <c r="H846" s="49"/>
     </row>
     <row r="847" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F847" s="51"/>
-      <c r="G847" s="51"/>
-      <c r="H847" s="51"/>
+      <c r="F847" s="49"/>
+      <c r="G847" s="49"/>
+      <c r="H847" s="49"/>
     </row>
     <row r="848" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F848" s="51"/>
-      <c r="G848" s="51"/>
-      <c r="H848" s="51"/>
+      <c r="F848" s="49"/>
+      <c r="G848" s="49"/>
+      <c r="H848" s="49"/>
     </row>
     <row r="849" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F849" s="51"/>
-      <c r="G849" s="51"/>
-      <c r="H849" s="51"/>
+      <c r="F849" s="49"/>
+      <c r="G849" s="49"/>
+      <c r="H849" s="49"/>
     </row>
     <row r="850" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F850" s="51"/>
-      <c r="G850" s="51"/>
-      <c r="H850" s="51"/>
+      <c r="F850" s="49"/>
+      <c r="G850" s="49"/>
+      <c r="H850" s="49"/>
     </row>
     <row r="851" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F851" s="51"/>
-      <c r="G851" s="51"/>
-      <c r="H851" s="51"/>
+      <c r="F851" s="49"/>
+      <c r="G851" s="49"/>
+      <c r="H851" s="49"/>
     </row>
     <row r="852" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F852" s="51"/>
-      <c r="G852" s="51"/>
-      <c r="H852" s="51"/>
+      <c r="F852" s="49"/>
+      <c r="G852" s="49"/>
+      <c r="H852" s="49"/>
     </row>
     <row r="853" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F853" s="51"/>
-      <c r="G853" s="51"/>
-      <c r="H853" s="51"/>
+      <c r="F853" s="49"/>
+      <c r="G853" s="49"/>
+      <c r="H853" s="49"/>
     </row>
     <row r="854" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F854" s="51"/>
-      <c r="G854" s="51"/>
-      <c r="H854" s="51"/>
+      <c r="F854" s="49"/>
+      <c r="G854" s="49"/>
+      <c r="H854" s="49"/>
     </row>
     <row r="855" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F855" s="51"/>
-      <c r="G855" s="51"/>
-      <c r="H855" s="51"/>
+      <c r="F855" s="49"/>
+      <c r="G855" s="49"/>
+      <c r="H855" s="49"/>
     </row>
     <row r="856" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F856" s="51"/>
-      <c r="G856" s="51"/>
-      <c r="H856" s="51"/>
+      <c r="F856" s="49"/>
+      <c r="G856" s="49"/>
+      <c r="H856" s="49"/>
     </row>
     <row r="857" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F857" s="51"/>
-      <c r="G857" s="51"/>
-      <c r="H857" s="51"/>
+      <c r="F857" s="49"/>
+      <c r="G857" s="49"/>
+      <c r="H857" s="49"/>
     </row>
     <row r="858" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F858" s="51"/>
-      <c r="G858" s="51"/>
-      <c r="H858" s="51"/>
+      <c r="F858" s="49"/>
+      <c r="G858" s="49"/>
+      <c r="H858" s="49"/>
     </row>
     <row r="859" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F859" s="51"/>
-      <c r="G859" s="51"/>
-      <c r="H859" s="51"/>
+      <c r="F859" s="49"/>
+      <c r="G859" s="49"/>
+      <c r="H859" s="49"/>
     </row>
     <row r="860" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F860" s="51"/>
-      <c r="G860" s="51"/>
-      <c r="H860" s="51"/>
+      <c r="F860" s="49"/>
+      <c r="G860" s="49"/>
+      <c r="H860" s="49"/>
     </row>
     <row r="861" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F861" s="51"/>
-      <c r="G861" s="51"/>
-      <c r="H861" s="51"/>
+      <c r="F861" s="49"/>
+      <c r="G861" s="49"/>
+      <c r="H861" s="49"/>
     </row>
     <row r="862" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F862" s="51"/>
-      <c r="G862" s="51"/>
-      <c r="H862" s="51"/>
+      <c r="F862" s="49"/>
+      <c r="G862" s="49"/>
+      <c r="H862" s="49"/>
     </row>
     <row r="863" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F863" s="51"/>
-      <c r="G863" s="51"/>
-      <c r="H863" s="51"/>
+      <c r="F863" s="49"/>
+      <c r="G863" s="49"/>
+      <c r="H863" s="49"/>
     </row>
     <row r="864" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F864" s="51"/>
-      <c r="G864" s="51"/>
-      <c r="H864" s="51"/>
+      <c r="F864" s="49"/>
+      <c r="G864" s="49"/>
+      <c r="H864" s="49"/>
     </row>
     <row r="865" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F865" s="51"/>
-      <c r="G865" s="51"/>
-      <c r="H865" s="51"/>
+      <c r="F865" s="49"/>
+      <c r="G865" s="49"/>
+      <c r="H865" s="49"/>
     </row>
     <row r="866" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F866" s="51"/>
-      <c r="G866" s="51"/>
-      <c r="H866" s="51"/>
+      <c r="F866" s="49"/>
+      <c r="G866" s="49"/>
+      <c r="H866" s="49"/>
     </row>
     <row r="867" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F867" s="51"/>
-      <c r="G867" s="51"/>
-      <c r="H867" s="51"/>
+      <c r="F867" s="49"/>
+      <c r="G867" s="49"/>
+      <c r="H867" s="49"/>
     </row>
     <row r="868" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F868" s="51"/>
-      <c r="G868" s="51"/>
-      <c r="H868" s="51"/>
+      <c r="F868" s="49"/>
+      <c r="G868" s="49"/>
+      <c r="H868" s="49"/>
     </row>
     <row r="869" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F869" s="51"/>
-      <c r="G869" s="51"/>
-      <c r="H869" s="51"/>
+      <c r="F869" s="49"/>
+      <c r="G869" s="49"/>
+      <c r="H869" s="49"/>
     </row>
     <row r="870" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F870" s="51"/>
-      <c r="G870" s="51"/>
-      <c r="H870" s="51"/>
+      <c r="F870" s="49"/>
+      <c r="G870" s="49"/>
+      <c r="H870" s="49"/>
     </row>
     <row r="871" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F871" s="51"/>
-      <c r="G871" s="51"/>
-      <c r="H871" s="51"/>
+      <c r="F871" s="49"/>
+      <c r="G871" s="49"/>
+      <c r="H871" s="49"/>
     </row>
     <row r="872" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F872" s="51"/>
-      <c r="G872" s="51"/>
-      <c r="H872" s="51"/>
+      <c r="F872" s="49"/>
+      <c r="G872" s="49"/>
+      <c r="H872" s="49"/>
     </row>
     <row r="873" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F873" s="51"/>
-      <c r="G873" s="51"/>
-      <c r="H873" s="51"/>
+      <c r="F873" s="49"/>
+      <c r="G873" s="49"/>
+      <c r="H873" s="49"/>
     </row>
     <row r="874" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F874" s="51"/>
-      <c r="G874" s="51"/>
-      <c r="H874" s="51"/>
+      <c r="F874" s="49"/>
+      <c r="G874" s="49"/>
+      <c r="H874" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -10408,7 +10191,7 @@
   </conditionalFormatting>
   <dataValidations count="5">
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="true" showErrorMessage="false" showInputMessage="false" sqref="F10:H18" type="custom">
-      <formula1>OR(NOT(ISERROR(DATEVALUE(#REF!))), AND(ISNUMBER(#REF!), LEFT(CELL("format", #REF!))="D"))</formula1>
+      <formula1>OR(NOT(ISERROR(DATEVALUE(#ref!))), AND(ISNUMBER(#ref!), LEFT(CELL("format", #ref!))="D"))</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="J10:J18" type="list">
@@ -10420,18 +10203,18 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="true" showErrorMessage="false" showInputMessage="false" sqref="J3 J5" type="custom">
-      <formula1>OR(NOT(ISERROR(DATEVALUE(#REF!))), AND(ISNUMBER(#REF!), LEFT(CELL("format", #REF!))="D"))</formula1>
+      <formula1>OR(NOT(ISERROR(DATEVALUE(#ref!))), AND(ISNUMBER(#ref!), LEFT(CELL("format", #ref!))="D"))</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="F19:H874" type="custom">
-      <formula1>OR(NOT(ISERROR(DATEVALUE(#REF!))),AND(ISNUMBER(#REF!),LEFT(CELL("format",#REF!))="D"))</formula1>
+      <formula1>OR(NOT(ISERROR(DATEVALUE(#ref!))),AND(ISNUMBER(#ref!),LEFT(CELL("format",#ref!))="D"))</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="H10" r:id="rId1" display="https://web.facebook.com"/>
-    <hyperlink ref="H16" r:id="rId2" display="Sagamba@123"/>
-    <hyperlink ref="H17" r:id="rId3" display="mbasambam1@gmail.com"/>
+    <hyperlink ref="H16" r:id="rId2" display="Password: Sagamba@123."/>
+    <hyperlink ref="H17" r:id="rId3" display="Username: mbasambam1@gmail.com&#10;"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/FB TestCases.xlsx
+++ b/FB TestCases.xlsx
@@ -1853,7 +1853,7 @@
   <dimension ref="A1:AH874"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="66" zoomScaleNormal="66" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="B126" activeCellId="0" sqref="B126"/>
     </sheetView>
